--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\TESTDATA3rdOct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D57414-28EA-40BE-94AD-63D96E5D808A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168C189-E370-4A97-AA84-C095983346D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="28" r:id="rId1"/>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1:AR4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2387,7 +2387,9 @@
       <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>101</v>
@@ -2449,7 +2451,9 @@
       <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
         <v>101</v>
@@ -7233,7 +7237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -8022,16 +8026,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -8248,6 +8242,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8258,16 +8262,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8286,6 +8280,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\TESTDATA3rdOct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168C189-E370-4A97-AA84-C095983346D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189A990-8E52-4638-9799-F86C02F8FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="28" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="414">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2390,7 +2390,9 @@
       <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>101</v>
       </c>
@@ -7530,7 +7532,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\TESTDATA3rdOct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189A990-8E52-4638-9799-F86C02F8FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF65D7D0-3F9E-43D8-884F-72AA4458A1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="28" r:id="rId1"/>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="5" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="6" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B6" s="12">
         <v>2</v>
@@ -2620,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\TESTDATA3rdOct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF65D7D0-3F9E-43D8-884F-72AA4458A1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390DDE76-740F-47A5-A06B-F3E9B04CE9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="28" r:id="rId1"/>
@@ -403,9 +403,6 @@
     <t>test2922</t>
   </si>
   <si>
-    <t>Information &amp;Referral: Social Worker Information Request</t>
-  </si>
-  <si>
     <t>E-mail</t>
   </si>
   <si>
@@ -1304,6 +1301,9 @@
   </si>
   <si>
     <t>person4</t>
+  </si>
+  <si>
+    <t>Information &amp;Referral- Social Worker Information Request</t>
   </si>
 </sst>
 </file>
@@ -1772,16 +1772,16 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F1" t="s">
         <v>65</v>
       </c>
       <c r="G1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1" t="s">
         <v>367</v>
-      </c>
-      <c r="H1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1912,7 +1912,7 @@
         <v>79</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>80</v>
@@ -1978,28 +1978,28 @@
         <v>98</v>
       </c>
       <c r="AK1" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="AL1" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
-        <v>383</v>
-      </c>
       <c r="AR1" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="14.5" x14ac:dyDescent="0.35">
@@ -2144,7 +2144,7 @@
         <v>103</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>105</v>
@@ -2216,10 +2216,10 @@
       <c r="AO3" s="12"/>
       <c r="AP3" s="12"/>
       <c r="AQ3" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
@@ -2283,7 +2283,7 @@
         <v>36</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>105</v>
@@ -2355,10 +2355,10 @@
       <c r="AO4" s="12"/>
       <c r="AP4" s="12"/>
       <c r="AQ4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AR4" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
@@ -2402,8 +2402,8 @@
       <c r="G5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>113</v>
+      <c r="H5" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>99</v>
@@ -2466,8 +2466,8 @@
       <c r="G6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>113</v>
+      <c r="H6" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>99</v>
@@ -2481,7 +2481,7 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="7" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -2620,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2650,25 +2650,25 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2679,16 +2679,16 @@
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2703,16 +2703,16 @@
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2730,13 +2730,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
         <v>120</v>
       </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -2752,13 +2752,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -2774,13 +2774,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
         <v>120</v>
       </c>
-      <c r="E6" t="s">
-        <v>121</v>
-      </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -2796,13 +2796,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -2818,13 +2818,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
         <v>120</v>
       </c>
-      <c r="E8" t="s">
-        <v>121</v>
-      </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -2840,13 +2840,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -2862,13 +2862,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
         <v>120</v>
       </c>
-      <c r="E10" t="s">
-        <v>121</v>
-      </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -2884,13 +2884,13 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -2906,17 +2906,17 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
         <v>120</v>
       </c>
-      <c r="E12" t="s">
-        <v>121</v>
-      </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -2930,17 +2930,17 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2954,17 +2954,17 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
         <v>120</v>
       </c>
-      <c r="E14" t="s">
-        <v>121</v>
-      </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2978,17 +2978,17 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3024,27 +3024,27 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
-      </c>
-      <c r="I1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -3057,7 +3057,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -3080,7 +3080,7 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -3103,7 +3103,7 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -3126,7 +3126,7 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
@@ -3149,7 +3149,7 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
         <v>36</v>
@@ -3173,7 +3173,7 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -3197,7 +3197,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
@@ -3221,7 +3221,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
@@ -3245,7 +3245,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -3281,7 +3281,7 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
         <v>88</v>
@@ -3296,82 +3296,82 @@
         <v>65</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>96</v>
       </c>
       <c r="N1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" t="s">
         <v>134</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>135</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>137</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>138</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" t="s">
         <v>139</v>
       </c>
-      <c r="T1" t="s">
-        <v>139</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>140</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>141</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>142</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>144</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>145</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>146</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>148</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>149</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>150</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>151</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>152</v>
       </c>
-      <c r="AH1" t="s">
-        <v>153</v>
-      </c>
       <c r="AI1" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -3388,7 +3388,7 @@
         <v>101</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -3405,7 +3405,7 @@
         <v>101</v>
       </c>
       <c r="AI3" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -3418,7 +3418,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>101</v>
@@ -3428,7 +3428,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L4" s="2">
         <v>97818</v>
@@ -3447,7 +3447,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="AI4" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -3493,82 +3493,82 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
         <v>156</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>157</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>158</v>
-      </c>
-      <c r="H1" t="s">
-        <v>159</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
       </c>
       <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
         <v>160</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>161</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>177</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -3624,22 +3624,22 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
         <v>179</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>180</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>181</v>
-      </c>
-      <c r="H1" t="s">
-        <v>182</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3650,10 +3650,10 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
         <v>184</v>
-      </c>
-      <c r="F2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3666,10 +3666,10 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" t="s">
         <v>184</v>
-      </c>
-      <c r="F3" t="s">
-        <v>185</v>
       </c>
       <c r="G3" t="s">
         <v>99</v>
@@ -3728,46 +3728,46 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
         <v>65</v>
       </c>
       <c r="G1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="Q1" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -3778,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -3803,7 +3803,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3891,178 +3891,178 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E1" t="s">
         <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H1" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="X1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="AF1" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="AJ1" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AP1" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AS1" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AV1" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AX1" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AY1" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BA1" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BB1" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BD1" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BE1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BH1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BI1" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="BH1" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="BI1" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="BJ1" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -4199,133 +4199,133 @@
         <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>69</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>65</v>
       </c>
       <c r="R1" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD1" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AC1" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="AQ1" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="AR1" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS1" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AT1" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
@@ -4346,16 +4346,16 @@
         <v>99</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>105</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>22</v>
@@ -4364,13 +4364,13 @@
         <v>99</v>
       </c>
       <c r="M2" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>279</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>99</v>
@@ -4405,7 +4405,7 @@
       <c r="AR2" s="12"/>
       <c r="AS2" s="12"/>
       <c r="AT2" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -4428,16 +4428,16 @@
         <v>99</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>105</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>22</v>
@@ -4446,13 +4446,13 @@
         <v>99</v>
       </c>
       <c r="M3" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>279</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>99</v>
@@ -4487,7 +4487,7 @@
       <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
       <c r="AT3" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -4510,16 +4510,16 @@
         <v>99</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>105</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>22</v>
@@ -4528,13 +4528,13 @@
         <v>99</v>
       </c>
       <c r="M4" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>279</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>99</v>
@@ -4569,7 +4569,7 @@
       <c r="AR4" s="12"/>
       <c r="AS4" s="12"/>
       <c r="AT4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -4590,16 +4590,16 @@
         <v>99</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>105</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>22</v>
@@ -4608,13 +4608,13 @@
         <v>99</v>
       </c>
       <c r="M5" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>279</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>99</v>
@@ -4649,7 +4649,7 @@
       <c r="AR5" s="12"/>
       <c r="AS5" s="12"/>
       <c r="AT5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -4778,97 +4778,97 @@
         <v>69</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>240</v>
-      </c>
       <c r="G1" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>243</v>
-      </c>
       <c r="K1" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>65</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="AA1" s="9" t="s">
-        <v>285</v>
-      </c>
       <c r="AB1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="AC1" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AE1" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="AF1" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AI1" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -4881,19 +4881,19 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>22</v>
@@ -4902,10 +4902,10 @@
         <v>105</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -4929,7 +4929,7 @@
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -4942,19 +4942,19 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>22</v>
@@ -4963,10 +4963,10 @@
         <v>105</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -4990,7 +4990,7 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -5685,15 +5685,15 @@
         <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>379</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -5710,7 +5710,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5762,25 +5762,25 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" t="s">
         <v>289</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>290</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>291</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>292</v>
-      </c>
-      <c r="H1" t="s">
-        <v>293</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -5806,7 +5806,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -5998,49 +5998,49 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -6146,58 +6146,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1" t="s">
         <v>69</v>
       </c>
       <c r="F1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" t="s">
         <v>313</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>314</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" t="s">
         <v>315</v>
       </c>
-      <c r="I1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>316</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>317</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>318</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>319</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>320</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" t="s">
         <v>321</v>
       </c>
-      <c r="P1" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>322</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>323</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>324</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>325</v>
-      </c>
-      <c r="U1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -6287,64 +6287,64 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" t="s">
         <v>327</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>328</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>329</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>330</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>331</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>332</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>333</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>335</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>336</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" t="s">
         <v>337</v>
       </c>
-      <c r="O1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>339</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>340</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" t="s">
+        <v>167</v>
+      </c>
+      <c r="V1" t="s">
         <v>341</v>
       </c>
-      <c r="T1" t="s">
-        <v>208</v>
-      </c>
-      <c r="U1" t="s">
-        <v>168</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>342</v>
-      </c>
-      <c r="W1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -6523,55 +6523,55 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" t="s">
         <v>344</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>345</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>346</v>
-      </c>
-      <c r="G1" t="s">
-        <v>347</v>
       </c>
       <c r="H1" t="s">
         <v>71</v>
       </c>
       <c r="I1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>349</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>350</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>351</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" t="s">
         <v>352</v>
       </c>
-      <c r="N1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>353</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>354</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>355</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>356</v>
-      </c>
-      <c r="T1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -6585,7 +6585,7 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F2" t="s">
         <v>99</v>
@@ -6645,7 +6645,7 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F3" t="s">
         <v>99</v>
@@ -6725,7 +6725,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -6795,22 +6795,22 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -6830,7 +6830,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -6932,19 +6932,19 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" t="s">
         <v>362</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>363</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>364</v>
-      </c>
-      <c r="H1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -6958,7 +6958,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
         <v>99</v>
@@ -7106,22 +7106,22 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
         <v>65</v>
       </c>
       <c r="G1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" t="s">
         <v>370</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>372</v>
-      </c>
-      <c r="J1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -7147,10 +7147,10 @@
         <v>101</v>
       </c>
       <c r="H2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I2" t="s">
         <v>374</v>
-      </c>
-      <c r="I2" t="s">
-        <v>375</v>
       </c>
       <c r="J2" t="s">
         <v>101</v>
@@ -7192,16 +7192,16 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F1" t="s">
         <v>65</v>
       </c>
       <c r="G1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H1" t="s">
         <v>377</v>
-      </c>
-      <c r="H1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -7747,37 +7747,37 @@
         <v>52</v>
       </c>
       <c r="T1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD1" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\TESTDATA3rdOct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390DDE76-740F-47A5-A06B-F3E9B04CE9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB069A5E-08A4-4863-A17A-10A5691C2E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -1303,7 +1303,7 @@
     <t>person4</t>
   </si>
   <si>
-    <t>Information &amp;Referral- Social Worker Information Request</t>
+    <t>Information &amp; Referral - Social Worker Information Request</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1821,7 @@
   <dimension ref="A1:BC8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\TESTDATA3rdOct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB069A5E-08A4-4863-A17A-10A5691C2E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48300EAE-340D-4F65-B9D2-C164E29A7ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="415">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -403,9 +403,6 @@
     <t>test2922</t>
   </si>
   <si>
-    <t>E-mail</t>
-  </si>
-  <si>
     <t>test2901</t>
   </si>
   <si>
@@ -1304,6 +1301,12 @@
   </si>
   <si>
     <t>Information &amp; Referral - Social Worker Information Request</t>
+  </si>
+  <si>
+    <t>AFG 94</t>
+  </si>
+  <si>
+    <t>AFG 95</t>
   </si>
 </sst>
 </file>
@@ -1772,16 +1775,16 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F1" t="s">
         <v>65</v>
       </c>
       <c r="G1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" t="s">
         <v>366</v>
-      </c>
-      <c r="H1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1820,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AR4" sqref="AR4:AR6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1912,7 +1915,7 @@
         <v>79</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>80</v>
@@ -1978,28 +1981,28 @@
         <v>98</v>
       </c>
       <c r="AK1" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="AL1" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
-        <v>382</v>
-      </c>
       <c r="AR1" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="14.5" x14ac:dyDescent="0.35">
@@ -2144,7 +2147,7 @@
         <v>103</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>105</v>
@@ -2216,10 +2219,10 @@
       <c r="AO3" s="12"/>
       <c r="AP3" s="12"/>
       <c r="AQ3" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
@@ -2283,7 +2286,7 @@
         <v>36</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>105</v>
@@ -2355,10 +2358,10 @@
       <c r="AO4" s="12"/>
       <c r="AP4" s="12"/>
       <c r="AQ4" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AR4" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
@@ -2403,7 +2406,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>99</v>
@@ -2411,40 +2414,92 @@
       <c r="J5" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
+      <c r="Q5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
       <c r="AM5" s="12"/>
       <c r="AN5" s="12"/>
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
+      <c r="AQ5" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="6" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
@@ -2467,7 +2522,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>99</v>
@@ -2475,44 +2530,100 @@
       <c r="J6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="K6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="P6" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="12"/>
       <c r="AM6" s="12"/>
       <c r="AN6" s="12"/>
       <c r="AO6" s="12"/>
       <c r="AP6" s="12"/>
+      <c r="AQ6" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="7" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -2650,25 +2761,25 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2679,16 +2790,16 @@
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2703,16 +2814,16 @@
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2730,13 +2841,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
         <v>119</v>
       </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -2752,13 +2863,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -2774,13 +2885,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
         <v>119</v>
       </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -2796,13 +2907,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -2818,13 +2929,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
         <v>119</v>
       </c>
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -2840,13 +2951,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -2862,13 +2973,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
         <v>119</v>
       </c>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -2884,13 +2995,13 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -2906,17 +3017,17 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
         <v>119</v>
       </c>
-      <c r="E12" t="s">
-        <v>120</v>
-      </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -2930,17 +3041,17 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2954,17 +3065,17 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
         <v>119</v>
       </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2978,17 +3089,17 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3024,27 +3135,27 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>126</v>
-      </c>
-      <c r="I1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -3057,7 +3168,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -3080,7 +3191,7 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -3103,7 +3214,7 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -3126,7 +3237,7 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
@@ -3149,7 +3260,7 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
         <v>36</v>
@@ -3173,7 +3284,7 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -3197,7 +3308,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
@@ -3221,7 +3332,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
@@ -3245,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -3281,7 +3392,7 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
         <v>88</v>
@@ -3296,82 +3407,82 @@
         <v>65</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>96</v>
       </c>
       <c r="N1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" t="s">
         <v>133</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>134</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>136</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>137</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" t="s">
         <v>138</v>
       </c>
-      <c r="T1" t="s">
-        <v>138</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>139</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>140</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>141</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>142</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>143</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>144</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>145</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>146</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>147</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>148</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>149</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>150</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>151</v>
       </c>
-      <c r="AH1" t="s">
-        <v>152</v>
-      </c>
       <c r="AI1" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -3388,7 +3499,7 @@
         <v>101</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -3405,7 +3516,7 @@
         <v>101</v>
       </c>
       <c r="AI3" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -3418,7 +3529,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>101</v>
@@ -3428,7 +3539,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L4" s="2">
         <v>97818</v>
@@ -3447,7 +3558,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="AI4" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -3493,82 +3604,82 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>156</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>157</v>
-      </c>
-      <c r="H1" t="s">
-        <v>158</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
       </c>
       <c r="J1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" t="s">
         <v>159</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>160</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC1" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3579,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -3624,22 +3735,22 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
         <v>178</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>180</v>
-      </c>
-      <c r="H1" t="s">
-        <v>181</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3650,10 +3761,10 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
         <v>183</v>
-      </c>
-      <c r="F2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3666,10 +3777,10 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="s">
         <v>183</v>
-      </c>
-      <c r="F3" t="s">
-        <v>184</v>
       </c>
       <c r="G3" t="s">
         <v>99</v>
@@ -3728,46 +3839,46 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F1" t="s">
         <v>65</v>
       </c>
       <c r="G1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="Q1" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -3778,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -3803,7 +3914,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3891,178 +4002,178 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
         <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="X1" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AF1" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="AJ1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AP1" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AS1" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AV1" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AX1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AY1" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BA1" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BB1" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BD1" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BE1" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BH1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI1" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="BH1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BI1" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="BJ1" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -4199,133 +4310,133 @@
         <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>69</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>246</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>65</v>
       </c>
       <c r="R1" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD1" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="AC1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="AQ1" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="AR1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AS1" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AT1" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
@@ -4346,16 +4457,16 @@
         <v>99</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>105</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>22</v>
@@ -4364,13 +4475,13 @@
         <v>99</v>
       </c>
       <c r="M2" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>99</v>
@@ -4405,7 +4516,7 @@
       <c r="AR2" s="12"/>
       <c r="AS2" s="12"/>
       <c r="AT2" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -4428,16 +4539,16 @@
         <v>99</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>105</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>22</v>
@@ -4446,13 +4557,13 @@
         <v>99</v>
       </c>
       <c r="M3" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>99</v>
@@ -4487,7 +4598,7 @@
       <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
       <c r="AT3" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -4510,16 +4621,16 @@
         <v>99</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>105</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>22</v>
@@ -4528,13 +4639,13 @@
         <v>99</v>
       </c>
       <c r="M4" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>99</v>
@@ -4569,7 +4680,7 @@
       <c r="AR4" s="12"/>
       <c r="AS4" s="12"/>
       <c r="AT4" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -4590,16 +4701,16 @@
         <v>99</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>105</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>22</v>
@@ -4608,13 +4719,13 @@
         <v>99</v>
       </c>
       <c r="M5" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>99</v>
@@ -4649,7 +4760,7 @@
       <c r="AR5" s="12"/>
       <c r="AS5" s="12"/>
       <c r="AT5" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -4778,97 +4889,97 @@
         <v>69</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>239</v>
-      </c>
       <c r="G1" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>242</v>
-      </c>
       <c r="K1" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>65</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="AA1" s="9" t="s">
-        <v>284</v>
-      </c>
       <c r="AB1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="AC1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="AE1" s="9" t="s">
-        <v>174</v>
-      </c>
       <c r="AF1" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AI1" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -4881,19 +4992,19 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>286</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>22</v>
@@ -4902,10 +5013,10 @@
         <v>105</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -4929,7 +5040,7 @@
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -4942,19 +5053,19 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>286</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>22</v>
@@ -4963,10 +5074,10 @@
         <v>105</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -4990,7 +5101,7 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -5685,15 +5796,15 @@
         <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -5710,7 +5821,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5762,25 +5873,25 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" t="s">
         <v>288</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>289</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>290</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>291</v>
-      </c>
-      <c r="H1" t="s">
-        <v>292</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -5806,7 +5917,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5827,7 +5938,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -5998,49 +6109,49 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -6146,58 +6257,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E1" t="s">
         <v>69</v>
       </c>
       <c r="F1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" t="s">
         <v>312</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>313</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" t="s">
         <v>314</v>
       </c>
-      <c r="I1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>315</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>316</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>317</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>318</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>319</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q1" t="s">
         <v>320</v>
       </c>
-      <c r="P1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>321</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>322</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>323</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>324</v>
-      </c>
-      <c r="U1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -6287,64 +6398,64 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" t="s">
         <v>326</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>327</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>328</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>329</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>330</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>331</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>332</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>333</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>335</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" t="s">
         <v>336</v>
       </c>
-      <c r="O1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>337</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>338</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>339</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>206</v>
+      </c>
+      <c r="U1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V1" t="s">
         <v>340</v>
       </c>
-      <c r="T1" t="s">
-        <v>207</v>
-      </c>
-      <c r="U1" t="s">
-        <v>167</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>341</v>
-      </c>
-      <c r="W1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -6523,55 +6634,55 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" t="s">
         <v>343</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>344</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>345</v>
-      </c>
-      <c r="G1" t="s">
-        <v>346</v>
       </c>
       <c r="H1" t="s">
         <v>71</v>
       </c>
       <c r="I1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" t="s">
         <v>347</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>348</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>349</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>350</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" t="s">
         <v>351</v>
       </c>
-      <c r="N1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" t="s">
-        <v>179</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>352</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>353</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>354</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>355</v>
-      </c>
-      <c r="T1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -6585,7 +6696,7 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F2" t="s">
         <v>99</v>
@@ -6645,7 +6756,7 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
         <v>99</v>
@@ -6725,7 +6836,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -6795,22 +6906,22 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -6830,7 +6941,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6845,7 +6956,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -6932,19 +7043,19 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" t="s">
         <v>361</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>362</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>363</v>
-      </c>
-      <c r="H1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -6958,7 +7069,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6967,7 +7078,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -7034,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" t="s">
         <v>99</v>
@@ -7106,22 +7217,22 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
         <v>65</v>
       </c>
       <c r="G1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" t="s">
         <v>369</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>370</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>371</v>
-      </c>
-      <c r="J1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -7147,10 +7258,10 @@
         <v>101</v>
       </c>
       <c r="H2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" t="s">
         <v>373</v>
-      </c>
-      <c r="I2" t="s">
-        <v>374</v>
       </c>
       <c r="J2" t="s">
         <v>101</v>
@@ -7192,16 +7303,16 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
         <v>65</v>
       </c>
       <c r="G1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H1" t="s">
         <v>376</v>
-      </c>
-      <c r="H1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -7747,37 +7858,37 @@
         <v>52</v>
       </c>
       <c r="T1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA1" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD1" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\TESTDATA3rdOct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48300EAE-340D-4F65-B9D2-C164E29A7ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F61864-8BA8-4409-85DC-7B67DB50156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="415">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4:AR6"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2423,8 +2423,12 @@
       <c r="M5" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="P5" s="12" t="s">
         <v>105</v>
       </c>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\TESTDATA3rdOct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F61864-8BA8-4409-85DC-7B67DB50156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFDC5E-47D4-441B-967D-F87F861B6075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="413">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1301,12 +1301,6 @@
   </si>
   <si>
     <t>Information &amp; Referral - Social Worker Information Request</t>
-  </si>
-  <si>
-    <t>AFG 94</t>
-  </si>
-  <si>
-    <t>AFG 95</t>
   </si>
 </sst>
 </file>
@@ -1823,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2466,7 +2460,7 @@
         <v>106</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>413</v>
+        <v>107</v>
       </c>
       <c r="AC5" s="12" t="s">
         <v>99</v>
@@ -2586,7 +2580,7 @@
         <v>106</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>414</v>
+        <v>107</v>
       </c>
       <c r="AC6" s="12" t="s">
         <v>99</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\TESTDATA3rdOct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFDC5E-47D4-441B-967D-F87F861B6075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389096DB-B39C-4628-91EE-612CEF9BDD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="28" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="413">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1817,7 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
@@ -2730,7 +2730,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2802,7 +2802,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2826,7 +2828,9 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -4291,8 +4295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4528,13 +4532,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>272</v>
@@ -4610,13 +4614,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>272</v>
@@ -7772,8 +7776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7896,6 +7900,30 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="K2" s="12" t="s">
         <v>36</v>
       </c>
@@ -8047,6 +8075,7 @@
     <hyperlink ref="S2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\TESTDATA3rdOct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata7oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2937CF-C5C4-4729-BCA0-C4251E6635F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686AAF67-58D9-4411-AD9D-432DF5726EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="15" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="28" r:id="rId1"/>
@@ -23,23 +23,24 @@
     <sheet name="ScreeningsPage" sheetId="24" r:id="rId8"/>
     <sheet name="ScreeningSafelySurrenderedBaby" sheetId="22" r:id="rId9"/>
     <sheet name="ScreeningDetails" sheetId="1" r:id="rId10"/>
-    <sheet name="ScreeningPersons" sheetId="6" r:id="rId11"/>
-    <sheet name="ScreeningValidatePerson" sheetId="17" r:id="rId12"/>
-    <sheet name="ScreeningAddresses" sheetId="7" r:id="rId13"/>
-    <sheet name="ScreeningCallBackAttempts" sheetId="25" r:id="rId14"/>
-    <sheet name="ScreeningAllegations" sheetId="8" r:id="rId15"/>
-    <sheet name="ScreeningSafetyAlerts" sheetId="9" r:id="rId16"/>
-    <sheet name="ScreeningAssessments" sheetId="20" r:id="rId17"/>
-    <sheet name="ScreeningTribalInquiry" sheetId="10" r:id="rId18"/>
-    <sheet name="ScreeningContactLog" sheetId="16" r:id="rId19"/>
-    <sheet name="ScreeningSupervisorReview" sheetId="11" r:id="rId20"/>
-    <sheet name="Documents" sheetId="21" r:id="rId21"/>
-    <sheet name="ScreeningCrossReports" sheetId="19" r:id="rId22"/>
-    <sheet name="ApprovalandAuditHistory" sheetId="18" r:id="rId23"/>
-    <sheet name="ScreeningHistory" sheetId="23" r:id="rId24"/>
-    <sheet name="ScreeningERR" sheetId="27" r:id="rId25"/>
-    <sheet name="ScreeningSubmitForApproval" sheetId="12" r:id="rId26"/>
-    <sheet name="ScreeningApproval" sheetId="15" r:id="rId27"/>
+    <sheet name="ScreeningsHeader" sheetId="32" r:id="rId11"/>
+    <sheet name="ScreeningPersons" sheetId="6" r:id="rId12"/>
+    <sheet name="ScreeningValidatePerson" sheetId="17" r:id="rId13"/>
+    <sheet name="ScreeningAddresses" sheetId="7" r:id="rId14"/>
+    <sheet name="ScreeningCallBackAttempts" sheetId="25" r:id="rId15"/>
+    <sheet name="ScreeningAllegations" sheetId="8" r:id="rId16"/>
+    <sheet name="ScreeningSafetyAlerts" sheetId="9" r:id="rId17"/>
+    <sheet name="ScreeningAssessments" sheetId="20" r:id="rId18"/>
+    <sheet name="ScreeningTribalInquiry" sheetId="10" r:id="rId19"/>
+    <sheet name="ScreeningContactLog" sheetId="16" r:id="rId20"/>
+    <sheet name="ScreeningSupervisorReview" sheetId="11" r:id="rId21"/>
+    <sheet name="Documents" sheetId="21" r:id="rId22"/>
+    <sheet name="ScreeningCrossReports" sheetId="19" r:id="rId23"/>
+    <sheet name="ApprovalandAuditHistory" sheetId="18" r:id="rId24"/>
+    <sheet name="ScreeningHistory" sheetId="23" r:id="rId25"/>
+    <sheet name="ScreeningERR" sheetId="27" r:id="rId26"/>
+    <sheet name="ScreeningSubmitForApproval" sheetId="12" r:id="rId27"/>
+    <sheet name="ScreeningApproval" sheetId="15" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="421">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1304,6 +1305,27 @@
   </si>
   <si>
     <t>test2928</t>
+  </si>
+  <si>
+    <t>SERVICETYPE</t>
+  </si>
+  <si>
+    <t>testT2929</t>
+  </si>
+  <si>
+    <t>COUNTRY_OF_INITIAL_SCREENING</t>
+  </si>
+  <si>
+    <t>COUNTRY_ASSIGNED_TO_SCREENING</t>
+  </si>
+  <si>
+    <t>SUBMIT_FOR_APPROVAL</t>
+  </si>
+  <si>
+    <t>Community Resources &amp; Referrals</t>
+  </si>
+  <si>
+    <t>Prevention Services Request</t>
   </si>
 </sst>
 </file>
@@ -1380,12 +1402,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1401,7 +1429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1421,6 +1449,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1814,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:BC9"/>
+  <dimension ref="A1:BC10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2399,7 +2431,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>99</v>
@@ -2519,7 +2551,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>99</v>
@@ -2809,7 +2841,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AG8" s="11" t="s">
         <v>99</v>
@@ -2924,7 +2956,7 @@
         <v>36</v>
       </c>
       <c r="AF9" s="11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AG9" s="11" t="s">
         <v>99</v>
@@ -2946,6 +2978,104 @@
       <c r="AR9" s="11"/>
       <c r="AS9" s="11"/>
     </row>
+    <row r="10" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG10" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2954,11 +3084,68 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8071B64A-FB0C-4BAD-9360-02F6FE76855A}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="31.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G19"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3445,12 +3632,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3522,6 +3709,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
@@ -3545,6 +3735,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>36</v>
       </c>
@@ -3568,6 +3761,9 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
@@ -3589,6 +3785,9 @@
         <v>112</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -3709,7 +3908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
@@ -3907,7 +4106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
@@ -4037,7 +4236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F8614-3D70-45F1-B41B-FBBBCA255ACF}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -4133,7 +4332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E73BAA-EFCF-4B3C-AD92-E36A2F3DC9FA}">
   <dimension ref="A1:T13"/>
   <sheetViews>
@@ -4302,7 +4501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EAC83E-D157-4050-A417-F8E4073D5915}">
   <dimension ref="A1:BJ27"/>
   <sheetViews>
@@ -4627,12 +4826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:Y6"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4906,7 +5105,9 @@
       <c r="P3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
@@ -5223,12 +5424,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5497,85 +5788,131 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+    </row>
+    <row r="5" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
@@ -6174,77 +6511,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6436,11 +6709,15 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F7" t="s">
         <v>110</v>
       </c>
@@ -6449,6 +6726,12 @@
       </c>
       <c r="H7" t="s">
         <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -6477,12 +6760,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6621,12 +6904,26 @@
         <v>36</v>
       </c>
     </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F02997-6C84-4A26-A7D4-CF4F52E5A4C5}">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -6753,7 +7050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
   <dimension ref="A1:W4"/>
   <sheetViews>
@@ -7010,7 +7307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C3F614-783A-4C4F-9E94-A1C236065EAF}">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -7208,12 +7505,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7272,12 +7569,40 @@
         <v>36</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -7413,7 +7738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -7673,22 +7998,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26192DDE-E7FF-4884-9B4D-ACBEDEC79AE8}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -7702,19 +8027,22 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" t="s">
         <v>374</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>375</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7728,20 +8056,24 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>104</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
       </c>
       <c r="H2" t="s">
         <v>101</v>
       </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8052,8 +8384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8170,13 +8502,48 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C5" s="2"/>
+      <c r="A5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8185,7 +8552,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8491,6 +8858,48 @@
       <c r="D5" t="s">
         <v>36</v>
       </c>
+      <c r="E5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8588,25 +8997,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -8823,25 +9213,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8858,4 +9249,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata7oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686AAF67-58D9-4411-AD9D-432DF5726EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E8FBD3-CFC9-47C9-B38F-07D2BC6DF642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="18" activeTab="20" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="28" r:id="rId1"/>
@@ -1848,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -4831,7 +4831,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -6515,8 +6515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata7oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E8FBD3-CFC9-47C9-B38F-07D2BC6DF642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE4BA6C-CF8F-4920-AE14-72BA3856B273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="18" activeTab="20" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="20" activeTab="20" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="28" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="421">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -6515,8 +6515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6722,10 +6722,10 @@
         <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I7" t="s">
         <v>36</v>
@@ -6765,7 +6765,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6877,11 +6877,15 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
@@ -7054,7 +7058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\Testdata8oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3F0E81-A9AB-4B5F-B6F5-A2E9AC2AA9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BC3EB7-023A-45C7-93E7-BB206148A355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="412">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1736,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3297,7 +3297,15 @@
       <c r="F4" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J4" s="8" t="s">
         <v>167</v>
       </c>
@@ -3321,7 +3329,15 @@
       <c r="F5" t="s">
         <v>166</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J5" s="8" t="s">
         <v>167</v>
       </c>
@@ -3345,7 +3361,15 @@
       <c r="F6" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J6" s="8" t="s">
         <v>167</v>
       </c>
@@ -3369,7 +3393,15 @@
       <c r="F7" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="8" t="s">
         <v>167</v>
       </c>
@@ -6699,8 +6731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" activeCellId="1" sqref="K3 K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6849,10 +6881,10 @@
         <v>154</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
       </c>
       <c r="I4" t="s">
         <v>47</v>
@@ -6879,10 +6911,10 @@
         <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -9301,13 +9333,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9528,27 +9559,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9573,9 +9596,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\Testdata8oct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\Testdata8oct\MERGED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BC3EB7-023A-45C7-93E7-BB206148A355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864811DE-A9FF-427A-8CA2-9F448141B8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" firstSheet="18" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="413">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -574,9 +574,6 @@
     <t>Alleged Victim</t>
   </si>
   <si>
-    <t>test2928</t>
-  </si>
-  <si>
     <t>VALIDATEPERSON_TAB</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
     <t>Male</t>
   </si>
   <si>
+    <t>test2922</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
@@ -1295,6 +1295,9 @@
   </si>
   <si>
     <t>REASSIGN_BTN</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>Prevention Services Request</t>
@@ -1368,18 +1371,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1395,7 +1392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1414,11 +1411,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1737,7 +1732,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1825,24 +1820,24 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1867,8 +1862,8 @@
   <dimension ref="A1:BC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:AR6"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2452,244 +2447,244 @@
       </c>
     </row>
     <row r="5" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="P5" s="17" t="s">
+      <c r="H5" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="Q5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA5" s="17" t="s">
+      <c r="Q5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA5" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AB5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AC5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD5" s="17" t="s">
+      <c r="AC5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AE5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF5" s="17" t="s">
+      <c r="AE5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AG5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="17" t="s">
+      <c r="AG5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AR5" s="17" t="s">
+      <c r="AR5" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="17" t="s">
+      <c r="H6" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA6" s="17" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA6" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AB6" s="17" t="s">
+      <c r="AB6" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AC6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD6" s="17" t="s">
+      <c r="AC6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AE6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF6" s="17" t="s">
+      <c r="AE6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AG6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17" t="s">
+      <c r="AG6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AR6" s="17" t="s">
+      <c r="AR6" s="8" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2833,11 +2828,11 @@
         <v>144</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="Q8" s="1" t="s">
         <v>144</v>
       </c>
@@ -2866,22 +2861,22 @@
         <v>144</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="AD8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>148</v>
@@ -2890,7 +2885,7 @@
         <v>45</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>47</v>
@@ -2901,9 +2896,15 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
+      <c r="AP8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AQ8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR8" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
@@ -2924,19 +2925,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>149</v>
@@ -2960,10 +2961,10 @@
         <v>144</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>144</v>
@@ -3028,9 +3029,15 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
+      <c r="AP9" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AQ9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR9" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
@@ -3150,8 +3157,12 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
+      <c r="AQ10" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR10" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
@@ -3176,7 +3187,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G7"/>
+      <selection activeCell="A4" sqref="A4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3279,130 +3290,130 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3632,7 +3643,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -3652,10 +3663,19 @@
       <c r="G16" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -3675,10 +3695,19 @@
       <c r="G17" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -3698,10 +3727,19 @@
       <c r="G18" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -3721,9 +3759,19 @@
       <c r="G19" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="H19" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3731,7 +3779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:H5"/>
     </sheetView>
   </sheetViews>
@@ -3748,6 +3796,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3755,22 +3806,22 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>172</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>174</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>175</v>
-      </c>
-      <c r="I1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3788,7 +3839,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -3799,78 +3850,76 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3882,7 +3931,7 @@
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
@@ -3906,7 +3955,7 @@
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -3930,7 +3979,7 @@
         <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -3954,7 +4003,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -3978,7 +4027,7 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -3998,12 +4047,15 @@
   <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -4112,6 +4164,9 @@
         <v>9</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -4198,9 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4219,6 +4272,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -4425,7 +4481,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4519,7 +4575,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5145,170 +5201,170 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="17" t="s">
+      <c r="L3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="P3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17" t="s">
+      <c r="P3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="P4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17" t="s">
+      <c r="P4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6505,8 +6561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6731,8 +6787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6786,80 +6842,80 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="16">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="G3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -6874,9 +6930,7 @@
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>154</v>
       </c>
@@ -6885,15 +6939,6 @@
       </c>
       <c r="H4" t="s">
         <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -6911,10 +6956,10 @@
         <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
+        <v>155</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6927,7 +6972,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:R3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7039,52 +7084,52 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="F3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7304,8 +7349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P2" sqref="A2:P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7376,52 +7421,52 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="16">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="20" t="s">
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7621,126 +7666,126 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="16" t="s">
+      <c r="F2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="16">
         <v>2</v>
       </c>
-      <c r="C3" s="20">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="16" t="s">
+      <c r="F3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7754,7 +7799,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7881,10 +7926,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I5"/>
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7998,50 +8043,6 @@
       <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8053,7 +8054,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8148,12 +8149,9 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
@@ -8161,9 +8159,6 @@
       </c>
       <c r="E4" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -8570,8 +8565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8769,8 +8764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9248,9 +9243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A6D6C4-93D0-45E1-B221-1EAED7219C95}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9333,6 +9326,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9341,7 +9344,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9558,17 +9561,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9576,7 +9586,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9593,21 +9603,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata9oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A994DC4-36C5-4B00-8589-4F6725B83CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE9DB89-BE0E-4B0B-A692-30B02BBB576B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="23" activeTab="26" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="22" activeTab="23" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -36,10 +36,11 @@
     <sheet name="Documents" sheetId="21" r:id="rId21"/>
     <sheet name="ScreeningCrossReports" sheetId="19" r:id="rId22"/>
     <sheet name="ApprovalAuditHistory" sheetId="18" r:id="rId23"/>
-    <sheet name="ScreeningHistory" sheetId="23" r:id="rId24"/>
-    <sheet name="ScreeningERR" sheetId="27" r:id="rId25"/>
-    <sheet name="ScreeningSubmitForApproval" sheetId="12" r:id="rId26"/>
-    <sheet name="ScreeningApproval" sheetId="15" r:id="rId27"/>
+    <sheet name="RecallAndResubmitRecord" sheetId="32" r:id="rId24"/>
+    <sheet name="ScreeningHistory" sheetId="23" r:id="rId25"/>
+    <sheet name="ScreeningERR" sheetId="27" r:id="rId26"/>
+    <sheet name="ScreeningSubmitForApproval" sheetId="12" r:id="rId27"/>
+    <sheet name="ScreeningApproval" sheetId="15" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="474">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1469,6 +1470,21 @@
   </si>
   <si>
     <t>pomTest</t>
+  </si>
+  <si>
+    <t>RECALL</t>
+  </si>
+  <si>
+    <t>SUBMIT_FOR_APPROVAL</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>autotext</t>
   </si>
 </sst>
 </file>
@@ -7526,7 +7542,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7766,6 +7782,84 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="28.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C3F614-783A-4C4F-9E94-A1C236065EAF}">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -7970,12 +8064,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8100,7 +8194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -8225,11 +8319,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata9oct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata14oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE9DB89-BE0E-4B0B-A692-30B02BBB576B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266457B9-3F34-4C8A-A752-8D1E727F866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="22" activeTab="23" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="17" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="475">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -98,6 +98,9 @@
     <t>testT2928</t>
   </si>
   <si>
+    <t>pomTest</t>
+  </si>
+  <si>
     <t>POM_ITERATION</t>
   </si>
   <si>
@@ -731,6 +734,9 @@
     <t>SEXATBIRTH</t>
   </si>
   <si>
+    <t>GENDER_IDENTITY</t>
+  </si>
+  <si>
     <t>NEWPERSON_BTN</t>
   </si>
   <si>
@@ -743,12 +749,12 @@
     <t>Male</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>test2922</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>ADDRESS_TYPE</t>
   </si>
   <si>
@@ -1073,7 +1079,7 @@
     <t>STAFF_PERSON</t>
   </si>
   <si>
-    <t>OTHER_STAFF_PERSON</t>
+    <t>OTHER_STAFF_PRESENT</t>
   </si>
   <si>
     <t>PARTICIPANT_TYPE</t>
@@ -1208,6 +1214,9 @@
     <t>Continue to Inquire</t>
   </si>
   <si>
+    <t>ClericalWorker1ContraCosta</t>
+  </si>
+  <si>
     <t>CONTACT_START_DATETIME</t>
   </si>
   <si>
@@ -1220,9 +1229,6 @@
     <t>OTHER_VERIFY</t>
   </si>
   <si>
-    <t>NARATIVE_VERIFY</t>
-  </si>
-  <si>
     <t>personName2</t>
   </si>
   <si>
@@ -1388,6 +1394,21 @@
     <t>Screening History</t>
   </si>
   <si>
+    <t>RECALL</t>
+  </si>
+  <si>
+    <t>SUBMIT_FOR_APPROVAL</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>autotext</t>
+  </si>
+  <si>
     <t>HISTORY_TAB</t>
   </si>
   <si>
@@ -1467,24 +1488,6 @@
   </si>
   <si>
     <t>REASSIGN_BTN</t>
-  </si>
-  <si>
-    <t>pomTest</t>
-  </si>
-  <si>
-    <t>RECALL</t>
-  </si>
-  <si>
-    <t>SUBMIT_FOR_APPROVAL</t>
-  </si>
-  <si>
-    <t>SUBMIT</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>autotext</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1558,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1565,6 +1568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1621,6 +1630,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1945,7 +1955,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2061,7 +2071,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>468</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2079,15 +2089,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
@@ -2106,80 +2116,80 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2193,25 +2203,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2225,25 +2235,25 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2257,25 +2267,25 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2289,25 +2299,25 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -2321,17 +2331,17 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2345,17 +2355,17 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2369,17 +2379,17 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -2393,17 +2403,17 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -2417,25 +2427,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -2449,25 +2459,25 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2481,25 +2491,25 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2513,25 +2523,25 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -2545,25 +2555,25 @@
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2577,25 +2587,25 @@
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -2609,25 +2619,25 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -2641,25 +2651,25 @@
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2676,10 +2686,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -2690,40 +2700,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -2731,22 +2741,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2756,25 +2766,26 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2782,28 +2793,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+      <c r="J1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -2812,186 +2826,210 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
         <v>227</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>225</v>
-      </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -3000,19 +3038,103 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3039,103 +3161,103 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
-        <v>121</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Z1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AA1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AB1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AE1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AH1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -3149,13 +3271,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -3169,13 +3291,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -3188,17 +3310,17 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -3217,7 +3339,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="AI4" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -3236,17 +3358,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3258,88 +3380,88 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3350,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -3370,8 +3492,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.453125" bestFit="1" customWidth="1"/>
@@ -3389,42 +3511,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3437,16 +3559,16 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -3465,10 +3587,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
@@ -3476,10 +3598,10 @@
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
@@ -3493,52 +3615,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -3549,18 +3671,18 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -3574,7 +3696,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3634,13 +3756,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
@@ -3659,181 +3781,181 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="W1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="AH1" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -3953,11 +4075,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AT4"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BH6" sqref="BH6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="16" max="16" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -3967,163 +4094,163 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AV1" s="11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AW1" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AX1" s="12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AY1" s="11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AZ1" s="12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="BA1" s="12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="BB1" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="BC1" s="12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.35">
@@ -4135,43 +4262,43 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -4203,28 +4330,28 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.35">
@@ -4238,46 +4365,46 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -4308,28 +4435,28 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.35">
@@ -4343,46 +4470,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -4413,28 +4540,28 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.35">
@@ -4446,43 +4573,43 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="12"/>
@@ -4514,28 +4641,28 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.35">
@@ -4545,56 +4672,58 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="11"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -4616,42 +4745,90 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="12"/>
+      <c r="AT6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AW6" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
+      <c r="AY6" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
+      <c r="BA6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="11"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -4674,7 +4851,9 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
-      <c r="AU7" s="12"/>
+      <c r="AU7" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
@@ -5720,42 +5899,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.453125" bestFit="1" customWidth="1"/>
@@ -5769,103 +5948,103 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="S1" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -5878,31 +6057,31 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -5926,119 +6105,119 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>389</v>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -6047,100 +6226,100 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -6154,34 +6333,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -6740,11 +6919,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
@@ -6759,25 +6938,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -6788,10 +6967,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -6802,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -6816,15 +6995,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -6838,15 +7017,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6860,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6877,10 +7056,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6891,10 +7070,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6908,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6916,7 +7095,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -6925,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -6933,7 +7112,7 @@
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -6942,17 +7121,17 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>468</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -6961,12 +7140,12 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6985,16 +7164,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7006,31 +7185,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -7044,28 +7223,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -7082,28 +7261,28 @@
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -7120,17 +7299,17 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -7141,17 +7320,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7169,20 +7348,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -7193,68 +7372,68 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -7263,16 +7442,16 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -7286,43 +7465,43 @@
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -7336,25 +7515,25 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -7368,41 +7547,41 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -7418,13 +7597,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7437,61 +7616,61 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="R1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="S1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="U1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7499,37 +7678,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7539,27 +7718,27 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.81640625" customWidth="1"/>
     <col min="11" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7570,46 +7749,46 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7623,43 +7802,43 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="14">
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7673,40 +7852,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7720,40 +7899,40 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7767,13 +7946,63 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7785,15 +8014,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.36328125" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -7804,25 +8033,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E1" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="F1" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="G1" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="H1" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="I1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -7836,22 +8065,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -7869,8 +8098,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -7881,58 +8110,58 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="E1" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="F1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="G1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="J1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="K1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="N1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Q1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="R1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="S1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="T1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -7946,55 +8175,55 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -8008,55 +8237,55 @@
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -8069,12 +8298,12 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
@@ -8089,13 +8318,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8115,10 +8344,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8132,10 +8361,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8149,10 +8378,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8166,15 +8395,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -8183,10 +8412,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -8205,8 +8434,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
@@ -8221,25 +8450,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8253,22 +8482,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -8283,22 +8512,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -8311,7 +8540,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8330,9 +8559,9 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -8347,22 +8576,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F1" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -8376,19 +8605,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -8402,19 +8631,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -8428,19 +8657,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -8452,16 +8681,16 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -8479,14 +8708,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8497,22 +8726,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8526,19 +8755,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8557,13 +8786,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="26.90625" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.81640625" customWidth="1"/>
     <col min="10" max="10" width="25.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8575,28 +8804,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8610,25 +8839,25 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8646,11 +8875,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -8661,25 +8890,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8693,22 +8922,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8726,8 +8955,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -8740,36 +8969,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -8783,13 +9012,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -8803,13 +9032,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -8823,13 +9052,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -8842,14 +9071,14 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.453125" customWidth="1"/>
@@ -8863,7 +9092,7 @@
     <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8874,52 +9103,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8933,16 +9162,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8956,16 +9185,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8979,16 +9208,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9002,18 +9231,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -9022,13 +9251,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -9046,34 +9275,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.08984375" customWidth="1"/>
-    <col min="12" max="12" width="28.90625" customWidth="1"/>
+    <col min="11" max="11" width="32.1796875" customWidth="1"/>
+    <col min="12" max="12" width="28.81640625" customWidth="1"/>
     <col min="13" max="13" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="110.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="110.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="22" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9085,94 +9314,94 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
@@ -9186,52 +9415,52 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T2" s="2"/>
     </row>
@@ -9246,94 +9475,94 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
@@ -9347,94 +9576,94 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
@@ -9448,49 +9677,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -9521,14 +9750,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" customWidth="1"/>
     <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
@@ -9536,85 +9765,85 @@
     <col min="8" max="8" width="52" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.08984375" customWidth="1"/>
-    <col min="13" max="13" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.453125" customWidth="1"/>
-    <col min="20" max="20" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.54296875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="24" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="26.453125" customWidth="1"/>
     <col min="43" max="43" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="24" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="49" max="51" width="26.453125" customWidth="1"/>
     <col min="52" max="52" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="23.54296875" customWidth="1"/>
     <col min="54" max="54" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="55" max="56" width="23.54296875" customWidth="1"/>
     <col min="57" max="57" width="26.453125" customWidth="1"/>
-    <col min="58" max="58" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="61" max="65" width="26.453125" customWidth="1"/>
-    <col min="66" max="66" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="69" max="71" width="28.36328125" customWidth="1"/>
+    <col min="68" max="68" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="71" width="28.453125" customWidth="1"/>
     <col min="72" max="72" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="28.36328125" customWidth="1"/>
-    <col min="74" max="74" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="75" max="77" width="28.36328125" customWidth="1"/>
-    <col min="78" max="78" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="28.453125" customWidth="1"/>
+    <col min="74" max="74" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="28.453125" customWidth="1"/>
+    <col min="78" max="78" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="22" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="22.54296875" customWidth="1"/>
     <col min="89" max="89" width="12" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="17" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="22.54296875" customWidth="1"/>
-    <col min="92" max="92" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="57.54296875" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="14.5" x14ac:dyDescent="0.35">
@@ -9625,380 +9854,380 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AZ1" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BA1" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD1" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BF1" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BG1" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BH1" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BI1" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BJ1" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BK1" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BL1" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BM1" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BN1" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BO1" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BP1" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BQ1" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR1" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BS1" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BT1" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BU1" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BV1" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BW1" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BX1" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BY1" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BZ1" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CA1" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CB1" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CC1" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CD1" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="CE1" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CF1" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CG1" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="CH1" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="CI1" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="CJ1" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CK1" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CL1" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CM1" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CN1" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CO1" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CP1" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CQ1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CR1" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:107" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB2" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG2" s="16"/>
       <c r="AH2" s="16"/>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK2" s="16"/>
       <c r="AL2" s="16"/>
@@ -10072,283 +10301,283 @@
         <v>1</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>190</v>
-      </c>
       <c r="AG3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ3" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AL3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AM3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AO3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AP3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AR3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AS3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AX3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AY3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AZ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BA3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BB3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BC3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BD3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BE3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BF3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BG3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BH3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BI3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BJ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BK3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BL3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BM3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BN3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BO3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BP3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BQ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BR3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BS3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BT3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BU3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BV3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BW3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BX3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BY3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BZ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CA3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CB3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CC3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CD3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CE3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CF3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CG3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CH3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CI3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CJ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CK3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CL3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CM3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CN3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CO3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CP3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CQ3" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR3" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CS3" s="19"/>
       <c r="CT3" s="19"/>
@@ -10373,283 +10602,283 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="AG4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AO4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AP4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AR4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AX4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AY4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AZ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BA4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BB4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BC4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BD4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BE4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BF4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BG4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BH4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BI4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BJ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BK4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BL4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BM4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BN4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BO4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BP4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BQ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BR4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BS4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BT4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BU4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BV4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BW4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BX4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BY4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BZ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CA4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CB4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CC4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CD4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CE4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CF4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CG4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CH4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CI4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CJ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CK4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CL4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CM4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CN4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CO4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CP4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CQ4" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR4" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CS4" s="1"/>
       <c r="CT4" s="1"/>
@@ -10674,103 +10903,103 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
@@ -10793,7 +11022,7 @@
       <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
       <c r="BE5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
@@ -10833,10 +11062,10 @@
       <c r="CO5" s="8"/>
       <c r="CP5" s="8"/>
       <c r="CQ5" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR5" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10851,100 +11080,100 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
@@ -10967,7 +11196,7 @@
       <c r="BC6" s="8"/>
       <c r="BD6" s="8"/>
       <c r="BE6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BF6" s="8"/>
       <c r="BG6" s="8"/>
@@ -11007,15 +11236,15 @@
       <c r="CO6" s="8"/>
       <c r="CP6" s="8"/>
       <c r="CQ6" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR6" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -11023,86 +11252,86 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
@@ -11174,100 +11403,100 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -11291,7 +11520,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
@@ -11330,13 +11559,13 @@
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
       <c r="CP8" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CQ8" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR8" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CS8" s="1"/>
       <c r="CT8" s="1"/>
@@ -11361,100 +11590,100 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="AD9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -11478,7 +11707,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BF9" s="1"/>
       <c r="BG9" s="1"/>
@@ -11517,13 +11746,13 @@
       <c r="CN9" s="1"/>
       <c r="CO9" s="1"/>
       <c r="CP9" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CQ9" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR9" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CS9" s="1"/>
       <c r="CT9" s="1"/>
@@ -11539,7 +11768,7 @@
     </row>
     <row r="10" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -11548,92 +11777,92 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
@@ -11659,7 +11888,7 @@
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
@@ -11699,10 +11928,10 @@
       <c r="CO10" s="1"/>
       <c r="CP10" s="1"/>
       <c r="CQ10" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR10" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CS10" s="1"/>
       <c r="CT10" s="1"/>
@@ -11979,6 +12208,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -11986,15 +12224,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12017,6 +12246,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12024,12 +12261,4 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata14oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266457B9-3F34-4C8A-A752-8D1E727F866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF99058-6DE1-431C-9DAD-3990670463A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="17" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="481">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -743,9 +743,6 @@
     <t>VALIDATEPERSON_NAME</t>
   </si>
   <si>
-    <t>SCR_PERSON_ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -1488,6 +1485,27 @@
   </si>
   <si>
     <t>REASSIGN_BTN</t>
+  </si>
+  <si>
+    <t>Hotline Staff1 Contra Costa</t>
+  </si>
+  <si>
+    <t>Tribal Inquiry</t>
+  </si>
+  <si>
+    <t>SCP_PERSON_ID</t>
+  </si>
+  <si>
+    <t>SCP_ID1</t>
+  </si>
+  <si>
+    <t>SCP_ID2</t>
+  </si>
+  <si>
+    <t>SCP_ID3</t>
+  </si>
+  <si>
+    <t>SCP_ID4</t>
   </si>
 </sst>
 </file>
@@ -2089,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2599,7 +2617,7 @@
         <v>48</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>49</v>
@@ -2631,7 +2649,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>49</v>
@@ -2663,7 +2681,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>49</v>
@@ -2769,7 +2787,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2814,7 +2832,7 @@
         <v>225</v>
       </c>
       <c r="J1" t="s">
-        <v>226</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2824,7 +2842,9 @@
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
@@ -2832,16 +2852,19 @@
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
         <v>48</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2851,7 +2874,9 @@
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>48</v>
       </c>
@@ -2859,16 +2884,19 @@
         <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H3" t="s">
         <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2878,7 +2906,9 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>48</v>
       </c>
@@ -2886,16 +2916,19 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2905,7 +2938,9 @@
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
@@ -2913,25 +2948,31 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
@@ -2939,10 +2980,10 @@
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
@@ -2958,6 +2999,9 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
@@ -2965,10 +3009,10 @@
         <v>48</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7" t="s">
         <v>48</v>
@@ -2984,6 +3028,9 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
@@ -2991,10 +3038,10 @@
         <v>48</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
@@ -3005,11 +3052,14 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
@@ -3017,10 +3067,10 @@
         <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
@@ -3036,7 +3086,9 @@
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
@@ -3044,10 +3096,10 @@
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
         <v>48</v>
@@ -3063,7 +3115,9 @@
       <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
@@ -3071,10 +3125,10 @@
         <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
         <v>48</v>
@@ -3090,7 +3144,9 @@
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
@@ -3098,10 +3154,10 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
@@ -3117,7 +3173,9 @@
       <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
@@ -3125,10 +3183,10 @@
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
@@ -3167,7 +3225,7 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F1" t="s">
         <v>112</v>
@@ -3182,31 +3240,31 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="N1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" t="s">
         <v>233</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>234</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>236</v>
-      </c>
-      <c r="R1" t="s">
-        <v>237</v>
       </c>
       <c r="S1" t="s">
         <v>175</v>
@@ -3224,16 +3282,16 @@
         <v>135</v>
       </c>
       <c r="X1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y1" t="s">
         <v>238</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>239</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>240</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>241</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -3242,19 +3300,19 @@
         <v>92</v>
       </c>
       <c r="AD1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE1" t="s">
         <v>242</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>243</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>244</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>245</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>246</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>182</v>
@@ -3310,7 +3368,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>31</v>
@@ -3320,7 +3378,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -3386,82 +3444,82 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" t="s">
         <v>249</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>250</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>251</v>
-      </c>
-      <c r="H1" t="s">
-        <v>252</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K1" t="s">
         <v>253</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>254</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="AD1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3472,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -3517,22 +3575,22 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>272</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>273</v>
-      </c>
-      <c r="H1" t="s">
-        <v>274</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3543,10 +3601,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
         <v>276</v>
-      </c>
-      <c r="F2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3559,10 +3617,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" t="s">
         <v>276</v>
-      </c>
-      <c r="F3" t="s">
-        <v>277</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -3621,46 +3679,46 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -3671,12 +3729,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3696,7 +3754,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3784,178 +3842,178 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>84</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI1" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="BH1" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="BJ1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -4075,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BH6" sqref="BH6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4097,160 +4155,160 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="AC1" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="AQ1" s="11" t="s">
-        <v>367</v>
-      </c>
       <c r="AR1" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>182</v>
       </c>
       <c r="AU1" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="AV1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BB1" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BC1" s="12" t="s">
         <v>375</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.35">
@@ -4271,16 +4329,16 @@
         <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
@@ -4289,13 +4347,13 @@
         <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>46</v>
@@ -4374,16 +4432,16 @@
         <v>184</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>379</v>
+      <c r="J3" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
@@ -4392,13 +4450,13 @@
         <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>46</v>
@@ -4479,16 +4537,16 @@
         <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>379</v>
+      <c r="J4" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
@@ -4497,13 +4555,13 @@
         <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>46</v>
@@ -4582,16 +4640,16 @@
         <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
@@ -4600,13 +4658,13 @@
         <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>46</v>
@@ -4666,107 +4724,107 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1" t="s">
+      <c r="P6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AU6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1" t="s">
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1" t="s">
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1" t="s">
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="BB6" s="1" t="s">
+      <c r="BB6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="BC6" s="1" t="s">
+      <c r="BC6" s="7" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4790,34 +4848,34 @@
         <v>184</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>48</v>
@@ -5899,8 +5957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5954,94 +6012,94 @@
         <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="G1" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="AA1" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="AF1" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>182</v>
@@ -6057,19 +6115,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>184</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>22</v>
@@ -6078,10 +6136,10 @@
         <v>187</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -6122,19 +6180,19 @@
         <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>184</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>22</v>
@@ -6143,73 +6201,73 @@
         <v>187</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="Q3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>193</v>
@@ -6229,19 +6287,19 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
@@ -6250,76 +6308,76 @@
         <v>187</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -6336,19 +6394,19 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -6357,10 +6415,10 @@
         <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -6913,8 +6971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7188,25 +7246,25 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" t="s">
         <v>392</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>393</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>394</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>395</v>
-      </c>
-      <c r="H1" t="s">
-        <v>396</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>182</v>
@@ -7229,7 +7287,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>46</v>
@@ -7267,7 +7325,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>46</v>
@@ -7303,7 +7361,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -7324,10 +7382,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" t="s">
         <v>398</v>
-      </c>
-      <c r="G5" t="s">
-        <v>399</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>23</v>
@@ -7375,49 +7433,49 @@
         <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7468,7 +7526,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>48</v>
@@ -7518,7 +7576,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>48</v>
@@ -7550,7 +7608,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>48</v>
@@ -7619,58 +7677,58 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" t="s">
         <v>417</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>418</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" t="s">
         <v>419</v>
       </c>
-      <c r="I1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>420</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>421</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>422</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>423</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>424</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q1" t="s">
         <v>425</v>
       </c>
-      <c r="P1" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>426</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>427</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>428</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>429</v>
-      </c>
-      <c r="U1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7752,43 +7810,43 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" t="s">
         <v>431</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>432</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>433</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" t="s">
         <v>434</v>
       </c>
-      <c r="H1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>435</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>436</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>437</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>438</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>439</v>
-      </c>
-      <c r="N1" t="s">
-        <v>440</v>
       </c>
       <c r="O1" t="s">
         <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7855,7 +7913,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G3" t="s">
         <v>186</v>
@@ -7902,7 +7960,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G4" t="s">
         <v>186</v>
@@ -7972,7 +8030,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G6" t="s">
         <v>186</v>
@@ -8036,22 +8094,22 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
         <v>443</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>444</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>445</v>
       </c>
-      <c r="H1" t="s">
-        <v>446</v>
-      </c>
       <c r="I1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8080,7 +8138,7 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -8113,55 +8171,55 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" t="s">
         <v>448</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>449</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>450</v>
-      </c>
-      <c r="G1" t="s">
-        <v>451</v>
       </c>
       <c r="H1" t="s">
         <v>95</v>
       </c>
       <c r="I1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J1" t="s">
         <v>452</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>453</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>454</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>455</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P1" t="s">
         <v>456</v>
       </c>
-      <c r="N1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O1" t="s">
-        <v>272</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>457</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>458</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>459</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>460</v>
-      </c>
-      <c r="T1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8178,7 +8236,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>46</v>
@@ -8240,7 +8298,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>46</v>
@@ -8298,7 +8356,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8321,7 +8379,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>182</v>
@@ -8347,7 +8405,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8364,7 +8422,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8381,7 +8439,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8398,7 +8456,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -8415,7 +8473,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8511,22 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8579,19 +8637,19 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" t="s">
         <v>471</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>472</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>473</v>
-      </c>
-      <c r="H1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -8947,10 +9005,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9061,6 +9119,26 @@
         <v>49</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9071,7 +9149,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9239,6 +9317,9 @@
       <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -9267,10 +9348,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="AG1" sqref="AG1:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9306,7 +9387,7 @@
     <col min="32" max="32" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9404,7 +9485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -9464,7 +9545,7 @@
       </c>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -9561,11 +9642,8 @@
       <c r="AF3" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -9662,11 +9740,8 @@
       <c r="AF4" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -9721,26 +9796,56 @@
       <c r="R5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+      <c r="S5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
+    <hyperlink ref="S5" r:id="rId2" xr:uid="{0051812B-AAE2-4215-A1AC-9916CE866A1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9749,8 +9854,8 @@
   <dimension ref="A1:DC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11991,6 +12096,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12207,26 +12331,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12243,22 +12366,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata14oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF99058-6DE1-431C-9DAD-3990670463A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DA8ED6-0845-4F54-B2A9-87E416E84E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="17" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="24" activeTab="27" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="481">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1964,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" activeCellId="1" sqref="A11 B20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2089,12 +2089,23 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2105,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2687,6 +2698,134 @@
         <v>49</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2784,10 +2923,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2875,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -2907,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
@@ -2939,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -2964,13 +3103,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -2991,16 +3130,19 @@
       <c r="I6" t="s">
         <v>48</v>
       </c>
+      <c r="J6" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -3008,85 +3150,94 @@
       <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G8" t="s">
         <v>226</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G9" t="s">
         <v>227</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>228</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
@@ -3109,13 +3260,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
@@ -3124,10 +3275,10 @@
       <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="21" t="s">
         <v>226</v>
       </c>
       <c r="H11" t="s">
@@ -3138,13 +3289,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
@@ -3153,11 +3304,11 @@
       <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
-        <v>226</v>
-      </c>
-      <c r="G12" t="s">
-        <v>226</v>
+      <c r="F12" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
@@ -3167,13 +3318,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
@@ -3192,6 +3343,122 @@
         <v>48</v>
       </c>
       <c r="I13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4131,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BC25"/>
+  <dimension ref="A1:BC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4829,123 +5096,169 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="S8" s="12"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="11"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -4968,7 +5281,9 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
-      <c r="AU8" s="11"/>
+      <c r="AU8" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
@@ -5001,7 +5316,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="12"/>
+      <c r="W9" s="11"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -5025,7 +5340,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
-      <c r="AU9" s="12"/>
+      <c r="AU9" s="11"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
@@ -5115,7 +5430,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="11"/>
+      <c r="W11" s="12"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -5139,7 +5454,7 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
-      <c r="AU11" s="11"/>
+      <c r="AU11" s="12"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
@@ -5172,7 +5487,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="12"/>
+      <c r="W12" s="11"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -5196,7 +5511,7 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
-      <c r="AU12" s="12"/>
+      <c r="AU12" s="11"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
@@ -5253,7 +5568,7 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
+      <c r="AU13" s="12"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
@@ -5286,7 +5601,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -5343,7 +5658,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="12"/>
+      <c r="W15" s="11"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -5457,7 +5772,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="12"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -5514,7 +5829,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="12"/>
+      <c r="W18" s="11"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -5628,7 +5943,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="11"/>
+      <c r="W20" s="12"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -5685,7 +6000,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="12"/>
+      <c r="W21" s="11"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -5947,6 +6262,63 @@
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
     </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5955,10 +6327,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6274,123 +6646,123 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -6420,46 +6792,116 @@
       <c r="M5" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
+      <c r="N5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="6"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
@@ -6533,7 +6975,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="5"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -6570,7 +7012,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="6"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -6644,7 +7086,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="6"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -6681,7 +7123,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -6755,7 +7197,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -6792,7 +7234,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="6"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -6961,6 +7403,43 @@
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
     </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6969,10 +7448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7153,16 +7632,16 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -7179,17 +7658,15 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -7203,6 +7680,25 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7398,10 +7894,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7641,6 +8137,14 @@
       <c r="F6" s="1" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7776,10 +8280,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8060,6 +8564,56 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8353,10 +8907,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8461,18 +9015,35 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8610,7 +9181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -9005,10 +9576,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9139,6 +9710,26 @@
         <v>49</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9146,10 +9737,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9323,21 +9914,44 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9348,10 +9962,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG5"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9839,23 +10453,122 @@
         <v>46</v>
       </c>
     </row>
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
     <hyperlink ref="S5" r:id="rId2" xr:uid="{0051812B-AAE2-4215-A1AC-9916CE866A1A}"/>
+    <hyperlink ref="S6" r:id="rId3" xr:uid="{5F0FC2D8-3A46-4688-A3AE-7D2028F78211}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:DC11"/>
+  <dimension ref="A1:DC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11689,10 +12402,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>186</v>
@@ -11873,13 +12586,13 @@
     </row>
     <row r="10" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>48</v>
@@ -11894,7 +12607,7 @@
         <v>184</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>46</v>
@@ -11906,7 +12619,7 @@
         <v>186</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>186</v>
@@ -11951,26 +12664,32 @@
         <v>186</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE10" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="AF10" s="1" t="s">
         <v>191</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
+      <c r="AH10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -12031,7 +12750,9 @@
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
       <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
+      <c r="CP10" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="CQ10" s="8" t="s">
         <v>193</v>
       </c>
@@ -12051,7 +12772,135 @@
       <c r="DC10" s="1"/>
     </row>
     <row r="11" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="BE11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
@@ -12087,6 +12936,244 @@
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CQ11" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1"/>
+      <c r="DC11" s="1"/>
+    </row>
+    <row r="12" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR12" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
+      <c r="CW12" s="1"/>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
+      <c r="CZ12" s="1"/>
+      <c r="DA12" s="1"/>
+      <c r="DB12" s="1"/>
+      <c r="DC12" s="1"/>
+    </row>
+    <row r="13" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="1"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata14oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DA8ED6-0845-4F54-B2A9-87E416E84E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1237625E-6365-4CCB-973E-A23A4145A2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="24" activeTab="27" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -9181,7 +9181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -10566,9 +10566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DC13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12592,7 +12592,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>48</v>
@@ -13183,25 +13183,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -13418,25 +13399,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13453,4 +13435,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata14oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1237625E-6365-4CCB-973E-A23A4145A2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583EDC58-B36D-4A91-8B39-60452E005450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -10568,7 +10568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12402,10 +12402,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>186</v>
@@ -12776,7 +12776,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata14oct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583EDC58-B36D-4A91-8B39-60452E005450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D66F234-E8DC-4778-AA85-973658AF86CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="21" activeTab="24" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="480">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1197,9 +1197,6 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>person2</t>
   </si>
   <si>
     <t>Reporting Party</t>
@@ -2119,7 +2116,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A16" sqref="A16:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2926,7 +2923,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2971,7 +2968,7 @@
         <v>225</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3003,7 +3000,7 @@
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3035,7 +3032,7 @@
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -3067,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -3099,7 +3096,7 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -3131,7 +3128,7 @@
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -3163,7 +3160,7 @@
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -3195,7 +3192,7 @@
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -3227,7 +3224,7 @@
         <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -4400,8 +4397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BC26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4604,8 +4601,8 @@
       <c r="I2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>378</v>
+      <c r="J2" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
@@ -4614,18 +4611,20 @@
         <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -4708,7 +4707,7 @@
         <v>187</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
@@ -4717,13 +4716,13 @@
         <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>46</v>
@@ -4813,7 +4812,7 @@
         <v>187</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
@@ -4822,13 +4821,13 @@
         <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>46</v>
@@ -4915,8 +4914,8 @@
       <c r="I5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>378</v>
+      <c r="J5" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
@@ -4925,18 +4924,20 @@
         <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="P5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="R5" s="12"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -5019,22 +5020,22 @@
         <v>187</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>46</v>
@@ -5124,22 +5125,22 @@
         <v>187</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>46</v>
@@ -5228,26 +5229,26 @@
       <c r="I8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>378</v>
+      <c r="J8" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>48</v>
@@ -5280,8 +5281,7 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1" t="s">
+      <c r="AT8" s="1" t="s">
         <v>193</v>
       </c>
       <c r="AV8" s="1"/>
@@ -6330,7 +6330,7 @@
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6390,13 +6390,13 @@
         <v>333</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>335</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>336</v>
@@ -6438,7 +6438,7 @@
         <v>257</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>259</v>
@@ -6447,7 +6447,7 @@
         <v>354</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>357</v>
@@ -6496,10 +6496,10 @@
         <v>184</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>388</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>22</v>
@@ -6508,10 +6508,10 @@
         <v>187</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -6552,7 +6552,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>377</v>
@@ -6561,10 +6561,10 @@
         <v>184</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>22</v>
@@ -6573,73 +6573,73 @@
         <v>187</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="Q3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>193</v>
@@ -6659,7 +6659,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>377</v>
@@ -6668,10 +6668,10 @@
         <v>184</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>22</v>
@@ -6680,73 +6680,73 @@
         <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI4" s="8" t="s">
         <v>193</v>
@@ -6775,10 +6775,10 @@
         <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -6787,76 +6787,76 @@
         <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
@@ -6882,10 +6882,10 @@
         <v>184</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
@@ -6894,10 +6894,10 @@
         <v>187</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -7713,7 +7713,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7742,25 +7742,25 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" t="s">
         <v>391</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>392</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>393</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>394</v>
-      </c>
-      <c r="H1" t="s">
-        <v>395</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>182</v>
@@ -7783,7 +7783,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>46</v>
@@ -7821,7 +7821,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>46</v>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -7878,10 +7878,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" t="s">
         <v>397</v>
-      </c>
-      <c r="G5" t="s">
-        <v>398</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>23</v>
@@ -7929,49 +7929,49 @@
         <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -8022,7 +8022,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>48</v>
@@ -8072,7 +8072,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>48</v>
@@ -8104,7 +8104,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>48</v>
@@ -8181,58 +8181,58 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" t="s">
         <v>416</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>417</v>
-      </c>
-      <c r="H1" t="s">
-        <v>418</v>
       </c>
       <c r="I1" t="s">
         <v>252</v>
       </c>
       <c r="J1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K1" t="s">
         <v>419</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>420</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>421</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>422</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>423</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q1" t="s">
         <v>424</v>
       </c>
-      <c r="P1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>425</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>426</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>427</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>428</v>
-      </c>
-      <c r="U1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -8282,8 +8282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8314,43 +8314,43 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
         <v>430</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>431</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>432</v>
-      </c>
-      <c r="G1" t="s">
-        <v>433</v>
       </c>
       <c r="H1" t="s">
         <v>299</v>
       </c>
       <c r="I1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J1" t="s">
         <v>434</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>435</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>436</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>437</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>438</v>
-      </c>
-      <c r="N1" t="s">
-        <v>439</v>
       </c>
       <c r="O1" t="s">
         <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8417,7 +8417,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G3" t="s">
         <v>186</v>
@@ -8464,7 +8464,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G4" t="s">
         <v>186</v>
@@ -8528,13 +8528,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G6" t="s">
         <v>186</v>
@@ -8578,13 +8578,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G7" t="s">
         <v>186</v>
@@ -8648,19 +8648,19 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" t="s">
         <v>442</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>443</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>444</v>
-      </c>
-      <c r="H1" t="s">
-        <v>445</v>
       </c>
       <c r="I1" t="s">
         <v>253</v>
@@ -8692,7 +8692,7 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -8704,7 +8704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C3F614-783A-4C4F-9E94-A1C236065EAF}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:T3"/>
     </sheetView>
   </sheetViews>
@@ -8725,34 +8725,34 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" t="s">
         <v>447</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>448</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>449</v>
-      </c>
-      <c r="G1" t="s">
-        <v>450</v>
       </c>
       <c r="H1" t="s">
         <v>95</v>
       </c>
       <c r="I1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" t="s">
         <v>451</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>452</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>453</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>454</v>
-      </c>
-      <c r="M1" t="s">
-        <v>455</v>
       </c>
       <c r="N1" t="s">
         <v>270</v>
@@ -8761,19 +8761,19 @@
         <v>271</v>
       </c>
       <c r="P1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q1" t="s">
         <v>456</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>457</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>458</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>459</v>
-      </c>
-      <c r="T1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8790,7 +8790,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>46</v>
@@ -8852,7 +8852,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>46</v>
@@ -8933,7 +8933,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>182</v>
@@ -8959,7 +8959,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8976,7 +8976,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8993,7 +8993,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -9010,7 +9010,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -9027,7 +9027,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -9044,7 +9044,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -9085,19 +9085,19 @@
         <v>253</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -9211,16 +9211,16 @@
         <v>253</v>
       </c>
       <c r="E1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" t="s">
         <v>470</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>471</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>472</v>
-      </c>
-      <c r="H1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -9964,8 +9964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10393,7 +10393,7 @@
         <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>46</v>
@@ -10404,11 +10404,11 @@
       <c r="P5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>46</v>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>93</v>
@@ -10491,7 +10491,7 @@
         <v>48</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>46</v>
@@ -10502,11 +10502,11 @@
       <c r="P6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>46</v>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>93</v>
@@ -10566,9 +10566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CR5" sqref="CR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11790,10 +11790,10 @@
         <v>186</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="AC5" s="8" t="s">
         <v>46</v>
@@ -11964,10 +11964,10 @@
         <v>186</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="8" t="s">
         <v>46</v>
@@ -12316,7 +12316,9 @@
       <c r="AI8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
@@ -12375,7 +12377,9 @@
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
+      <c r="CO8" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="CP8" s="1" t="s">
         <v>198</v>
       </c>
@@ -12426,7 +12430,7 @@
         <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>186</v>
@@ -12471,25 +12475,25 @@
         <v>186</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>186</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>191</v>
@@ -12498,15 +12502,19 @@
         <v>46</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ9" s="1"/>
+      <c r="AJ9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
+      <c r="AM9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
@@ -12521,9 +12529,13 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
+      <c r="BB9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
+      <c r="BD9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="BE9" s="1" t="s">
         <v>186</v>
       </c>
@@ -12550,7 +12562,9 @@
       <c r="BZ9" s="1"/>
       <c r="CA9" s="1"/>
       <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
+      <c r="CC9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="CD9" s="1"/>
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
@@ -12562,7 +12576,9 @@
       <c r="CL9" s="1"/>
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
+      <c r="CO9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="CP9" s="1" t="s">
         <v>198</v>
       </c>
@@ -12690,7 +12706,9 @@
       <c r="AI10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -12749,7 +12767,9 @@
       <c r="CL10" s="1"/>
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
-      <c r="CO10" s="1"/>
+      <c r="CO10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="CP10" s="1" t="s">
         <v>198</v>
       </c>
@@ -12800,7 +12820,7 @@
         <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>186</v>
@@ -12845,25 +12865,25 @@
         <v>186</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>186</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>191</v>
@@ -12872,71 +12892,179 @@
         <v>46</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ11" s="1"/>
+      <c r="AJ11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
+      <c r="AM11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
+      <c r="AO11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="BE11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
+      <c r="BF11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BV11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BW11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BY11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BZ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CA11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CB11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CC11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CD11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CF11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CG11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CI11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CJ11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CK11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CM11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CN11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CO11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="CP11" s="1" t="s">
         <v>198</v>
       </c>
@@ -13183,6 +13311,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -13399,16 +13537,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13419,6 +13547,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13437,16 +13575,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata16oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE50CE0A-8DCB-4749-93C9-730C074B8310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9F853-542D-40C8-93CA-A9698146CDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="22" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <sheet name="ScreeningSubmitForApproval" sheetId="12" r:id="rId31"/>
     <sheet name="ScreeningApproval" sheetId="15" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="191028" concurrentManualCount="16"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="590">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3018,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3215,6 +3215,9 @@
         <v>200</v>
       </c>
       <c r="T2" s="2"/>
+      <c r="AG2" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="3" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -3465,13 +3468,13 @@
         <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>200</v>
@@ -10678,7 +10681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
@@ -14406,6 +14409,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -14622,26 +14644,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14658,22 +14679,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata16oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9F853-542D-40C8-93CA-A9698146CDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2CEEEE-2715-4D09-BDAE-2D48EEE5655B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -3018,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3170,10 +3170,10 @@
         <v>138</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>136</v>
@@ -3435,10 +3435,10 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>136</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata16oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2CEEEE-2715-4D09-BDAE-2D48EEE5655B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EEA2A5-CB97-4757-96B3-67E6790EE9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -3018,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3459,7 +3459,7 @@
         <v>138</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N5" t="s">
         <v>138</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata16oct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdat180ct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EEA2A5-CB97-4757-96B3-67E6790EE9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0168672-9F4A-48BA-BAFB-6E63CF5E10DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="21" activeTab="22" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="605">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -597,6 +597,9 @@
     <t>CURRENT_SCREENINGS</t>
   </si>
   <si>
+    <t>RECORD_STATUS</t>
+  </si>
+  <si>
     <t>IMMEDIATE_INVESTIGATIONS</t>
   </si>
   <si>
@@ -672,6 +675,9 @@
     <t>https://www.cdss.ca.gov/inforesources/letters-regulations/legislation-and-regulations/child-welfare-services-regulations</t>
   </si>
   <si>
+    <t>Approved</t>
+  </si>
+  <si>
     <t>SCREENING_NARRATIVE</t>
   </si>
   <si>
@@ -984,7 +990,28 @@
     <t>SCP_ID_VERIFY</t>
   </si>
   <si>
-    <t>CUSTOM_1</t>
+    <t>ROLE_VERIFY</t>
+  </si>
+  <si>
+    <t>FIRST_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>LAST_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>APPROXIMATE_AGE_VERIFY</t>
+  </si>
+  <si>
+    <t>COUNTRY_VERIFY</t>
+  </si>
+  <si>
+    <t>FURTHER_CSE_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_OF_BIRTH_VERIFY</t>
+  </si>
+  <si>
+    <t>CUSTOM1</t>
   </si>
   <si>
     <t>Alleged Perpetrator</t>
@@ -996,7 +1023,7 @@
     <t>Data Saved Successfully.</t>
   </si>
   <si>
-    <t>CUSTOM_2</t>
+    <t>CUSTOM2</t>
   </si>
   <si>
     <t>Alleged Victim</t>
@@ -1059,10 +1086,16 @@
     <t>test2922</t>
   </si>
   <si>
-    <t>SCP_ID1</t>
-  </si>
-  <si>
-    <t>SCP_ID2</t>
+    <t>personNameCustom1</t>
+  </si>
+  <si>
+    <t>SCP_IDCustom1</t>
+  </si>
+  <si>
+    <t>personNameCustom2</t>
+  </si>
+  <si>
+    <t>SCP_IDCustom2</t>
   </si>
   <si>
     <t>ADDRESS_TYPE</t>
@@ -1086,9 +1119,6 @@
     <t>ADDRESS_VALIDATION_VERIFY</t>
   </si>
   <si>
-    <t>COUNTRY_VERIFY</t>
-  </si>
-  <si>
     <t>ZIPCODE_VERIFY</t>
   </si>
   <si>
@@ -1200,342 +1230,378 @@
     <t>ALLEGATIONS_TAB</t>
   </si>
   <si>
+    <t>SCR_ALLEGATIONID_VERIFY</t>
+  </si>
+  <si>
     <t>Caretaker Absence/Incapacity</t>
   </si>
   <si>
     <t>Abandonment</t>
   </si>
   <si>
+    <t>SAFETY_ALERT</t>
+  </si>
+  <si>
+    <t>SAFETY_ALERTS_TAB</t>
+  </si>
+  <si>
+    <t>SAFETY_ALERTS_VERIFY</t>
+  </si>
+  <si>
+    <t>SENSITIVE_SEALED_VERIFY</t>
+  </si>
+  <si>
+    <t>LASTMODIFIEDBY_VERIFY</t>
+  </si>
+  <si>
+    <t>Firearms in Home</t>
+  </si>
+  <si>
+    <t>ASSESSMENT_TAB</t>
+  </si>
+  <si>
+    <t>ASSESMENT_NAME</t>
+  </si>
+  <si>
+    <t>VERIFING_ASSESSMENTS_FIELDS_AFTER_SAVE</t>
+  </si>
+  <si>
+    <t>SDMASSESSMENTID_VERIFY</t>
+  </si>
+  <si>
+    <t>SCREENINGNAME_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSESSMENTDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSESSMENTDUEDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>VERIFING_ASSESSMENTS_FIELDS</t>
+  </si>
+  <si>
+    <t>NEWASSISSMENTSDMHOTLINE_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSESMENTNAME_VERIFY</t>
+  </si>
+  <si>
+    <t>AMOUNT_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACT_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSESSMENTRATTING_VERIFY</t>
+  </si>
+  <si>
+    <t>EFFECTIVEDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>EXPIRITIONDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>TIME_VERIFY</t>
+  </si>
+  <si>
+    <t>OWNERNAME_VERIFY</t>
+  </si>
+  <si>
+    <t>OMNIPROCESS_VERIFY</t>
+  </si>
+  <si>
+    <t>APPROVALUNIT_VERIFY</t>
+  </si>
+  <si>
+    <t>CARETRANSID_VERIFY</t>
+  </si>
+  <si>
+    <t>COUNTRYOFCOMPLETION_VERIFY</t>
+  </si>
+  <si>
+    <t>DECRESPONSELEVELREASON_VERIFY</t>
+  </si>
+  <si>
+    <t>DISCRETIONARYOVERRIDE_VERIFY</t>
+  </si>
+  <si>
+    <t>EVALUATEOURREASON_VERIFY</t>
+  </si>
+  <si>
+    <t>FINALRESPONSEPRIORITY_VERIFY</t>
+  </si>
+  <si>
+    <t>FINALSCREENINGDECISION_VERIFY</t>
+  </si>
+  <si>
+    <t>LASTUPDATEDBY_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHEROVERRIDEINPERSON_VERIFY</t>
+  </si>
+  <si>
+    <t>OVERRIDETOEVALUATEOUTREASON_VERIFY</t>
+  </si>
+  <si>
+    <t>OVERRIDES_VERIFY</t>
+  </si>
+  <si>
+    <t>POLICYOVERRIDEREASON_VERIFY</t>
+  </si>
+  <si>
+    <t>POLICYOVERRIDE_VERIFY</t>
+  </si>
+  <si>
+    <t>PRELIMINARYSCREENINGDECISIONS_VERIFY</t>
+  </si>
+  <si>
+    <t>SDMTRANSACTIONID_VERIFY</t>
+  </si>
+  <si>
+    <t>SUBMITFORAPPROVALBY_VERIFY</t>
+  </si>
+  <si>
+    <t>SUBMITFORAPPROVALDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>SUPERVISORDECISIONCOMMENTS_VERIFY</t>
+  </si>
+  <si>
+    <t>SUPERVISORDECISIONDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>TRANSACTIONSTIMESTAMP_VERIFY</t>
+  </si>
+  <si>
+    <t>OVERRIDETOINPERSONRESPONSEREASON_VERIFY</t>
+  </si>
+  <si>
+    <t>SALESFORCERECORDID_VERIFY</t>
+  </si>
+  <si>
+    <t>SDMASSESSMENTORIGINAL_VERIFY</t>
+  </si>
+  <si>
+    <t>SAFTYDESISION_VERIFY</t>
+  </si>
+  <si>
+    <t>SAVENEW_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACT_LOGS_TAB</t>
+  </si>
+  <si>
+    <t>TRIBAL_NEW_BTN</t>
+  </si>
+  <si>
+    <t>CONTACT_START_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONTACT_PURPOSE</t>
+  </si>
+  <si>
+    <t>CONTACT_STATUS</t>
+  </si>
+  <si>
+    <t>CONTACT_METHOD</t>
+  </si>
+  <si>
+    <t>ON_BEHALF_OF_CHILD</t>
+  </si>
+  <si>
+    <t>STAFF_PERSON</t>
+  </si>
+  <si>
+    <t>OTHER_STAFF_PRESENT</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_TYPE</t>
+  </si>
+  <si>
+    <t>INITIAL_ICWA_INQUIRY</t>
+  </si>
+  <si>
+    <t>NARRATIVE</t>
+  </si>
+  <si>
+    <t>INITIAL_ICWA_INQUIRY_TEXT</t>
+  </si>
+  <si>
+    <t>SCR_TRIBAL_CONTACTID_VERIFY</t>
+  </si>
+  <si>
+    <t>TRIBALINQUIRY_COLLABORATION_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACTSTARTDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACTENDDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACTPURPOSE_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACTMETHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>ONBEHALFOFCHILD_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACTSTATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUSNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHERSTAFFPERSON_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHERLOCATION_VERIFY</t>
+  </si>
+  <si>
+    <t>LOCATION_VERIFY</t>
+  </si>
+  <si>
+    <t>REASONTOKNOWRATIONALE_VERIFY</t>
+  </si>
+  <si>
+    <t>INITIALICWAINQ_VERIFY</t>
+  </si>
+  <si>
+    <t>NARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>INDIANCHILDINQ_VERIFY</t>
+  </si>
+  <si>
+    <t>MEMBEROFTRIBAL_VERIFY</t>
+  </si>
+  <si>
+    <t>IFTESREASON1_VERIFY</t>
+  </si>
+  <si>
+    <t>ISPARENTMEMBER_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEIVESERVICE_VERIFY</t>
+  </si>
+  <si>
+    <t>IFTESREASON2_VERIFY</t>
+  </si>
+  <si>
+    <t>RESIDEONRESERVATION_VERIFY</t>
+  </si>
+  <si>
+    <t>ANYFAMILYIDENTIFIED_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEIVESFEDERALSERVICE_VERIFY</t>
+  </si>
+  <si>
+    <t>MEMBEROFTRIBEALASKANATIVEVILLAGE</t>
+  </si>
+  <si>
+    <t>IFYESTHENWHICHTRIBE1</t>
+  </si>
+  <si>
+    <t>ISPARENTMEMBEROFTRIBE</t>
+  </si>
+  <si>
+    <t>IFYESTHENWHICHTRIBE2</t>
+  </si>
+  <si>
+    <t>RECEIVESSERVICEBENEFITFROMTRIBE</t>
+  </si>
+  <si>
+    <t>IFYESTHENWHICHTRIBE3</t>
+  </si>
+  <si>
+    <t>RESIDESONRESERVATIONTRIBALLAND</t>
+  </si>
+  <si>
+    <t>ANYFAMILYIDENTIFIEDANCESTRYHERITAGE</t>
+  </si>
+  <si>
+    <t>RECEIVESFEDERALSERVICETRIBALBENEFIT</t>
+  </si>
+  <si>
+    <t>HEADERCONTACTID</t>
+  </si>
+  <si>
+    <t>HEADERCONTACTSTARTDATETIME</t>
+  </si>
+  <si>
+    <t>HEADERCONTACTPURPOSE</t>
+  </si>
+  <si>
+    <t>HEADERCONTACTSTATUS</t>
+  </si>
+  <si>
+    <t>HEADERINITIALTCWAINQUIRY</t>
+  </si>
+  <si>
+    <t>HEADERONBEHALFOFCHILD</t>
+  </si>
+  <si>
+    <t>HEADERPARTICIPANT</t>
+  </si>
+  <si>
+    <t>HEADERPERSON</t>
+  </si>
+  <si>
+    <t>HEADEROTHERSTAFFPRESENT</t>
+  </si>
+  <si>
+    <t>Tribal Collaboration</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>personName2</t>
   </si>
   <si>
+    <t>Reporting Party</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>Continue to Inquire</t>
+  </si>
+  <si>
+    <t>ClericalWorker1ContraCosta</t>
+  </si>
+  <si>
+    <t>CONTACT_START_DATETIME</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>SCR_CONTACTID_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHERSTAFFPRESENT_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHER_VERIFY</t>
+  </si>
+  <si>
     <t>personName1</t>
   </si>
   <si>
-    <t>SAFETY_ALERT</t>
-  </si>
-  <si>
-    <t>SAFETY_ALERTS_TAB</t>
-  </si>
-  <si>
-    <t>SAFETY_ALERTS_VERIFY</t>
-  </si>
-  <si>
-    <t>SENSITIVE_SEALED_VERIFY</t>
-  </si>
-  <si>
-    <t>LASTMODIFIEDBY_VERIFY</t>
-  </si>
-  <si>
-    <t>Firearms in Home</t>
-  </si>
-  <si>
-    <t>ASSESSMENT_TAB</t>
-  </si>
-  <si>
-    <t>ASSESMENT_NAME</t>
-  </si>
-  <si>
-    <t>VERIFING_ASSESSMENTS_FIELDS_AFTER_SAVE</t>
-  </si>
-  <si>
-    <t>SDMASSESSMENTID_VERIFY</t>
-  </si>
-  <si>
-    <t>SCREENINGNAME_VERIFY</t>
-  </si>
-  <si>
-    <t>ASSESSMENTDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>ASSESSMENTDUEDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>VERIFING_ASSESSMENTS_FIELDS</t>
-  </si>
-  <si>
-    <t>NEWASSISSMENTSDMHOTLINE_VERIFY</t>
-  </si>
-  <si>
-    <t>ASSESMENTNAME_VERIFY</t>
-  </si>
-  <si>
-    <t>AMOUNT_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACT_VERIFY</t>
-  </si>
-  <si>
-    <t>ASSESSMENTRATTING_VERIFY</t>
-  </si>
-  <si>
-    <t>EFFECTIVEDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>EXPIRITIONDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>TIME_VERIFY</t>
-  </si>
-  <si>
-    <t>OWNERNAME_VERIFY</t>
-  </si>
-  <si>
-    <t>OMNIPROCESS_VERIFY</t>
-  </si>
-  <si>
-    <t>APPROVALUNIT_VERIFY</t>
-  </si>
-  <si>
-    <t>CARETRANSID_VERIFY</t>
-  </si>
-  <si>
-    <t>COUNTRYOFCOMPLETION_VERIFY</t>
-  </si>
-  <si>
-    <t>DECRESPONSELEVELREASON_VERIFY</t>
-  </si>
-  <si>
-    <t>DISCRETIONARYOVERRIDE_VERIFY</t>
-  </si>
-  <si>
-    <t>EVALUATEOURREASON_VERIFY</t>
-  </si>
-  <si>
-    <t>FINALRESPONSEPRIORITY_VERIFY</t>
-  </si>
-  <si>
-    <t>FINALSCREENINGDECISION_VERIFY</t>
-  </si>
-  <si>
-    <t>LASTUPDATEDBY_VERIFY</t>
-  </si>
-  <si>
-    <t>OTHEROVERRIDEINPERSON_VERIFY</t>
-  </si>
-  <si>
-    <t>OVERRIDETOEVALUATEOUTREASON_VERIFY</t>
-  </si>
-  <si>
-    <t>OVERRIDES_VERIFY</t>
-  </si>
-  <si>
-    <t>POLICYOVERRIDEREASON_VERIFY</t>
-  </si>
-  <si>
-    <t>POLICYOVERRIDE_VERIFY</t>
-  </si>
-  <si>
-    <t>PRELIMINARYSCREENINGDECISIONS_VERIFY</t>
-  </si>
-  <si>
-    <t>SDMTRANSACTIONID_VERIFY</t>
-  </si>
-  <si>
-    <t>SUBMITFORAPPROVALBY_VERIFY</t>
-  </si>
-  <si>
-    <t>SUBMITFORAPPROVALDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>SUPERVISORDECISIONCOMMENTS_VERIFY</t>
-  </si>
-  <si>
-    <t>SUPERVISORDECISIONDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>TRANSACTIONSTIMESTAMP_VERIFY</t>
-  </si>
-  <si>
-    <t>OVERRIDETOINPERSONRESPONSEREASON_VERIFY</t>
-  </si>
-  <si>
-    <t>SALESFORCERECORDID_VERIFY</t>
-  </si>
-  <si>
-    <t>SDMASSESSMENTORIGINAL_VERIFY</t>
-  </si>
-  <si>
-    <t>SAFTYDESISION_VERIFY</t>
-  </si>
-  <si>
-    <t>SAVENEW_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACT_LOGS_TAB</t>
-  </si>
-  <si>
-    <t>TRIBAL_NEW_BTN</t>
-  </si>
-  <si>
-    <t>CONTACT_START_DATE_TIME</t>
-  </si>
-  <si>
-    <t>CONTACT_PURPOSE</t>
-  </si>
-  <si>
-    <t>CONTACT_STATUS</t>
-  </si>
-  <si>
-    <t>CONTACT_METHOD</t>
-  </si>
-  <si>
-    <t>ON_BEHALF_OF_CHILD</t>
-  </si>
-  <si>
-    <t>STAFF_PERSON</t>
-  </si>
-  <si>
-    <t>OTHER_STAFF_PRESENT</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_TYPE</t>
-  </si>
-  <si>
-    <t>INITIAL_ICWA_INQUIRY</t>
-  </si>
-  <si>
-    <t>NARRATIVE</t>
-  </si>
-  <si>
-    <t>TRIBALINQUIRY_COLLABORATION_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACTSTARTDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACTENDDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACTPURPOSE_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACTMETHOD_VERIFY</t>
-  </si>
-  <si>
-    <t>ONBEHALFOFCHILD_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACTSTATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUSNARRATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_VERIFY</t>
-  </si>
-  <si>
-    <t>OTHERSTAFFPERSON_VERIFY</t>
-  </si>
-  <si>
-    <t>OTHERLOCATION_VERIFY</t>
-  </si>
-  <si>
-    <t>LOCATION_VERIFY</t>
-  </si>
-  <si>
-    <t>REASONTOKNOWRATIONALE_VERIFY</t>
-  </si>
-  <si>
-    <t>INITIALICWAINQ_VERIFY</t>
-  </si>
-  <si>
-    <t>NARRATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>INDIANCHILDINQ_VERIFY</t>
-  </si>
-  <si>
-    <t>MEMBEROFTRIBAL_VERIFY</t>
-  </si>
-  <si>
-    <t>IFTESREASON1_VERIFY</t>
-  </si>
-  <si>
-    <t>ISPARENTMEMBER_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEIVESERVICE_VERIFY</t>
-  </si>
-  <si>
-    <t>IFTESREASON2_VERIFY</t>
-  </si>
-  <si>
-    <t>RESIDEONRESERVATION_VERIFY</t>
-  </si>
-  <si>
-    <t>ANYFAMILYIDENTIFIED_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEIVESFEDERALSERVICE_VERIFY</t>
-  </si>
-  <si>
-    <t>MEMBEROFTRIBEALASKANATIVEVILLAGE</t>
-  </si>
-  <si>
-    <t>IFYESTHENWHICHTRIBE1</t>
-  </si>
-  <si>
-    <t>ISPARENTMEMBEROFTRIBE</t>
-  </si>
-  <si>
-    <t>IFYESTHENWHICHTRIBE2</t>
-  </si>
-  <si>
-    <t>RECEIVESSERVICEBENEFITFROMTRIBE</t>
-  </si>
-  <si>
-    <t>IFYESTHENWHICHTRIBE3</t>
-  </si>
-  <si>
-    <t>RESIDESONRESERVATIONTRIBALLAND</t>
-  </si>
-  <si>
-    <t>ANYFAMILYIDENTIFIEDANCESTRYHERITAGE</t>
-  </si>
-  <si>
-    <t>RECEIVESFEDERALSERVICETRIBALBENEFIT</t>
-  </si>
-  <si>
-    <t>Tribal Collaboration</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>person2</t>
-  </si>
-  <si>
-    <t>Reporting Party</t>
-  </si>
-  <si>
-    <t>Court</t>
-  </si>
-  <si>
-    <t>Continue to Inquire</t>
-  </si>
-  <si>
-    <t>ClericalWorker1ContraCosta</t>
-  </si>
-  <si>
-    <t>CONTACT_START_DATETIME</t>
-  </si>
-  <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>OTHERSTAFFPRESENT_VERIFY</t>
-  </si>
-  <si>
-    <t>OTHER_VERIFY</t>
-  </si>
-  <si>
     <t>randomText</t>
   </si>
   <si>
@@ -1566,6 +1632,9 @@
     <t>SUPERVISOR_REVIEW_TAB</t>
   </si>
   <si>
+    <t>FOLIOREF_ID_VERIFY</t>
+  </si>
+  <si>
     <t>Immediate</t>
   </si>
   <si>
@@ -1698,9 +1767,15 @@
     <t>ASSIGNED_TO_VERIFY</t>
   </si>
   <si>
+    <t>NEW_VALUE</t>
+  </si>
+  <si>
     <t>Screening History</t>
   </si>
   <si>
+    <t>Country Assigned to Screening</t>
+  </si>
+  <si>
     <t>RECALL</t>
   </si>
   <si>
@@ -1797,46 +1872,16 @@
     <t>REASSIGN_BTN</t>
   </si>
   <si>
-    <t>RECORD_STATUS</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>CREATED_BY_VERIFY</t>
-  </si>
-  <si>
-    <t>LAST_MODIFIED_BY_VERIFY</t>
-  </si>
-  <si>
-    <t>ROLE_VERIFY</t>
-  </si>
-  <si>
-    <t>FIRST_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>LAST_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>APPROXIMATE_AGE_VERIFY</t>
+    <t>MODIFIEDBY_VERIFY</t>
   </si>
   <si>
     <t>COLLATERAL_TYPE_VERIFY</t>
   </si>
   <si>
-    <t>FURTHER_CSE_VERIFY</t>
-  </si>
-  <si>
-    <t>DATE_OF_BIRTH_VERIFY</t>
-  </si>
-  <si>
     <t>Please clear validation errors before saving.</t>
   </si>
   <si>
-    <t>DOCUMENT_TAB_VERIFY</t>
-  </si>
-  <si>
-    <t>LOCATION_FIELD_ERROR</t>
+    <t>DOCUMENT_SUBTAB_VERIFY</t>
   </si>
 </sst>
 </file>
@@ -1910,26 +1955,26 @@
       <sz val="10"/>
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1941,7 +1986,7 @@
       <sz val="10"/>
       <color rgb="FF0000C0"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2017,7 +2062,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2336,7 +2381,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2496,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72126703-8CED-47FD-8BF6-A6CD4C91F5A2}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2630,6 +2675,46 @@
         <v>139</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2639,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2886,6 +2971,9 @@
       <c r="F5" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="V5" s="22"/>
       <c r="AC5" s="23"/>
     </row>
@@ -3016,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3030,29 +3118,30 @@
     <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1796875" customWidth="1"/>
-    <col min="12" max="12" width="28.81640625" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="110.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.1796875" customWidth="1"/>
+    <col min="13" max="13" width="28.81640625" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="110.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3086,13 +3175,13 @@
       <c r="J1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>181</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -3116,7 +3205,7 @@
       <c r="T1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="4" t="s">
         <v>189</v>
       </c>
       <c r="V1" s="8" t="s">
@@ -3126,10 +3215,10 @@
         <v>191</v>
       </c>
       <c r="X1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>193</v>
@@ -3152,8 +3241,8 @@
       <c r="AF1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="AG1" s="28" t="s">
-        <v>576</v>
+      <c r="AG1" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
@@ -3175,9 +3264,7 @@
       <c r="F2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
         <v>136</v>
       </c>
@@ -3188,12 +3275,12 @@
         <v>136</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="8" t="s">
         <v>138</v>
       </c>
       <c r="N2" t="s">
@@ -3203,21 +3290,21 @@
         <v>138</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R2" t="s">
         <v>138</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="AG2" t="s">
-        <v>577</v>
-      </c>
+      <c r="S2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -3238,9 +3325,7 @@
       <c r="F3" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
         <v>136</v>
       </c>
@@ -3251,13 +3336,13 @@
         <v>136</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>138</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>136</v>
@@ -3278,9 +3363,9 @@
         <v>136</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="U3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>139</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -3295,17 +3380,17 @@
       <c r="Y3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Z3" t="s">
-        <v>136</v>
+      <c r="Z3" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AA3" t="s">
         <v>136</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>136</v>
+      <c r="AB3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AD3" t="s">
         <v>136</v>
@@ -3339,9 +3424,7 @@
       <c r="F4" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
         <v>136</v>
       </c>
@@ -3352,13 +3435,13 @@
         <v>136</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>138</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>136</v>
@@ -3379,9 +3462,9 @@
         <v>136</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="U4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="8" t="s">
         <v>139</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -3396,17 +3479,17 @@
       <c r="Y4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Z4" t="s">
-        <v>136</v>
+      <c r="Z4" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AA4" t="s">
         <v>136</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>136</v>
+      <c r="AB4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AD4" t="s">
         <v>136</v>
@@ -3441,7 +3524,7 @@
         <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>136</v>
@@ -3453,7 +3536,7 @@
         <v>136</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>138</v>
@@ -3461,74 +3544,49 @@
       <c r="M5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O5" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" t="s">
-        <v>139</v>
+      <c r="N5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="S5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
       <c r="AC5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
       <c r="AG5" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
-    <hyperlink ref="S5" r:id="rId2" xr:uid="{928DDB53-2881-4A78-ABD1-93708E16A171}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
+    <hyperlink ref="T5" r:id="rId2" xr:uid="{91F4668C-F47C-4801-AF32-0D9E3586BCF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3540,8 +3598,8 @@
   <dimension ref="A1:DG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS8" sqref="CS8"/>
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CH8" sqref="CH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3652,58 +3710,58 @@
         <v>117</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>18</v>
@@ -3715,25 +3773,25 @@
         <v>20</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG1" s="8" t="s">
         <v>22</v>
@@ -3742,202 +3800,202 @@
         <v>21</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AZ1" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BA1" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BD1" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BF1" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BG1" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BH1" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BI1" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BJ1" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BK1" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BL1" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="BM1" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="BN1" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BO1" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="BP1" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="BQ1" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="BR1" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="BS1" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BT1" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BU1" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BV1" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BW1" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BX1" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="BY1" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="BZ1" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CA1" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CB1" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CC1" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CD1" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="CE1" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="CF1" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="CG1" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="CH1" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="CI1" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CJ1" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CK1" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="CL1" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="CM1" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="CN1" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="CO1" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="CP1" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="CQ1" s="8" t="s">
-        <v>578</v>
+        <v>200</v>
       </c>
       <c r="CR1" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="CS1" s="8" t="s">
-        <v>579</v>
+        <v>353</v>
       </c>
       <c r="CT1" s="8" t="s">
-        <v>343</v>
+        <v>601</v>
       </c>
       <c r="CU1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="CV1" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:111" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -3963,7 +4021,7 @@
         <v>81</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>136</v>
@@ -4028,13 +4086,21 @@
       <c r="AC2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
+      <c r="AD2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="AF2" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
+        <v>289</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="AI2" s="16" t="s">
         <v>138</v>
       </c>
@@ -4104,7 +4170,7 @@
       <c r="CS2" s="16"/>
       <c r="CT2" s="16"/>
       <c r="CU2" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CV2" s="16"/>
     </row>
@@ -4131,79 +4197,79 @@
         <v>81</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF3" s="18" t="s">
         <v>289</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>287</v>
       </c>
       <c r="AG3" s="18" t="s">
         <v>136</v>
@@ -4396,10 +4462,10 @@
       <c r="CS3" s="18"/>
       <c r="CT3" s="18"/>
       <c r="CU3" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CV3" s="18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="CW3" s="19"/>
       <c r="CX3" s="19"/>
@@ -4436,79 +4502,79 @@
         <v>81</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF4" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="AG4" s="8" t="s">
         <v>136</v>
@@ -4701,10 +4767,10 @@
       <c r="CS4" s="8"/>
       <c r="CT4" s="8"/>
       <c r="CU4" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CV4" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="CW4" s="1"/>
       <c r="CX4" s="1"/>
@@ -4741,7 +4807,7 @@
         <v>81</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>136</v>
@@ -4762,7 +4828,7 @@
         <v>77</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>77</v>
@@ -4798,22 +4864,22 @@
         <v>77</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AC5" s="8" t="s">
         <v>136</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AE5" s="8" t="s">
         <v>136</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG5" s="8" t="s">
         <v>136</v>
@@ -4892,10 +4958,10 @@
       <c r="CS5" s="8"/>
       <c r="CT5" s="8"/>
       <c r="CU5" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CV5" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4919,7 +4985,7 @@
         <v>81</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>136</v>
@@ -4940,7 +5006,7 @@
         <v>77</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>77</v>
@@ -4976,22 +5042,22 @@
         <v>77</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AC6" s="8" t="s">
         <v>136</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AE6" s="8" t="s">
         <v>136</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG6" s="8" t="s">
         <v>136</v>
@@ -5070,15 +5136,15 @@
       <c r="CS6" s="8"/>
       <c r="CT6" s="8"/>
       <c r="CU6" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CV6" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -5095,7 +5161,7 @@
         <v>81</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>139</v>
@@ -5112,7 +5178,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>77</v>
@@ -5148,18 +5214,18 @@
         <v>77</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
@@ -5253,7 +5319,7 @@
         <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>136</v>
@@ -5274,7 +5340,7 @@
         <v>77</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>77</v>
@@ -5325,7 +5391,7 @@
         <v>136</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>136</v>
@@ -5349,182 +5415,92 @@
       <c r="AN8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AO8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
       <c r="AQ8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
       <c r="BB8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BC8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
       <c r="BE8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BF8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BM8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BX8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BY8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BZ8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CA8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CB8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CC8" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
       <c r="CD8" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="CE8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CF8" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="CF8" s="1"/>
       <c r="CG8" s="1" t="s">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CI8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CJ8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CK8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CL8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CM8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CN8" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
       <c r="CO8" s="1" t="s">
         <v>139</v>
       </c>
       <c r="CP8" s="1" t="s">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="CQ8" s="1" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="CR8" s="1" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="CS8" s="1" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="CT8" s="1" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="CU8" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CV8" s="8" t="s">
         <v>77</v>
@@ -5564,13 +5540,13 @@
         <v>77</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>77</v>
@@ -5585,7 +5561,7 @@
         <v>77</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>77</v>
@@ -5615,107 +5591,229 @@
         <v>77</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
+      <c r="AJ9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="BE9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="1"/>
-      <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
-      <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
-      <c r="CL9" s="1"/>
-      <c r="CM9" s="1"/>
-      <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
+      <c r="BF9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CF9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CG9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CI9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CM9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CN9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CO9" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="CP9" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="CQ9" s="1"/>
-      <c r="CR9" s="1"/>
-      <c r="CS9" s="1"/>
-      <c r="CT9" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="CQ9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CS9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CT9" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="CU9" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CV9" s="8" t="s">
         <v>77</v>
@@ -5755,7 +5853,7 @@
         <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>136</v>
@@ -5776,7 +5874,7 @@
         <v>77</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>77</v>
@@ -5812,20 +5910,20 @@
         <v>77</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>136</v>
@@ -5898,7 +5996,7 @@
       <c r="CS10" s="1"/>
       <c r="CT10" s="1"/>
       <c r="CU10" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="CV10" s="8" t="s">
         <v>77</v>
@@ -5964,8 +6062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5977,10 +6075,16 @@
     <col min="5" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="20.453125" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="20.453125" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="24.81640625" customWidth="1"/>
+    <col min="15" max="15" width="24.26953125" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="19.453125" customWidth="1"/>
+    <col min="18" max="18" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -5994,49 +6098,49 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>580</v>
+        <v>286</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>581</v>
+        <v>307</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>582</v>
+        <v>308</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>583</v>
+        <v>309</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>584</v>
+        <v>310</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>238</v>
+        <v>602</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>585</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>586</v>
+        <v>312</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -6047,30 +6151,22 @@
         <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
-        <v>308</v>
+      <c r="J2" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -6081,30 +6177,22 @@
         <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8" t="s">
-        <v>308</v>
+      <c r="J3" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -6118,13 +6206,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>138</v>
@@ -6135,16 +6223,8 @@
       <c r="I4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>308</v>
+      <c r="J4" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -6158,13 +6238,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>138</v>
@@ -6175,16 +6255,8 @@
       <c r="I5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>308</v>
+      <c r="J5" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -6198,13 +6270,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>138</v>
@@ -6215,16 +6287,8 @@
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>308</v>
+      <c r="J6" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -6238,13 +6302,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>138</v>
@@ -6255,16 +6319,8 @@
       <c r="I7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>308</v>
+      <c r="J7" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -6278,25 +6334,17 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8" t="s">
-        <v>308</v>
+      <c r="J8" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -6310,25 +6358,17 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8" t="s">
-        <v>308</v>
+      <c r="J9" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -6342,25 +6382,17 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8" t="s">
-        <v>308</v>
+      <c r="J10" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -6374,25 +6406,17 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E11" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8" t="s">
-        <v>308</v>
+      <c r="J11" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -6406,13 +6430,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E12" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>138</v>
@@ -6423,16 +6447,8 @@
       <c r="I12" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8" t="s">
-        <v>308</v>
+      <c r="J12" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -6446,13 +6462,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E13" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F13" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>138</v>
@@ -6463,16 +6479,8 @@
       <c r="I13" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8" t="s">
-        <v>308</v>
+      <c r="J13" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -6486,13 +6494,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F14" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>138</v>
@@ -6503,16 +6511,8 @@
       <c r="I14" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8" t="s">
-        <v>308</v>
+      <c r="J14" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -6526,13 +6526,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F15" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>138</v>
@@ -6543,16 +6543,8 @@
       <c r="I15" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8" t="s">
-        <v>308</v>
+      <c r="J15" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -6566,13 +6558,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>138</v>
@@ -6583,16 +6575,32 @@
       <c r="I16" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8" t="s">
-        <v>308</v>
+      <c r="J16" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>139</v>
+      </c>
+      <c r="R16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -6606,13 +6614,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>138</v>
@@ -6623,16 +6631,32 @@
       <c r="I17" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="R17" s="8" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -6646,13 +6670,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>138</v>
@@ -6663,16 +6687,8 @@
       <c r="I18" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8" t="s">
-        <v>308</v>
+      <c r="J18" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -6686,13 +6702,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>138</v>
@@ -6703,16 +6719,8 @@
       <c r="I19" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8" t="s">
-        <v>308</v>
+      <c r="J19" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -6726,13 +6734,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E20" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F20" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>138</v>
@@ -6743,16 +6751,8 @@
       <c r="I20" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8" t="s">
-        <v>308</v>
+      <c r="J20" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -6766,13 +6766,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F21" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>138</v>
@@ -6783,16 +6783,8 @@
       <c r="I21" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8" t="s">
-        <v>308</v>
+      <c r="J21" s="8" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6828,34 +6820,34 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E1" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="G1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="J1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="K1" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N1" t="s">
         <v>119</v>
@@ -6872,13 +6864,13 @@
         <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N2" t="s">
         <v>138</v>
@@ -6891,26 +6883,26 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6921,35 +6913,40 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="J1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+      <c r="K1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>138</v>
       </c>
@@ -6957,26 +6954,31 @@
         <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
         <v>138</v>
       </c>
@@ -6984,177 +6986,186 @@
         <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="I3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" t="s">
         <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" t="s">
         <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>328</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="I5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
       <c r="E6" t="s">
         <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
       <c r="E7" t="s">
         <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
       <c r="E8" t="s">
         <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="I8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>138</v>
-      </c>
       <c r="E9" t="s">
         <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -7162,26 +7173,27 @@
         <v>1</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" t="s">
         <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -7189,26 +7201,27 @@
         <v>1</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" t="s">
         <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -7216,26 +7229,27 @@
         <v>1</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" t="s">
-        <v>138</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" t="s">
         <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -7243,26 +7257,27 @@
         <v>1</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" t="s">
-        <v>138</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" t="s">
         <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -7272,29 +7287,30 @@
       <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>138</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" t="s">
         <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I14" t="s">
         <v>138</v>
       </c>
-      <c r="J14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -7304,26 +7320,27 @@
       <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" t="s">
         <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>328</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="I15" t="s">
         <v>138</v>
       </c>
-      <c r="J15" t="s">
-        <v>331</v>
+      <c r="J15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K15" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -7336,8 +7353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7356,7 +7373,7 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -7371,7 +7388,7 @@
         <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
@@ -7383,70 +7400,70 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="O1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="P1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="Q1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="R1" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="S1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="T1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="U1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="V1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="W1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X1" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="Y1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Z1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="AA1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="AB1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AE1" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="AF1" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="AG1" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AH1" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -7466,7 +7483,7 @@
         <v>71</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -7486,7 +7503,7 @@
         <v>71</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -7499,7 +7516,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>71</v>
@@ -7509,7 +7526,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -7528,7 +7545,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="AI4" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -7545,7 +7562,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>71</v>
@@ -7563,17 +7580,55 @@
         <v>138</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="L5" s="1">
         <v>97818</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AI6" s="3"/>
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L6" s="1">
+        <v>97818</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7616,82 +7671,82 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F1" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H1" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="I1" t="s">
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>162</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -7702,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -7713,10 +7768,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93F8614-3D70-45F1-B41B-FBBBCA255ACF}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7732,9 +7787,10 @@
     <col min="9" max="9" width="15.54296875" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7748,28 +7804,31 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="H1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="I1" t="s">
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="K1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+      <c r="L1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -7783,16 +7842,16 @@
         <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G2" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="I2" t="s">
         <v>138</v>
@@ -7801,10 +7860,10 @@
         <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -7814,10 +7873,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G3" t="s">
         <v>136</v>
@@ -7827,7 +7886,42 @@
       </c>
       <c r="I3" s="7"/>
       <c r="K3" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -7839,7 +7933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32A415-C322-4815-89FB-63D8464EFB59}">
   <dimension ref="A1:BF20"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BF1" sqref="BF1"/>
     </sheetView>
   </sheetViews>
@@ -8286,10 +8380,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E73BAA-EFCF-4B3C-AD92-E36A2F3DC9FA}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8329,49 +8423,49 @@
         <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F1" t="s">
         <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="S1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8383,15 +8477,15 @@
       </c>
       <c r="C2" s="5"/>
       <c r="E2" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="S2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8401,7 +8495,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="S3" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -8414,7 +8508,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8430,13 +8524,13 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8448,7 +8542,7 @@
         <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F5" t="s">
         <v>138</v>
@@ -8458,29 +8552,56 @@
       </c>
       <c r="H5" s="6"/>
       <c r="S5" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
       <c r="H6" s="6"/>
+      <c r="S6" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="H7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="H9" s="6"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="H11" s="6"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="H10" s="6"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8492,7 +8613,7 @@
   <dimension ref="A1:BJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8525,178 +8646,178 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E1" t="s">
         <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G1" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="H1" t="s">
         <v>119</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>160</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>162</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>160</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>160</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -8814,21 +8935,25 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BC25"/>
+  <dimension ref="A1:BN25"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="16" max="16" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.1796875" customWidth="1"/>
+    <col min="19" max="19" width="10.26953125" customWidth="1"/>
+    <col min="20" max="20" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8839,163 +8964,196 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>449</v>
+        <v>456</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>359</v>
+        <v>464</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>456</v>
+        <v>369</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>345</v>
+        <v>478</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>470</v>
+        <v>479</v>
+      </c>
+      <c r="AT1" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AU1" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="AW1" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="AX1" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="AY1" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="AZ1" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="BA1" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="BB1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="BC1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>487</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>488</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>489</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>490</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>491</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>492</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>494</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>495</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>496</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -9013,16 +9171,16 @@
         <v>136</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>114</v>
@@ -9031,13 +9189,13 @@
         <v>136</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>136</v>
@@ -9071,32 +9229,34 @@
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
-      <c r="AT2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AW2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="BB2" s="1"/>
       <c r="BC2" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -9116,16 +9276,16 @@
         <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>114</v>
@@ -9134,13 +9294,13 @@
         <v>136</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>136</v>
@@ -9176,32 +9336,34 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
-      <c r="AT3" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AW3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="BB3" s="1"/>
       <c r="BC3" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -9221,16 +9383,16 @@
         <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>114</v>
@@ -9239,13 +9401,13 @@
         <v>136</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>136</v>
@@ -9258,9 +9420,9 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="12"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
+      <c r="Y4" s="12"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -9281,32 +9443,34 @@
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
-      <c r="AT4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AW4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -9324,16 +9488,16 @@
         <v>136</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>114</v>
@@ -9342,26 +9506,26 @@
         <v>136</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="12"/>
+      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="12"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="11"/>
+      <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -9382,32 +9546,34 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
-      <c r="AT5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AW5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="BB5" s="1"/>
       <c r="BC5" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -9424,19 +9590,19 @@
         <v>138</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>498</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>479</v>
+        <v>294</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>114</v>
@@ -9445,64 +9611,163 @@
         <v>114</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>136</v>
+        <v>501</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AT6" s="1" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
+      <c r="BA6" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BC6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -9522,52 +9787,54 @@
         <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>138</v>
       </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="12"/>
+      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="12"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="11"/>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="Z7" s="11"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="AE7" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -9582,22 +9849,34 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
-      <c r="AT7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
+      <c r="AY7" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
+      <c r="BA7" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BC7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -9617,46 +9896,48 @@
         <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>480</v>
+        <v>341</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>114</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>138</v>
       </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="12"/>
+      <c r="S8" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="U8" s="12"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="11"/>
+      <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -9677,32 +9958,34 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
-      <c r="AT8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AW8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="BB8" s="1"/>
       <c r="BC8" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -9725,9 +10008,9 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="12"/>
+      <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
+      <c r="Y9" s="12"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -9749,17 +10032,19 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
-      <c r="AU9" s="12"/>
+      <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+      <c r="AW9" s="12"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -9782,9 +10067,9 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="12"/>
+      <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="12"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -9806,17 +10091,19 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
-      <c r="AU10" s="12"/>
+      <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="AW10" s="12"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -9839,9 +10126,9 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="11"/>
+      <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -9863,17 +10150,19 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
-      <c r="AU11" s="11"/>
+      <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="AW11" s="11"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9896,9 +10185,9 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="12"/>
+      <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="12"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -9920,17 +10209,19 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
-      <c r="AU12" s="12"/>
+      <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+      <c r="AW12" s="12"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -9953,9 +10244,9 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="12"/>
+      <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="12"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -9986,8 +10277,10 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10010,9 +10303,9 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -10043,8 +10336,10 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -10067,9 +10362,9 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="12"/>
+      <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="12"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -10100,8 +10395,10 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -10124,9 +10421,9 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="12"/>
+      <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="12"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -10157,8 +10454,10 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -10181,9 +10480,9 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -10214,8 +10513,10 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
-    </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -10238,9 +10539,9 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="12"/>
+      <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
+      <c r="Y18" s="12"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -10271,8 +10572,10 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -10295,9 +10598,9 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="12"/>
+      <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="Y19" s="12"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -10328,8 +10631,10 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -10352,9 +10657,9 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="11"/>
+      <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -10385,8 +10690,10 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -10409,9 +10716,9 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="12"/>
+      <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="12"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -10442,8 +10749,10 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
-    </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -10466,9 +10775,9 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="12"/>
+      <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="12"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -10499,8 +10808,10 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10523,9 +10834,9 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="12"/>
+      <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
+      <c r="Y23" s="12"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -10556,8 +10867,10 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10580,9 +10893,9 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="12"/>
+      <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="12"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -10613,8 +10926,10 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10637,9 +10952,9 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="12"/>
+      <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
+      <c r="Y25" s="12"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -10670,6 +10985,8 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10681,11 +10998,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
@@ -10695,32 +11012,33 @@
     <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="23" customWidth="1"/>
-    <col min="35" max="35" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.1796875" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.453125" customWidth="1"/>
     <col min="37" max="37" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10738,103 +11056,103 @@
         <v>117</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>119</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>450</v>
+        <v>441</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>507</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>359</v>
+        <v>464</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>487</v>
+        <v>369</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>361</v>
+        <v>508</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>456</v>
+        <v>371</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>366</v>
+        <v>470</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>195</v>
+        <v>376</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>367</v>
+        <v>196</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>588</v>
+        <v>394</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>589</v>
+        <v>355</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>347</v>
+        <v>604</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -10847,36 +11165,36 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
@@ -10892,16 +11210,12 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
-      <c r="AG2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.35">
@@ -10918,31 +11232,31 @@
         <v>138</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>114</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>136</v>
+        <v>502</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>138</v>
@@ -10950,69 +11264,71 @@
       <c r="O3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>490</v>
+      <c r="P3" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="AG3" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="AH3" s="7" t="s">
         <v>139</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>587</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.35">
@@ -11026,34 +11342,34 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>498</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>136</v>
+        <v>499</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>136</v>
+        <v>500</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>136</v>
+        <v>510</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>294</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>136</v>
+        <v>511</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>138</v>
@@ -11061,69 +11377,71 @@
       <c r="O4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>490</v>
+      <c r="P4" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AF4" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="AG4" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="AH4" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>288</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.35">
@@ -11140,101 +11458,99 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="12" t="s">
+        <v>512</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="AG5" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="AH5" s="1" t="s">
-        <v>136</v>
+        <v>512</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>490</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="AJ5" s="1"/>
       <c r="AK5" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.35">
@@ -11251,36 +11567,36 @@
         <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="5"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -11301,7 +11617,7 @@
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.35">
@@ -11318,31 +11634,31 @@
         <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>138</v>
@@ -11350,8 +11666,10 @@
       <c r="O7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="8"/>
+      <c r="P7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="6"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -11372,7 +11690,7 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.35">
@@ -11390,13 +11708,13 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="8"/>
+        <v>512</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -11434,8 +11752,8 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -11473,8 +11791,8 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -11512,8 +11830,8 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="6"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -11551,8 +11869,8 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="5"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -11590,8 +11908,8 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -11629,8 +11947,8 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
@@ -11668,8 +11986,8 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="5"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
@@ -11707,8 +12025,8 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="6"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
@@ -11746,8 +12064,8 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
@@ -11785,8 +12103,8 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
@@ -11824,8 +12142,8 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
@@ -11863,8 +12181,8 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
@@ -11896,8 +12214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11913,6 +12231,7 @@
     <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -11926,28 +12245,31 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="E1" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="F1" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="G1" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="H1" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="I1" t="s">
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -11967,7 +12289,7 @@
         <v>138</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>136</v>
@@ -11982,7 +12304,7 @@
         <v>138</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -12005,7 +12327,7 @@
         <v>138</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>136</v>
@@ -12020,7 +12342,7 @@
         <v>138</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -12041,7 +12363,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="G4" t="s">
         <v>136</v>
@@ -12062,10 +12384,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="G5" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>115</v>
@@ -12088,10 +12410,10 @@
         <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="G6" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>115</v>
@@ -12103,7 +12425,10 @@
         <v>138</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="L6" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -12148,49 +12473,49 @@
         <v>13</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -12241,7 +12566,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>138</v>
@@ -12291,7 +12616,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>138</v>
@@ -12323,7 +12648,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>138</v>
@@ -12392,58 +12717,58 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="E1" t="s">
         <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="G1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L1" t="s">
+        <v>546</v>
+      </c>
+      <c r="M1" t="s">
+        <v>547</v>
+      </c>
+      <c r="N1" t="s">
+        <v>548</v>
+      </c>
+      <c r="O1" t="s">
+        <v>549</v>
+      </c>
+      <c r="P1" t="s">
         <v>519</v>
       </c>
-      <c r="H1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J1" t="s">
-        <v>521</v>
-      </c>
-      <c r="K1" t="s">
-        <v>522</v>
-      </c>
-      <c r="L1" t="s">
-        <v>523</v>
-      </c>
-      <c r="M1" t="s">
-        <v>524</v>
-      </c>
-      <c r="N1" t="s">
-        <v>525</v>
-      </c>
-      <c r="O1" t="s">
-        <v>526</v>
-      </c>
-      <c r="P1" t="s">
-        <v>497</v>
-      </c>
       <c r="Q1" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="R1" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="S1" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="T1" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="U1" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -12491,10 +12816,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12512,9 +12837,10 @@
     <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12525,46 +12851,49 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="E1" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="F1" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="G1" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="H1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="I1" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="J1" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="K1" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="L1" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="M1" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="N1" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="O1" t="s">
         <v>162</v>
       </c>
       <c r="P1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>565</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -12614,7 +12943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12628,7 +12957,7 @@
         <v>138</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="G3" t="s">
         <v>77</v>
@@ -12661,7 +12990,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -12675,7 +13004,7 @@
         <v>138</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="G4" t="s">
         <v>77</v>
@@ -12708,7 +13037,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -12728,7 +13057,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -12739,16 +13068,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
         <v>138</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>543</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>139</v>
@@ -12777,8 +13103,11 @@
       <c r="P6" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -12853,22 +13182,22 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="E1" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="F1" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="G1" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="H1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="I1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -12897,7 +13226,7 @@
         <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -12930,55 +13259,55 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="E1" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="F1" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="G1" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="H1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I1" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="J1" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="K1" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="L1" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="M1" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="N1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="O1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="P1" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="Q1" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="R1" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="S1" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="T1" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -12995,7 +13324,7 @@
         <v>139</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>136</v>
@@ -13057,7 +13386,7 @@
         <v>139</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>136</v>
@@ -13235,10 +13564,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13261,7 +13590,7 @@
         <v>138</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -13278,7 +13607,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -13295,7 +13624,7 @@
         <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -13312,7 +13641,7 @@
         <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -13329,7 +13658,7 @@
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -13346,7 +13675,7 @@
         <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -13359,7 +13688,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13384,22 +13713,22 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -13494,7 +13823,7 @@
         <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>138</v>
@@ -13540,19 +13869,19 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E1" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="F1" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="G1" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="H1" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -13690,7 +14019,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13880,7 +14209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -14165,8 +14494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A98DFFD-1A2A-41CC-AFEE-7D055D33FA0E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14418,16 +14747,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -14644,6 +14963,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
@@ -14653,16 +14982,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14679,4 +14998,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\tes data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EA1DE0-8F65-480F-82BC-7ADBB2F940E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABF919E-0546-4197-8A20-B51A381FCED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="21" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="600">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1101,6 +1101,9 @@
     <t>Boardman</t>
   </si>
   <si>
+    <t>CALLBACK_DATE</t>
+  </si>
+  <si>
     <t>STAFF_PERSONS</t>
   </si>
   <si>
@@ -1785,12 +1788,6 @@
     <t>Folio</t>
   </si>
   <si>
-    <t>ERRDOC_BTN</t>
-  </si>
-  <si>
-    <t>Emergency Response Referral Document has been generated.</t>
-  </si>
-  <si>
     <t>SUBMIT_BTN</t>
   </si>
   <si>
@@ -1845,37 +1842,28 @@
     <t>SCP_ID4</t>
   </si>
   <si>
+    <t>METHOD_LIST</t>
+  </si>
+  <si>
     <t>ROLE_LIST</t>
   </si>
   <si>
     <t>Alleged Perpetrator,Alleged Victim,Collateral,Safety Surrendered Baby</t>
   </si>
   <si>
+    <t>CONTACT_PURPOSE_LIST</t>
+  </si>
+  <si>
     <t>E-mail,In-Person,Phone,Text,Video Chat,Written</t>
   </si>
   <si>
-    <t>Hotline Supervisor2 Contra Costa</t>
-  </si>
-  <si>
-    <t>Hotline Staff1 Contra Costa</t>
-  </si>
-  <si>
-    <t>CALLBACK_DATE_TIME</t>
-  </si>
-  <si>
-    <t>CONTACT_PURPOSE_PICKLIST</t>
-  </si>
-  <si>
-    <t>METHOD_PICKLIST</t>
-  </si>
-  <si>
-    <t>LOCATION_PICKLIST</t>
-  </si>
-  <si>
-    <t>Court,Other,Placement,Office</t>
-  </si>
-  <si>
-    <t>Consult with Staff Person</t>
+    <t>GENERATE_BTN</t>
+  </si>
+  <si>
+    <t>Emergency Response Referral (ERRD)</t>
+  </si>
+  <si>
+    <t>Success, Document was generated.Please Click on Documents tab to view your document.</t>
   </si>
 </sst>
 </file>
@@ -2825,7 +2813,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3215,7 +3203,7 @@
         <v>338</v>
       </c>
       <c r="CT1" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="CU1" s="8" t="s">
         <v>271</v>
@@ -5853,7 +5841,7 @@
         <v>295</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>225</v>
@@ -6871,7 +6859,7 @@
         <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L2" t="s">
         <v>594</v>
@@ -6909,7 +6897,7 @@
         <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -6944,7 +6932,7 @@
         <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -6979,7 +6967,7 @@
         <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -7014,7 +7002,7 @@
         <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L6" t="s">
         <v>594</v>
@@ -7052,7 +7040,7 @@
         <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -7087,7 +7075,7 @@
         <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -7122,7 +7110,7 @@
         <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -7417,7 +7405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7701,25 +7689,24 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
@@ -7732,83 +7719,83 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1" t="s">
         <v>350</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K1" t="s">
-        <v>107</v>
-      </c>
       <c r="L1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>340</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD1" s="6" t="s">
         <v>342</v>
@@ -7821,102 +7808,10 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G3" t="s">
-        <v>597</v>
-      </c>
-      <c r="H3" t="s">
-        <v>279</v>
-      </c>
-      <c r="I3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" t="s">
-        <v>483</v>
-      </c>
-      <c r="K3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" t="s">
-        <v>121</v>
-      </c>
-      <c r="V3" t="s">
-        <v>121</v>
-      </c>
-      <c r="W3" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>121</v>
-      </c>
+      <c r="E2" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7961,28 +7856,28 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K1" t="s">
         <v>271</v>
       </c>
       <c r="L1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -7999,10 +7894,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
         <v>326</v>
@@ -8030,10 +7925,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
         <v>121</v>
@@ -8060,10 +7955,10 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G4" t="s">
         <v>326</v>
@@ -8131,40 +8026,40 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F1" t="s">
         <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>340</v>
@@ -8185,7 +8080,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S2" t="s">
         <v>302</v>
@@ -8216,7 +8111,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8250,7 +8145,7 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F5" t="s">
         <v>123</v>
@@ -8277,7 +8172,7 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F6" t="s">
         <v>123</v>
@@ -8354,175 +8249,175 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1" t="s">
         <v>107</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF1" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="AG1" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="AH1" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="BH1" s="5" t="s">
         <v>340</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BJ1" s="6" t="s">
         <v>342</v>
@@ -8646,7 +8541,7 @@
   <dimension ref="A1:BN26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8672,130 +8567,130 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AT1" s="11" t="s">
         <v>340</v>
@@ -8807,58 +8702,58 @@
         <v>271</v>
       </c>
       <c r="AW1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AX1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AY1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AZ1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BA1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BB1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BC1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="BD1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="BE1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="BF1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="BG1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="BH1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="BI1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="BJ1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="BK1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="BL1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="BM1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="BN1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
@@ -8879,16 +8774,16 @@
         <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>102</v>
@@ -8897,13 +8792,13 @@
         <v>121</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>121</v>
@@ -8984,16 +8879,16 @@
         <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>102</v>
@@ -9002,13 +8897,13 @@
         <v>121</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>121</v>
@@ -9091,16 +8986,16 @@
         <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>102</v>
@@ -9109,13 +9004,13 @@
         <v>121</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>121</v>
@@ -9196,16 +9091,16 @@
         <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>102</v>
@@ -9214,13 +9109,13 @@
         <v>121</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>121</v>
@@ -9301,34 +9196,34 @@
         <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>596</v>
+        <v>102</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>123</v>
@@ -9495,34 +9390,34 @@
         <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>596</v>
+        <v>102</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>123</v>
@@ -9689,34 +9584,34 @@
         <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>102</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>123</v>
@@ -9798,10 +9693,10 @@
         <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>279</v>
@@ -9813,19 +9708,19 @@
         <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>123</v>
@@ -10997,8 +10892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11017,7 +10912,7 @@
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" customWidth="1"/>
     <col min="16" max="16" width="13.08984375" customWidth="1"/>
     <col min="17" max="17" width="10.453125" customWidth="1"/>
     <col min="18" max="18" width="20.1796875" bestFit="1" customWidth="1"/>
@@ -11058,100 +10953,100 @@
         <v>105</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>107</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>601</v>
+        <v>26</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>181</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>340</v>
@@ -11160,7 +11055,7 @@
         <v>342</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AN1" s="8" t="s">
         <v>271</v>
@@ -11176,19 +11071,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>102</v>
@@ -11197,10 +11092,10 @@
         <v>279</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -11245,43 +11140,41 @@
       <c r="D3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>603</v>
+      <c r="E3" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>596</v>
+        <v>102</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>123</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>602</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="7" t="s">
         <v>123</v>
       </c>
@@ -11365,32 +11258,32 @@
       <c r="D4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>603</v>
+      <c r="E4" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>596</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>123</v>
@@ -11465,7 +11358,7 @@
         <v>124</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
@@ -11481,32 +11374,32 @@
       <c r="D5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>603</v>
+      <c r="E5" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>596</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>123</v>
@@ -11597,32 +11490,32 @@
       <c r="D6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>603</v>
+      <c r="E6" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>596</v>
+        <v>102</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>123</v>
@@ -11697,7 +11590,7 @@
         <v>124</v>
       </c>
       <c r="AN6" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
@@ -11714,19 +11607,19 @@
         <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>102</v>
@@ -11735,77 +11628,77 @@
         <v>279</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM7" s="1"/>
       <c r="AN7" s="8" t="s">
@@ -11825,20 +11718,20 @@
       <c r="D8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>603</v>
+      <c r="E8" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>102</v>
@@ -11847,10 +11740,10 @@
         <v>279</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -11896,10 +11789,10 @@
         <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>78</v>
@@ -11917,10 +11810,10 @@
         <v>279</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>123</v>
@@ -11973,13 +11866,13 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="6"/>
@@ -12549,31 +12442,31 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>271</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -12593,7 +12486,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>121</v>
@@ -12631,7 +12524,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>121</v>
@@ -12667,7 +12560,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G4" t="s">
         <v>121</v>
@@ -12688,10 +12581,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>103</v>
@@ -12714,10 +12607,10 @@
         <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>103</v>
@@ -12744,8 +12637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12777,49 +12670,49 @@
         <v>10</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -12870,7 +12763,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>123</v>
@@ -12920,7 +12813,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>123</v>
@@ -12952,7 +12845,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>123</v>
@@ -13021,58 +12914,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="R1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="S1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="T1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="U1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -13155,46 +13048,46 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O1" t="s">
         <v>147</v>
       </c>
       <c r="P1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13261,7 +13154,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -13308,7 +13201,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -13408,7 +13301,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13458,7 +13351,7 @@
         <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13536,22 +13429,22 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -13580,7 +13473,7 @@
         <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -13613,55 +13506,55 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1" t="s">
         <v>189</v>
       </c>
       <c r="I1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="R1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="S1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="T1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -13678,7 +13571,7 @@
         <v>124</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>121</v>
@@ -13740,7 +13633,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>121</v>
@@ -13795,22 +13688,22 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13821,19 +13714,22 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E1" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -13846,11 +13742,14 @@
       <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -13863,11 +13762,14 @@
       <c r="D3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -13881,10 +13783,13 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -13894,14 +13799,17 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -13911,14 +13819,17 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
@@ -13928,14 +13839,17 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -13945,11 +13859,14 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>574</v>
+        <v>598</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -13987,22 +13904,22 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -14143,19 +14060,19 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" t="s">
         <v>580</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>581</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>582</v>
-      </c>
-      <c r="H1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -15680,6 +15597,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -15896,26 +15832,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15932,22 +15867,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABF919E-0546-4197-8A20-B51A381FCED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F02D809-18A3-4990-8D4E-DAECB24444A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="21" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="23" activeTab="26" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="609">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1101,9 +1101,6 @@
     <t>Boardman</t>
   </si>
   <si>
-    <t>CALLBACK_DATE</t>
-  </si>
-  <si>
     <t>STAFF_PERSONS</t>
   </si>
   <si>
@@ -1620,9 +1617,6 @@
     <t>UPLOAD NEW VERSION</t>
   </si>
   <si>
-    <t>UPLOAD</t>
-  </si>
-  <si>
     <t>DOCUMENT_CATEGORY</t>
   </si>
   <si>
@@ -1842,19 +1836,59 @@
     <t>SCP_ID4</t>
   </si>
   <si>
-    <t>METHOD_LIST</t>
-  </si>
-  <si>
     <t>ROLE_LIST</t>
   </si>
   <si>
     <t>Alleged Perpetrator,Alleged Victim,Collateral,Safety Surrendered Baby</t>
   </si>
   <si>
-    <t>CONTACT_PURPOSE_LIST</t>
-  </si>
-  <si>
     <t>E-mail,In-Person,Phone,Text,Video Chat,Written</t>
+  </si>
+  <si>
+    <t>Hotline Supervisor2 Contra Costa</t>
+  </si>
+  <si>
+    <t>Hotline Staff1 Contra Costa</t>
+  </si>
+  <si>
+    <t>CALLBACK_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONTACT_PURPOSE_PICKLIST</t>
+  </si>
+  <si>
+    <t>METHOD_PICKLIST</t>
+  </si>
+  <si>
+    <t>LOCATION_PICKLIST</t>
+  </si>
+  <si>
+    <t>Court,Other,Placement,Office</t>
+  </si>
+  <si>
+    <t>Consult with Attorney</t>
+  </si>
+  <si>
+    <t>Potential Interview Questions for a Tribal Inquiry:
+(1) Is the child a member or citizen of one or more federally recognized Indian tribes or Alaska Native villages? If yes, then which tribe or tribes may the child be a member/citizen of?
+(2) Is either biological parent of the child a member of one or more federally recognized tribes? If yes, then which tribe or tribes?
+(3) Is the domicile or residence of the child, the child’s parent, or the child’s Indian custodian on a reservation or in an Alaska Native village?
+(4) Does the child’s biological family identify as having ancestry or heritage with one or more federally recognized Indian tribes or Alaska Native villages?
+(5) Does the child, or any of the child’s relatives, receive services or benefits from a tribe or tribes? If yes, which tribe or tribes?
+(6) Does the child or any of the child’s relatives receive services or benefits available to Indians from the federal government?
+(7) Is there any family member or close friend who may have information about the child’s status as an Indian child? If so, to the extent possible, get the names and contact information for that person or persons and interview them as well.</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>SCAR</t>
+  </si>
+  <si>
+    <t>In Draft</t>
+  </si>
+  <si>
+    <t>UPLOAD_BTN</t>
   </si>
   <si>
     <t>GENERATE_BTN</t>
@@ -2013,7 +2047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2045,6 +2079,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2813,7 +2850,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3203,7 +3240,7 @@
         <v>338</v>
       </c>
       <c r="CT1" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="CU1" s="8" t="s">
         <v>271</v>
@@ -4188,7 +4225,9 @@
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>68</v>
       </c>
@@ -4198,8 +4237,8 @@
       <c r="G6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>278</v>
+      <c r="H6" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>121</v>
@@ -5772,8 +5811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="N11" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5841,7 +5880,7 @@
         <v>295</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>225</v>
@@ -6771,8 +6810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6824,7 +6863,7 @@
         <v>320</v>
       </c>
       <c r="L1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -6859,10 +6898,10 @@
         <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -6897,7 +6936,7 @@
         <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -6932,7 +6971,7 @@
         <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -6967,7 +7006,7 @@
         <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -7002,10 +7041,10 @@
         <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -7040,7 +7079,7 @@
         <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -7075,7 +7114,7 @@
         <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -7110,7 +7149,7 @@
         <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -7138,6 +7177,12 @@
       <c r="J10" t="s">
         <v>123</v>
       </c>
+      <c r="K10" t="s">
+        <v>586</v>
+      </c>
+      <c r="L10" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -7164,6 +7209,9 @@
       <c r="J11" t="s">
         <v>123</v>
       </c>
+      <c r="K11" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -7190,6 +7238,9 @@
       <c r="J12" t="s">
         <v>123</v>
       </c>
+      <c r="K12" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -7215,6 +7266,9 @@
       </c>
       <c r="J13" t="s">
         <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -7405,7 +7459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7689,24 +7743,25 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
@@ -7719,83 +7774,83 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" t="s">
         <v>345</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>346</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>347</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>349</v>
       </c>
-      <c r="K1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>340</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AD1" s="6" t="s">
         <v>342</v>
@@ -7808,10 +7863,102 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" t="s">
+        <v>121</v>
+      </c>
+      <c r="V3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W3" t="s">
+        <v>121</v>
+      </c>
+      <c r="X3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7856,28 +8003,28 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" t="s">
         <v>367</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>368</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>369</v>
-      </c>
-      <c r="H1" t="s">
-        <v>370</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K1" t="s">
         <v>271</v>
       </c>
       <c r="L1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -7894,10 +8041,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" t="s">
         <v>373</v>
-      </c>
-      <c r="F2" t="s">
-        <v>374</v>
       </c>
       <c r="G2" t="s">
         <v>326</v>
@@ -7925,10 +8072,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" t="s">
         <v>373</v>
-      </c>
-      <c r="F3" t="s">
-        <v>374</v>
       </c>
       <c r="G3" t="s">
         <v>121</v>
@@ -7955,10 +8102,10 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" t="s">
         <v>373</v>
-      </c>
-      <c r="F4" t="s">
-        <v>374</v>
       </c>
       <c r="G4" t="s">
         <v>326</v>
@@ -8026,40 +8173,40 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
         <v>107</v>
       </c>
       <c r="G1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>340</v>
@@ -8080,7 +8227,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S2" t="s">
         <v>302</v>
@@ -8111,7 +8258,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8145,7 +8292,7 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F5" t="s">
         <v>123</v>
@@ -8172,7 +8319,7 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F6" t="s">
         <v>123</v>
@@ -8249,175 +8396,175 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1" t="s">
         <v>107</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH1" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="BH1" s="5" t="s">
         <v>340</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BJ1" s="6" t="s">
         <v>342</v>
@@ -8540,8 +8687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8567,130 +8714,130 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="AE1" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>464</v>
       </c>
       <c r="AT1" s="11" t="s">
         <v>340</v>
@@ -8702,58 +8849,58 @@
         <v>271</v>
       </c>
       <c r="AW1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AX1" t="s">
         <v>465</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>466</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>467</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>468</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>469</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>470</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>471</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>472</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>473</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>474</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>475</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>476</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>477</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>478</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>479</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>480</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>481</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
@@ -8774,16 +8921,16 @@
         <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>102</v>
@@ -8792,13 +8939,13 @@
         <v>121</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>121</v>
@@ -8879,16 +9026,16 @@
         <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>102</v>
@@ -8897,36 +9044,68 @@
         <v>121</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="P3" s="1" t="s">
         <v>121</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
+      <c r="R3" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
@@ -8986,16 +9165,16 @@
         <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>102</v>
@@ -9004,13 +9183,13 @@
         <v>121</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>121</v>
@@ -9091,16 +9270,16 @@
         <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>102</v>
@@ -9109,13 +9288,13 @@
         <v>121</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>121</v>
@@ -9196,39 +9375,41 @@
         <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>488</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R6" s="1"/>
+      <c r="R6" s="29" t="s">
+        <v>601</v>
+      </c>
       <c r="S6" s="1" t="s">
         <v>124</v>
       </c>
@@ -9390,34 +9571,34 @@
         <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>488</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>123</v>
@@ -9584,34 +9765,34 @@
         <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>102</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>123</v>
@@ -9693,10 +9874,10 @@
         <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>279</v>
@@ -9708,19 +9889,19 @@
         <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>123</v>
@@ -10892,8 +11073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10912,7 +11093,7 @@
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" customWidth="1"/>
     <col min="16" max="16" width="13.08984375" customWidth="1"/>
     <col min="17" max="17" width="10.453125" customWidth="1"/>
     <col min="18" max="18" width="20.1796875" bestFit="1" customWidth="1"/>
@@ -10953,100 +11134,100 @@
         <v>105</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>430</v>
-      </c>
       <c r="G1" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>433</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>107</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>26</v>
+        <v>598</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S1" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="AE1" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>181</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="AJ1" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>340</v>
@@ -11055,7 +11236,7 @@
         <v>342</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AN1" s="8" t="s">
         <v>271</v>
@@ -11071,19 +11252,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>484</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>102</v>
@@ -11092,10 +11273,10 @@
         <v>279</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -11140,41 +11321,43 @@
       <c r="D3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>102</v>
+        <v>593</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>123</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q3" s="7"/>
+        <v>592</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>599</v>
+      </c>
       <c r="R3" s="7" t="s">
         <v>123</v>
       </c>
@@ -11258,32 +11441,32 @@
       <c r="D4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>102</v>
+        <v>593</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>123</v>
@@ -11358,7 +11541,7 @@
         <v>124</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
@@ -11374,32 +11557,32 @@
       <c r="D5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>593</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>123</v>
@@ -11490,32 +11673,32 @@
       <c r="D6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>102</v>
+        <v>593</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>123</v>
@@ -11590,7 +11773,7 @@
         <v>124</v>
       </c>
       <c r="AN6" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
@@ -11607,19 +11790,19 @@
         <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>102</v>
@@ -11628,77 +11811,77 @@
         <v>279</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AM7" s="1"/>
       <c r="AN7" s="8" t="s">
@@ -11719,58 +11902,108 @@
         <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>102</v>
+        <v>494</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>593</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>279</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="N8" s="8"/>
+        <v>495</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
+      <c r="P8" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="AN8" s="8" t="s">
         <v>275</v>
       </c>
@@ -11789,10 +12022,10 @@
         <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>78</v>
@@ -11810,10 +12043,10 @@
         <v>279</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>123</v>
@@ -11866,13 +12099,13 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="6"/>
@@ -12411,8 +12644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12442,31 +12675,31 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" t="s">
         <v>500</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>501</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>502</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>503</v>
-      </c>
-      <c r="H1" t="s">
-        <v>504</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>271</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -12486,7 +12719,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>121</v>
@@ -12524,7 +12757,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>121</v>
@@ -12555,18 +12788,29 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="F4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G4" t="s">
         <v>121</v>
       </c>
       <c r="H4" t="s">
         <v>121</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -12581,10 +12825,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
+        <v>506</v>
+      </c>
+      <c r="G5" t="s">
         <v>507</v>
-      </c>
-      <c r="G5" t="s">
-        <v>508</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>103</v>
@@ -12607,10 +12851,10 @@
         <v>123</v>
       </c>
       <c r="F6" t="s">
+        <v>506</v>
+      </c>
+      <c r="G6" t="s">
         <v>507</v>
-      </c>
-      <c r="G6" t="s">
-        <v>508</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>103</v>
@@ -12635,10 +12879,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12659,7 +12903,7 @@
     <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12670,52 +12914,55 @@
         <v>10</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
@@ -12748,8 +12995,11 @@
       <c r="R2" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -12763,7 +13013,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>123</v>
@@ -12789,17 +13039,26 @@
       <c r="M3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13" t="s">
+      <c r="N3" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>68</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12813,7 +13072,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>123</v>
@@ -12831,7 +13090,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12845,7 +13104,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>123</v>
@@ -12863,7 +13122,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -12881,6 +13140,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12914,58 +13174,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H1" t="s">
         <v>526</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" t="s">
         <v>527</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>528</v>
       </c>
-      <c r="I1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>529</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>530</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>531</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>532</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q1" t="s">
         <v>533</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>534</v>
       </c>
-      <c r="P1" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>535</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>536</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>537</v>
-      </c>
-      <c r="T1" t="s">
-        <v>538</v>
-      </c>
-      <c r="U1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -13048,46 +13308,46 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" t="s">
         <v>540</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>541</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I1" t="s">
         <v>542</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>543</v>
       </c>
-      <c r="H1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>544</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>545</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>546</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>547</v>
-      </c>
-      <c r="M1" t="s">
-        <v>548</v>
-      </c>
-      <c r="N1" t="s">
-        <v>549</v>
       </c>
       <c r="O1" t="s">
         <v>147</v>
       </c>
       <c r="P1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Q1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13154,7 +13414,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -13201,7 +13461,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -13301,7 +13561,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13351,7 +13611,7 @@
         <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13429,22 +13689,22 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G1" t="s">
         <v>553</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>554</v>
       </c>
-      <c r="G1" t="s">
-        <v>555</v>
-      </c>
-      <c r="H1" t="s">
-        <v>556</v>
-      </c>
       <c r="I1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -13473,7 +13733,7 @@
         <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -13506,55 +13766,55 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" t="s">
         <v>558</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>559</v>
-      </c>
-      <c r="F1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G1" t="s">
-        <v>561</v>
       </c>
       <c r="H1" t="s">
         <v>189</v>
       </c>
       <c r="I1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K1" t="s">
         <v>562</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>563</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>564</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P1" t="s">
         <v>565</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>566</v>
       </c>
-      <c r="N1" t="s">
-        <v>367</v>
-      </c>
-      <c r="O1" t="s">
-        <v>368</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>567</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>568</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>569</v>
-      </c>
-      <c r="S1" t="s">
-        <v>570</v>
-      </c>
-      <c r="T1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -13571,7 +13831,7 @@
         <v>124</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>121</v>
@@ -13633,7 +13893,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>121</v>
@@ -13688,23 +13948,23 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -13714,23 +13974,23 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="E1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>271</v>
       </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -13743,14 +14003,14 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -13763,13 +14023,13 @@
         <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -13783,90 +14043,90 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -13904,22 +14164,22 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -14060,19 +14320,19 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G1" t="s">
         <v>579</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>580</v>
-      </c>
-      <c r="G1" t="s">
-        <v>581</v>
-      </c>
-      <c r="H1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -15029,7 +15289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -15597,15 +15857,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -15613,6 +15864,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15833,19 +16093,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata4thdec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F02D809-18A3-4990-8D4E-DAECB24444A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F41672-0C38-4A57-957F-5A616FD42BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="23" activeTab="26" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="20" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="603">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1101,6 +1101,9 @@
     <t>Boardman</t>
   </si>
   <si>
+    <t>CALLBACK_DATE</t>
+  </si>
+  <si>
     <t>STAFF_PERSONS</t>
   </si>
   <si>
@@ -1611,10 +1614,7 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>UPDATE STATUS</t>
-  </si>
-  <si>
-    <t>UPLOAD NEW VERSION</t>
+    <t>UPLOAD</t>
   </si>
   <si>
     <t>DOCUMENT_CATEGORY</t>
@@ -1836,68 +1836,43 @@
     <t>SCP_ID4</t>
   </si>
   <si>
+    <t>METHOD_LIST</t>
+  </si>
+  <si>
     <t>ROLE_LIST</t>
   </si>
   <si>
     <t>Alleged Perpetrator,Alleged Victim,Collateral,Safety Surrendered Baby</t>
   </si>
   <si>
+    <t>CONTACT_PURPOSE_LIST</t>
+  </si>
+  <si>
     <t>E-mail,In-Person,Phone,Text,Video Chat,Written</t>
   </si>
   <si>
-    <t>Hotline Supervisor2 Contra Costa</t>
-  </si>
-  <si>
-    <t>Hotline Staff1 Contra Costa</t>
-  </si>
-  <si>
-    <t>CALLBACK_DATE_TIME</t>
-  </si>
-  <si>
-    <t>CONTACT_PURPOSE_PICKLIST</t>
-  </si>
-  <si>
-    <t>METHOD_PICKLIST</t>
-  </si>
-  <si>
-    <t>LOCATION_PICKLIST</t>
-  </si>
-  <si>
-    <t>Court,Other,Placement,Office</t>
-  </si>
-  <si>
-    <t>Consult with Attorney</t>
-  </si>
-  <si>
-    <t>Potential Interview Questions for a Tribal Inquiry:
-(1) Is the child a member or citizen of one or more federally recognized Indian tribes or Alaska Native villages? If yes, then which tribe or tribes may the child be a member/citizen of?
-(2) Is either biological parent of the child a member of one or more federally recognized tribes? If yes, then which tribe or tribes?
-(3) Is the domicile or residence of the child, the child’s parent, or the child’s Indian custodian on a reservation or in an Alaska Native village?
-(4) Does the child’s biological family identify as having ancestry or heritage with one or more federally recognized Indian tribes or Alaska Native villages?
-(5) Does the child, or any of the child’s relatives, receive services or benefits from a tribe or tribes? If yes, which tribe or tribes?
-(6) Does the child or any of the child’s relatives receive services or benefits available to Indians from the federal government?
-(7) Is there any family member or close friend who may have information about the child’s status as an Indian child? If so, to the extent possible, get the names and contact information for that person or persons and interview them as well.</t>
-  </si>
-  <si>
-    <t>NEW</t>
+    <t>GENERATE_BTN</t>
+  </si>
+  <si>
+    <t>Emergency Response Referral (ERRD)</t>
   </si>
   <si>
     <t>SCAR</t>
   </si>
   <si>
-    <t>In Draft</t>
-  </si>
-  <si>
-    <t>UPLOAD_BTN</t>
-  </si>
-  <si>
-    <t>GENERATE_BTN</t>
-  </si>
-  <si>
-    <t>Emergency Response Referral (ERRD)</t>
-  </si>
-  <si>
-    <t>Success, Document was generated.Please Click on Documents tab to view your document.</t>
+    <t>UPLOAD_PATH</t>
+  </si>
+  <si>
+    <t>Success, Document was generated. Please Click on Documents tab to view your document.</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2079,9 +2054,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2850,7 +2822,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4225,9 +4197,7 @@
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
         <v>68</v>
       </c>
@@ -4237,8 +4207,8 @@
       <c r="G6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>284</v>
+      <c r="H6" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>121</v>
@@ -5811,8 +5781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="N11" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6810,8 +6780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6863,7 +6833,7 @@
         <v>320</v>
       </c>
       <c r="L1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -6901,7 +6871,7 @@
         <v>586</v>
       </c>
       <c r="L2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -7044,7 +7014,7 @@
         <v>586</v>
       </c>
       <c r="L6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -7177,12 +7147,6 @@
       <c r="J10" t="s">
         <v>123</v>
       </c>
-      <c r="K10" t="s">
-        <v>586</v>
-      </c>
-      <c r="L10" t="s">
-        <v>591</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -7209,9 +7173,6 @@
       <c r="J11" t="s">
         <v>123</v>
       </c>
-      <c r="K11" t="s">
-        <v>587</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -7238,9 +7199,6 @@
       <c r="J12" t="s">
         <v>123</v>
       </c>
-      <c r="K12" t="s">
-        <v>588</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -7266,9 +7224,6 @@
       </c>
       <c r="J13" t="s">
         <v>123</v>
-      </c>
-      <c r="K13" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -7459,7 +7414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7743,25 +7698,24 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
@@ -7774,83 +7728,83 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1" t="s">
         <v>350</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K1" t="s">
-        <v>107</v>
-      </c>
       <c r="L1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>340</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD1" s="6" t="s">
         <v>342</v>
@@ -7863,102 +7817,10 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G3" t="s">
-        <v>594</v>
-      </c>
-      <c r="H3" t="s">
-        <v>279</v>
-      </c>
-      <c r="I3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" t="s">
-        <v>483</v>
-      </c>
-      <c r="K3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" t="s">
-        <v>121</v>
-      </c>
-      <c r="V3" t="s">
-        <v>121</v>
-      </c>
-      <c r="W3" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>121</v>
-      </c>
+      <c r="E2" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8003,28 +7865,28 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K1" t="s">
         <v>271</v>
       </c>
       <c r="L1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -8041,10 +7903,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
         <v>326</v>
@@ -8072,10 +7934,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
         <v>121</v>
@@ -8102,10 +7964,10 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G4" t="s">
         <v>326</v>
@@ -8173,40 +8035,40 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F1" t="s">
         <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>340</v>
@@ -8227,7 +8089,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S2" t="s">
         <v>302</v>
@@ -8258,7 +8120,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8292,7 +8154,7 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F5" t="s">
         <v>123</v>
@@ -8319,7 +8181,7 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F6" t="s">
         <v>123</v>
@@ -8396,175 +8258,175 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1" t="s">
         <v>107</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF1" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="AG1" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="AH1" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="BH1" s="5" t="s">
         <v>340</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BJ1" s="6" t="s">
         <v>342</v>
@@ -8687,8 +8549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8714,130 +8576,130 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AT1" s="11" t="s">
         <v>340</v>
@@ -8849,58 +8711,58 @@
         <v>271</v>
       </c>
       <c r="AW1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AX1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AY1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AZ1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BA1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BB1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BC1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="BD1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="BE1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="BF1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="BG1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="BH1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="BI1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="BJ1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="BK1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="BL1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="BM1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="BN1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
@@ -8921,16 +8783,16 @@
         <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>102</v>
@@ -8939,13 +8801,13 @@
         <v>121</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>121</v>
@@ -9026,16 +8888,16 @@
         <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>102</v>
@@ -9044,13 +8906,13 @@
         <v>121</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>121</v>
@@ -9058,54 +8920,22 @@
       <c r="Q3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="29" t="s">
-        <v>601</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
@@ -9165,16 +8995,16 @@
         <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>102</v>
@@ -9183,13 +9013,13 @@
         <v>121</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>121</v>
@@ -9270,16 +9100,16 @@
         <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>102</v>
@@ -9288,13 +9118,13 @@
         <v>121</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>121</v>
@@ -9375,41 +9205,39 @@
         <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>593</v>
+        <v>102</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>121</v>
+        <v>488</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R6" s="29" t="s">
-        <v>601</v>
-      </c>
+      <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
         <v>124</v>
       </c>
@@ -9571,34 +9399,34 @@
         <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>593</v>
+        <v>102</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>121</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>123</v>
@@ -9765,34 +9593,34 @@
         <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>279</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>102</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>123</v>
@@ -9874,10 +9702,10 @@
         <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>279</v>
@@ -9889,19 +9717,19 @@
         <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>123</v>
@@ -11073,8 +10901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11093,7 +10921,7 @@
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" customWidth="1"/>
     <col min="16" max="16" width="13.08984375" customWidth="1"/>
     <col min="17" max="17" width="10.453125" customWidth="1"/>
     <col min="18" max="18" width="20.1796875" bestFit="1" customWidth="1"/>
@@ -11134,100 +10962,100 @@
         <v>105</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>107</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>598</v>
+        <v>26</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>181</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>340</v>
@@ -11252,19 +11080,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>102</v>
@@ -11273,10 +11101,10 @@
         <v>279</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -11321,43 +11149,41 @@
       <c r="D3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>600</v>
+      <c r="E3" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>593</v>
+        <v>102</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>123</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>599</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="7" t="s">
         <v>123</v>
       </c>
@@ -11441,32 +11267,32 @@
       <c r="D4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>600</v>
+      <c r="E4" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>593</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>123</v>
@@ -11557,32 +11383,32 @@
       <c r="D5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>600</v>
+      <c r="E5" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>593</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>123</v>
@@ -11673,32 +11499,32 @@
       <c r="D6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>600</v>
+      <c r="E6" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>593</v>
+        <v>102</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>279</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>123</v>
@@ -11790,19 +11616,19 @@
         <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>102</v>
@@ -11811,77 +11637,77 @@
         <v>279</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM7" s="1"/>
       <c r="AN7" s="8" t="s">
@@ -11902,108 +11728,58 @@
         <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>600</v>
+        <v>483</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>593</v>
+        <v>495</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>279</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM8" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
       <c r="AN8" s="8" t="s">
         <v>275</v>
       </c>
@@ -12022,10 +11798,10 @@
         <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>78</v>
@@ -12043,10 +11819,10 @@
         <v>279</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>123</v>
@@ -12099,13 +11875,13 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="6"/>
@@ -12644,8 +12420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12675,31 +12451,31 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>271</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -12719,7 +12495,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>121</v>
@@ -12757,7 +12533,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>121</v>
@@ -12788,29 +12564,18 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>123</v>
-      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G4" t="s">
         <v>121</v>
       </c>
       <c r="H4" t="s">
         <v>121</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -12825,10 +12590,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>103</v>
@@ -12851,10 +12616,10 @@
         <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>103</v>
@@ -12879,10 +12644,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:S3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12903,7 +12668,7 @@
     <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12914,34 +12679,34 @@
         <v>10</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>517</v>
@@ -12959,10 +12724,19 @@
         <v>521</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
@@ -12995,11 +12769,9 @@
       <c r="R2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="S2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -13039,26 +12811,32 @@
       <c r="M3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="N3" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>68</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>123</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13090,7 +12868,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13122,7 +12900,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -13189,7 +12967,7 @@
         <v>526</v>
       </c>
       <c r="I1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J1" t="s">
         <v>527</v>
@@ -13210,7 +12988,7 @@
         <v>532</v>
       </c>
       <c r="P1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q1" t="s">
         <v>533</v>
@@ -13320,7 +13098,7 @@
         <v>541</v>
       </c>
       <c r="H1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I1" t="s">
         <v>542</v>
@@ -13704,7 +13482,7 @@
         <v>554</v>
       </c>
       <c r="I1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -13796,10 +13574,10 @@
         <v>564</v>
       </c>
       <c r="N1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P1" t="s">
         <v>565</v>
@@ -13948,23 +13726,23 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -13974,7 +13752,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="E1" t="s">
         <v>518</v>
@@ -13982,15 +13760,15 @@
       <c r="F1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -14003,14 +13781,14 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -14023,13 +13801,13 @@
         <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -14043,90 +13821,90 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -14164,7 +13942,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>572</v>
@@ -14320,7 +14098,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E1" t="s">
         <v>577</v>
@@ -14660,7 +14438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A98DFFD-1A2A-41CC-AFEE-7D055D33FA0E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -15289,7 +15067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -15857,16 +15635,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -15875,7 +15643,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16092,17 +15860,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -16110,7 +15878,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16127,4 +15895,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata4thdec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F41672-0C38-4A57-957F-5A616FD42BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C555E-3785-4186-971D-DB4087C029D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="20" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="605">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1873,6 +1873,12 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS_UPDATE</t>
+  </si>
+  <si>
+    <t>In draft</t>
   </si>
 </sst>
 </file>
@@ -12644,10 +12650,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12665,10 +12671,11 @@
     <col min="14" max="14" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12718,25 +12725,28 @@
         <v>519</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
@@ -12763,15 +12773,16 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
@@ -12818,25 +12829,28 @@
         <v>597</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="S3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V3" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W3" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12868,7 +12882,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12900,7 +12914,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata4thdec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C555E-3785-4186-971D-DB4087C029D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9CDFA0-77E3-46E9-B836-D6806D41E0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="20" activeTab="21" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="640">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1614,9 +1614,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>UPLOAD</t>
-  </si>
-  <si>
     <t>DOCUMENT_CATEGORY</t>
   </si>
   <si>
@@ -1821,9 +1818,6 @@
     <t>DOCUMENT_SUBTAB_VERIFY</t>
   </si>
   <si>
-    <t>County Assigned to Screening</t>
-  </si>
-  <si>
     <t>SCP_ID1</t>
   </si>
   <si>
@@ -1836,18 +1830,12 @@
     <t>SCP_ID4</t>
   </si>
   <si>
-    <t>METHOD_LIST</t>
-  </si>
-  <si>
     <t>ROLE_LIST</t>
   </si>
   <si>
     <t>Alleged Perpetrator,Alleged Victim,Collateral,Safety Surrendered Baby</t>
   </si>
   <si>
-    <t>CONTACT_PURPOSE_LIST</t>
-  </si>
-  <si>
     <t>E-mail,In-Person,Phone,Text,Video Chat,Written</t>
   </si>
   <si>
@@ -1879,6 +1867,130 @@
   </si>
   <si>
     <t>In draft</t>
+  </si>
+  <si>
+    <t>Current Task Assignments</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Related To</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Service Type Name</t>
+  </si>
+  <si>
+    <t>Service Type Description</t>
+  </si>
+  <si>
+    <t>Service Category</t>
+  </si>
+  <si>
+    <t>Last Modified Date</t>
+  </si>
+  <si>
+    <t>New Providers created in past 120 days</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>FOCUSED_SEARCH_TAB</t>
+  </si>
+  <si>
+    <t>Service Types</t>
+  </si>
+  <si>
+    <t>CONTACT_TOPIC</t>
+  </si>
+  <si>
+    <t>SCHEDULED_NEXT_IN_PERSON_CONTACT_VISIT</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>CONTACT_PURPOSE_PICKLIST</t>
+  </si>
+  <si>
+    <t>METHOD_PICKLIST</t>
+  </si>
+  <si>
+    <t>LOCATION_PICKLIST</t>
+  </si>
+  <si>
+    <t>Consult with Tribe</t>
+  </si>
+  <si>
+    <t>Hotline Supervisor2 Contra Costa</t>
+  </si>
+  <si>
+    <t>Court,Other,Placement,Office</t>
+  </si>
+  <si>
+    <t>Potential Interview Questions for a Tribal Inquiry:
+(1) Is the child a member or citizen of one or more federally recognized Indian tribes or Alaska Native villages? If yes, then which tribe or tribes may the child be a member/citizen of?
+(2) Is either biological parent of the child a member of one or more federally recognized tribes? If yes, then which tribe or tribes?
+(3) Is the domicile or residence of the child, the child’s parent, or the child’s Indian custodian on a reservation or in an Alaska Native village?
+(4) Does the child’s biological family identify as having ancestry or heritage with one or more federally recognized Indian tribes or Alaska Native villages?
+(5) Does the child, or any of the child’s relatives, receive services or benefits from a tribe or tribes? If yes, which tribe or tribes?
+(6) Does the child or any of the child’s relatives receive services or benefits available to Indians from the federal government?
+(7) Is there any family member or close friend who may have information about the child’s status as an Indian child? If so, to the extent possible, get the names and contact information for that person or persons and interview them as well.</t>
+  </si>
+  <si>
+    <t>Hotline Staff1 Contra Costa</t>
+  </si>
+  <si>
+    <t>Contra Costa</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>SCR_TRIBAL_ID</t>
+  </si>
+  <si>
+    <t>SCR_TRIBAL_ID1</t>
+  </si>
+  <si>
+    <t>Recalled</t>
+  </si>
+  <si>
+    <t>Verbal</t>
+  </si>
+  <si>
+    <t>3-day</t>
+  </si>
+  <si>
+    <t>COMMENTS_RECALL</t>
+  </si>
+  <si>
+    <t>RECALL_BUTTON</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>SCR_ID</t>
+  </si>
+  <si>
+    <t>SCR_ID2</t>
+  </si>
+  <si>
+    <t>SCR_ID1</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +2098,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1996,6 +2108,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2028,7 +2152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2041,7 +2165,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2050,8 +2173,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2060,6 +2181,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2393,169 +2536,169 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AI1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AM1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AN1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AO1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AP1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AR1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AS1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AT1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AU1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AV1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AW1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AX1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="AY1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BA1" s="18" t="s">
         <v>60</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
       </c>
-      <c r="BC1" s="21" t="s">
+      <c r="BC1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" s="21" t="s">
+      <c r="BD1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BE1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" s="21" t="s">
+      <c r="BF1" s="18" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2614,10 +2757,10 @@
       <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="U2" t="s">
@@ -2626,64 +2769,64 @@
       <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="21" t="s">
         <v>72</v>
       </c>
       <c r="X2" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="Y2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" s="23" t="s">
         <v>74</v>
       </c>
       <c r="AK2" t="s">
         <v>66</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="AL2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="AM2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AN2" s="18" t="s">
         <v>74</v>
       </c>
       <c r="AO2" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AP2" s="18" t="s">
         <v>74</v>
       </c>
       <c r="AQ2" t="s">
@@ -2736,83 +2879,83 @@
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="D3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AR3" s="22"/>
+      <c r="D3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AR3" s="19"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="D4" s="23"/>
-      <c r="H4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AR4" s="23"/>
+      <c r="D4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AR4" s="20"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="D5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AR5" s="22"/>
+      <c r="D5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AR5" s="19"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AR6" s="22"/>
+      <c r="H6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AR6" s="19"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AR7" s="22"/>
+      <c r="H7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AR7" s="19"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="AR8" s="22"/>
+      <c r="H8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="AR8" s="19"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="AR9" s="22"/>
+      <c r="H9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="AR9" s="19"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H10" s="22"/>
-      <c r="S10" s="22"/>
+      <c r="H10" s="19"/>
+      <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H11" s="22"/>
-      <c r="S11" s="22"/>
+      <c r="H11" s="19"/>
+      <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="H12" s="22"/>
-      <c r="S12" s="23"/>
+      <c r="H12" s="19"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S13" s="22"/>
+      <c r="S13" s="19"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S14" s="22"/>
+      <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S15" s="23"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="S16" s="22"/>
+      <c r="S16" s="19"/>
     </row>
     <row r="17" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S17" s="22"/>
+      <c r="S17" s="19"/>
     </row>
     <row r="18" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S18" s="23"/>
+      <c r="S18" s="20"/>
     </row>
     <row r="19" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S19" s="22"/>
+      <c r="S19" s="19"/>
     </row>
     <row r="20" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S20" s="22"/>
+      <c r="S20" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2827,8 +2970,8 @@
   <dimension ref="A1:DG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <pane xSplit="1" topLeftCell="CR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CV6" sqref="CV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2938,37 +3081,37 @@
       <c r="D1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="40" t="s">
         <v>198</v>
       </c>
       <c r="P1" s="8" t="s">
@@ -3019,7 +3162,7 @@
       <c r="AE1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="40" t="s">
         <v>212</v>
       </c>
       <c r="AG1" s="8" t="s">
@@ -3028,10 +3171,10 @@
       <c r="AH1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>214</v>
       </c>
       <c r="AK1" s="8" t="s">
@@ -3218,7 +3361,7 @@
         <v>338</v>
       </c>
       <c r="CT1" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="CU1" s="8" t="s">
         <v>271</v>
@@ -3227,486 +3370,486 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:111" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="1:111" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" s="16" t="s">
+      <c r="I2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="AG2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="16"/>
-      <c r="BN2" s="16"/>
-      <c r="BO2" s="16"/>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16"/>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="16"/>
-      <c r="BT2" s="16"/>
-      <c r="BU2" s="16"/>
-      <c r="BV2" s="16"/>
-      <c r="BW2" s="16"/>
-      <c r="BX2" s="16"/>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="16"/>
-      <c r="CA2" s="16"/>
-      <c r="CB2" s="16"/>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="16"/>
-      <c r="CG2" s="16"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16"/>
-      <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16"/>
-      <c r="CP2" s="16"/>
-      <c r="CQ2" s="16"/>
-      <c r="CR2" s="16"/>
-      <c r="CS2" s="16"/>
-      <c r="CT2" s="16"/>
-      <c r="CU2" s="18" t="s">
+      <c r="AG2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="15"/>
+      <c r="BW2" s="15"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="CV2" s="16"/>
-    </row>
-    <row r="3" spans="1:111" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="CV2" s="15"/>
+    </row>
+    <row r="3" spans="1:111" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF3" s="18" t="s">
+      <c r="I3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF3" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="AG3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="CD3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="CP3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ3" s="18"/>
-      <c r="CR3" s="18"/>
-      <c r="CS3" s="18"/>
-      <c r="CT3" s="18"/>
-      <c r="CU3" s="18" t="s">
+      <c r="AG3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ3" s="26"/>
+      <c r="CR3" s="26"/>
+      <c r="CS3" s="26"/>
+      <c r="CT3" s="26"/>
+      <c r="CU3" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="CV3" s="18" t="s">
+      <c r="CV3" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="CW3" s="19"/>
-      <c r="CX3" s="19"/>
-      <c r="CY3" s="19"/>
-      <c r="CZ3" s="19"/>
-      <c r="DA3" s="19"/>
-      <c r="DB3" s="19"/>
-      <c r="DC3" s="19"/>
-      <c r="DD3" s="19"/>
-      <c r="DE3" s="19"/>
-      <c r="DF3" s="19"/>
-      <c r="DG3" s="19"/>
+      <c r="CW3" s="27"/>
+      <c r="CX3" s="27"/>
+      <c r="CY3" s="27"/>
+      <c r="CZ3" s="27"/>
+      <c r="DA3" s="27"/>
+      <c r="DB3" s="27"/>
+      <c r="DC3" s="27"/>
+      <c r="DD3" s="27"/>
+      <c r="DE3" s="27"/>
+      <c r="DF3" s="27"/>
+      <c r="DG3" s="27"/>
     </row>
     <row r="4" spans="1:111" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -4235,7 +4378,7 @@
         <v>74</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>279</v>
+        <v>632</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>74</v>
@@ -4626,7 +4769,7 @@
         <v>121</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>123</v>
@@ -4820,7 +4963,7 @@
         <v>74</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>74</v>
@@ -4859,7 +5002,7 @@
         <v>124</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>124</v>
@@ -5160,7 +5303,7 @@
         <v>121</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>123</v>
@@ -5354,7 +5497,7 @@
         <v>74</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>74</v>
@@ -5393,7 +5536,7 @@
         <v>124</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AM11" s="1" t="s">
         <v>124</v>
@@ -5787,8 +5930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="N11" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5822,19 +5965,19 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="41" t="s">
         <v>290</v>
       </c>
       <c r="I1" s="8" t="s">
@@ -5856,7 +5999,7 @@
         <v>295</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>225</v>
@@ -6144,67 +6287,67 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="G12" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="30" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="G13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6784,10 +6927,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6814,32 +6957,32 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="39" t="s">
         <v>316</v>
       </c>
       <c r="H1" t="s">
         <v>317</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>320</v>
       </c>
       <c r="L1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -6862,7 +7005,7 @@
         <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
         <v>321</v>
@@ -6874,10 +7017,10 @@
         <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -6900,7 +7043,7 @@
         <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
         <v>322</v>
@@ -6912,7 +7055,7 @@
         <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -6935,7 +7078,7 @@
         <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
         <v>321</v>
@@ -6947,7 +7090,7 @@
         <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -6970,7 +7113,7 @@
         <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
         <v>322</v>
@@ -6982,7 +7125,7 @@
         <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -7005,7 +7148,7 @@
         <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
         <v>321</v>
@@ -7017,10 +7160,10 @@
         <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -7043,7 +7186,7 @@
         <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
         <v>322</v>
@@ -7055,7 +7198,7 @@
         <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -7078,7 +7221,7 @@
         <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
         <v>321</v>
@@ -7090,12 +7233,12 @@
         <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B9" s="7">
         <v>2</v>
@@ -7113,7 +7256,7 @@
         <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
         <v>322</v>
@@ -7125,7 +7268,7 @@
         <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -7135,6 +7278,12 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E10" t="s">
         <v>123</v>
       </c>
@@ -7152,6 +7301,9 @@
       </c>
       <c r="J10" t="s">
         <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -7161,6 +7313,12 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E11" t="s">
         <v>123</v>
       </c>
@@ -7178,6 +7336,9 @@
       </c>
       <c r="J11" t="s">
         <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -7187,6 +7348,12 @@
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E12" t="s">
         <v>123</v>
       </c>
@@ -7204,6 +7371,9 @@
       </c>
       <c r="J12" t="s">
         <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -7213,6 +7383,12 @@
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E13" t="s">
         <v>123</v>
       </c>
@@ -7230,6 +7406,9 @@
       </c>
       <c r="J13" t="s">
         <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -7316,7 +7495,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
@@ -7344,7 +7523,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -7377,7 +7556,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -7408,11 +7587,85 @@
       </c>
       <c r="K19" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="31">
+        <v>1</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="31">
+        <v>1</v>
+      </c>
+      <c r="C21" s="31">
+        <v>2</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7420,7 +7673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7704,9 +7957,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7717,9 +7972,9 @@
     <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -7734,26 +7989,26 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="39" t="s">
         <v>107</v>
-      </c>
-      <c r="J1" t="s">
-        <v>349</v>
       </c>
       <c r="K1" t="s">
         <v>350</v>
@@ -7826,7 +8081,96 @@
       <c r="E2" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" t="s">
+        <v>121</v>
+      </c>
+      <c r="V3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W3" t="s">
+        <v>121</v>
+      </c>
+      <c r="X3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8556,7 +8900,7 @@
   <dimension ref="A1:BN26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8572,148 +8916,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="42" t="s">
         <v>433</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="42" t="s">
         <v>436</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="42" t="s">
         <v>438</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AU1" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="7" t="s">
         <v>271</v>
       </c>
       <c r="AW1" t="s">
@@ -8772,1089 +9116,1228 @@
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1" t="s">
+      <c r="P2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1" t="s">
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1" t="s">
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1" t="s">
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BE2" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1" t="s">
+      <c r="P3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AW3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1" t="s">
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1" t="s">
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1" t="s">
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BD3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BE3" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1" t="s">
+      <c r="P4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AW4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1" t="s">
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1" t="s">
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1" t="s">
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BD4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BE4" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1" t="s">
+      <c r="P5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AW5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1" t="s">
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1" t="s">
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1" t="s">
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BD5" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BE5" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L8" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="L9" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N9" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O9" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P9" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV6" s="1" t="s">
+      <c r="Q9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AW9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AY6" s="1" t="s">
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1" t="s">
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1" t="s">
+      <c r="BD9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD6" s="1" t="s">
+      <c r="BE9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:66" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="31">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>625</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV10" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BF6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW7" s="1" t="s">
+      <c r="AX10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AY10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1" t="s">
+      <c r="BB10" s="31"/>
+      <c r="BC10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1" t="s">
+      <c r="BD10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BD7" s="1" t="s">
+      <c r="BE10" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BE7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
+      <c r="BF10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN10" s="29" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -9881,7 +10364,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="12"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -9905,7 +10388,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
-      <c r="AW11" s="12"/>
+      <c r="AW11" s="11"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
@@ -9940,7 +10423,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="11"/>
+      <c r="Y12" s="10"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -9964,7 +10447,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
-      <c r="AW12" s="11"/>
+      <c r="AW12" s="10"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
@@ -9999,7 +10482,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="12"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -10023,7 +10506,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
-      <c r="AW13" s="12"/>
+      <c r="AW13" s="11"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
@@ -10058,7 +10541,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -10117,7 +10600,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="11"/>
+      <c r="Y15" s="10"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -10176,7 +10659,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="12"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -10235,7 +10718,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="12"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -10294,7 +10777,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="11"/>
+      <c r="Y18" s="10"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -10353,7 +10836,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="12"/>
+      <c r="Y19" s="11"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -10412,7 +10895,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="12"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -10471,7 +10954,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="11"/>
+      <c r="Y21" s="10"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -10530,7 +11013,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="12"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -10589,7 +11072,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="12"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -10648,7 +11131,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="12"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -10707,7 +11190,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="12"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -10766,7 +11249,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="12"/>
+      <c r="Y26" s="11"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -10826,25 +11309,25 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -10858,10 +11341,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
@@ -10876,27 +11359,27 @@
       <c r="I2">
         <v>21</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="23"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D4" s="22"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="22"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="22"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="22"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="22"/>
+      <c r="D8" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10905,10 +11388,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
-  <dimension ref="A1:AN22"/>
+  <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10954,7 +11437,7 @@
     <col min="40" max="40" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10964,119 +11447,131 @@
       <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="40" t="s">
         <v>433</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="P1" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="Q1" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="R1" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AM1" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AR1" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -11088,40 +11583,46 @@
       <c r="E2" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>496</v>
+      </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="6"/>
+      <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="W2" s="6"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
@@ -11138,11 +11639,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -11156,51 +11660,53 @@
         <v>123</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="K3" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="7"/>
       <c r="S3" s="7" t="s">
-        <v>124</v>
+        <v>590</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>124</v>
+        <v>624</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>124</v>
@@ -11256,11 +11762,20 @@
       <c r="AM3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -11274,49 +11789,49 @@
         <v>123</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="K4" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="P4" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>124</v>
@@ -11372,11 +11887,20 @@
       <c r="AM4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AN4" s="8" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AN4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -11390,49 +11914,49 @@
         <v>123</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="K5" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="P5" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>124</v>
@@ -11488,11 +12012,20 @@
       <c r="AM5" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AN5" s="8" t="s">
+      <c r="AN5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -11506,221 +12039,239 @@
         <v>123</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="12" t="s">
+      <c r="V7" s="7"/>
+      <c r="W7" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="Y7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Z7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AA7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AB7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AC7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AD7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AE7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AF7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AG7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AH7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AI7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AJ7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AK7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AL7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AM7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AN7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AO7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="8" t="s">
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -11733,43 +12284,51 @@
       <c r="D8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="P8" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="5"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="W8" s="5"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -11786,66 +12345,71 @@
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
-      <c r="AN8" s="8" t="s">
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T9" s="6"/>
+      <c r="P9" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="W9" s="5"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -11862,38 +12426,78 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
-      <c r="AN9" s="8" t="s">
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="AR9" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="6"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -11911,50 +12515,142 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="31">
+        <v>1</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="W11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP11" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ11" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -11974,7 +12670,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="6"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
@@ -11996,7 +12692,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -12038,7 +12734,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -12058,7 +12754,7 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="5"/>
+      <c r="T14" s="6"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
@@ -12080,7 +12776,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -12100,7 +12796,7 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="6"/>
+      <c r="T15" s="5"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
@@ -12122,7 +12818,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -12184,7 +12880,7 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="5"/>
+      <c r="T17" s="6"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
@@ -12226,7 +12922,7 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="6"/>
+      <c r="T18" s="5"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -12416,6 +13112,48 @@
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
     </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12424,10 +13162,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12484,143 +13222,141 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="G2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="G3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>302</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="G4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="G4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32">
+        <v>2</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" t="s">
-        <v>507</v>
-      </c>
-      <c r="G5" t="s">
-        <v>508</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>103</v>
+      <c r="E5" s="32"/>
+      <c r="F5" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>123</v>
-      </c>
+      <c r="E6" s="7"/>
       <c r="F6" t="s">
         <v>507</v>
       </c>
@@ -12630,30 +13366,57 @@
       <c r="H6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K6" s="15" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G7" t="s">
+        <v>508</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L7" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12673,9 +13436,10 @@
     <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.54296875" customWidth="1"/>
     <col min="18" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12685,68 +13449,71 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>628</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="42" t="s">
+        <v>599</v>
+      </c>
+      <c r="R1" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="42" t="s">
         <v>520</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="V1" s="7" t="s">
+      <c r="T1" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="V1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W1" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
@@ -12781,108 +13548,147 @@
         <v>123</v>
       </c>
       <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="R3" s="13" t="s">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="S3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12896,7 +13702,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>123</v>
@@ -12913,22 +13719,182 @@
       <c r="J5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="35" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X10" s="36"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12966,58 +13932,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G1" t="s">
         <v>524</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>525</v>
-      </c>
-      <c r="H1" t="s">
-        <v>526</v>
       </c>
       <c r="I1" t="s">
         <v>349</v>
       </c>
       <c r="J1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K1" t="s">
         <v>527</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>528</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>529</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>530</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>531</v>
-      </c>
-      <c r="O1" t="s">
-        <v>532</v>
       </c>
       <c r="P1" t="s">
         <v>504</v>
       </c>
       <c r="Q1" t="s">
+        <v>532</v>
+      </c>
+      <c r="R1" t="s">
         <v>533</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>534</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>535</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>536</v>
-      </c>
-      <c r="U1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -13068,7 +14034,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13099,96 +14065,96 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>540</v>
-      </c>
-      <c r="G1" t="s">
-        <v>541</v>
       </c>
       <c r="H1" t="s">
         <v>396</v>
       </c>
       <c r="I1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J1" t="s">
         <v>542</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>543</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>544</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>545</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>546</v>
-      </c>
-      <c r="N1" t="s">
-        <v>547</v>
       </c>
       <c r="O1" t="s">
         <v>147</v>
       </c>
       <c r="P1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q1" t="s">
         <v>548</v>
       </c>
-      <c r="Q1" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="13" t="s">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -13205,8 +14171,11 @@
       <c r="D3" t="s">
         <v>123</v>
       </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -13252,8 +14221,11 @@
       <c r="D4" t="s">
         <v>123</v>
       </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -13319,11 +14291,14 @@
       <c r="D6" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>74</v>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>124</v>
@@ -13353,7 +14328,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13369,11 +14344,14 @@
       <c r="D7" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>74</v>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>124</v>
@@ -13403,7 +14381,7 @@
         <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13457,10 +14435,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13470,7 +14448,7 @@
     <col min="4" max="4" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13481,25 +14459,31 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1" t="s">
         <v>551</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>552</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>553</v>
       </c>
-      <c r="H1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -13519,13 +14503,19 @@
         <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>555</v>
+        <v>121</v>
+      </c>
+      <c r="J2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -13558,34 +14548,34 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" t="s">
         <v>556</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>557</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>558</v>
-      </c>
-      <c r="G1" t="s">
-        <v>559</v>
       </c>
       <c r="H1" t="s">
         <v>189</v>
       </c>
       <c r="I1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J1" t="s">
         <v>560</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>561</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>562</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>563</v>
-      </c>
-      <c r="M1" t="s">
-        <v>564</v>
       </c>
       <c r="N1" t="s">
         <v>367</v>
@@ -13594,142 +14584,142 @@
         <v>368</v>
       </c>
       <c r="P1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q1" t="s">
         <v>565</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>566</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>567</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>568</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="F2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="13">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="F3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -13743,7 +14733,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13751,7 +14741,7 @@
     <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" customWidth="1"/>
     <col min="6" max="6" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13766,10 +14756,10 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>271</v>
@@ -13781,24 +14771,24 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>599</v>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -13815,10 +14805,10 @@
         <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -13835,10 +14825,10 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -13855,10 +14845,10 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -13875,10 +14865,10 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -13895,10 +14885,10 @@
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -13915,10 +14905,10 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -13928,10 +14918,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13959,19 +14949,19 @@
         <v>350</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -14076,8 +15066,67 @@
       </c>
       <c r="J5" s="1"/>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14086,7 +15135,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14115,16 +15164,16 @@
         <v>350</v>
       </c>
       <c r="E1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1" t="s">
         <v>577</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>578</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>579</v>
-      </c>
-      <c r="H1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -14288,22 +15337,22 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -14317,39 +15366,39 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="23"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="22"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="22"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="23"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="22"/>
+      <c r="D7" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14386,19 +15435,19 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -14429,19 +15478,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D3" s="22"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D4" s="23"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D5" s="22"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D6" s="22"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D7" s="22"/>
+      <c r="D7" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14697,10 +15746,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14726,21 +15775,24 @@
     <col min="19" max="19" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.26953125" customWidth="1"/>
+    <col min="23" max="23" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14795,65 +15847,74 @@
       <c r="R1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="W1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AB1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AC1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AD1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AF1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AG1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AH1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>154</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>155</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>156</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AL1" s="18" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -14875,9 +15936,9 @@
       <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="AC2" s="22"/>
-    </row>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD2" s="19"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -14899,10 +15960,10 @@
       <c r="G3" t="s">
         <v>123</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="AC3" s="27"/>
-    </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W3" s="19"/>
+      <c r="AD3" s="24"/>
+    </row>
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -14924,153 +15985,193 @@
       <c r="G4" t="s">
         <v>123</v>
       </c>
-      <c r="V4" s="27"/>
-      <c r="AC4" s="22"/>
-    </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="W4" s="24"/>
+      <c r="AD4" s="19"/>
+      <c r="AM4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" t="s">
+        <v>121</v>
+      </c>
+      <c r="W5" s="24"/>
+      <c r="AD5" s="19"/>
+      <c r="AM5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V5" s="22"/>
-      <c r="AC5" s="23"/>
-    </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W6" s="19"/>
+      <c r="AD6" s="20"/>
+    </row>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V6" s="23"/>
-      <c r="AC6" s="22"/>
-    </row>
-    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W7" s="20"/>
+      <c r="AD7" s="19"/>
+    </row>
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="S7" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="S8" t="s">
         <v>66</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T8" t="s">
         <v>66</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U8" t="s">
         <v>66</v>
       </c>
-      <c r="V7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="W7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="X7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH7" s="22" t="s">
+      <c r="V8" t="s">
         <v>66</v>
       </c>
-      <c r="AI7" s="22" t="s">
+      <c r="W8" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="AI8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AJ7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK7" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="AJ8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" t="s">
-        <v>123</v>
-      </c>
-      <c r="V8" s="23"/>
-    </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V9" s="22"/>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+      <c r="W9" s="20"/>
+    </row>
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15079,10 +16180,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15239,7 +16340,9 @@
       <c r="F2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="H2" s="8" t="s">
         <v>121</v>
       </c>
@@ -15282,110 +16385,35 @@
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>121</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -15481,81 +16509,101 @@
     </row>
     <row r="5" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>121</v>
+      </c>
       <c r="AC5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AD5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>121</v>
+      </c>
       <c r="AG5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
@@ -15563,7 +16611,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -15616,7 +16664,7 @@
       <c r="S6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="T6" s="25" t="s">
         <v>186</v>
       </c>
       <c r="U6" s="1"/>
@@ -15637,11 +16685,88 @@
         <v>124</v>
       </c>
     </row>
+    <row r="7" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
-    <hyperlink ref="T5" r:id="rId2" xr:uid="{91F4668C-F47C-4801-AF32-0D9E3586BCF0}"/>
-    <hyperlink ref="T6" r:id="rId3" xr:uid="{D83E4477-BBA6-49BD-B743-E1A25373B4EC}"/>
+    <hyperlink ref="T6" r:id="rId2" xr:uid="{91F4668C-F47C-4801-AF32-0D9E3586BCF0}"/>
+    <hyperlink ref="T7" r:id="rId3" xr:uid="{D83E4477-BBA6-49BD-B743-E1A25373B4EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -15649,12 +16774,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15875,19 +17001,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15912,11 +17039,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9CDFA0-77E3-46E9-B836-D6806D41E0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7FC0BF-D2CA-4BF3-9A16-EC08C0F93557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -15749,7 +15749,7 @@
   <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15991,7 +15991,7 @@
         <v>124</v>
       </c>
       <c r="AN4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16022,7 +16022,7 @@
         <v>124</v>
       </c>
       <c r="AN5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16774,13 +16774,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17001,20 +17000,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17039,9 +17037,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7FC0BF-D2CA-4BF3-9A16-EC08C0F93557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0AED8E-D69E-479B-9112-F5178DB7A33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -8899,8 +8899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9250,7 +9250,7 @@
         <v>485</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>102</v>
+        <v>623</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>74</v>
@@ -9357,7 +9357,7 @@
         <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>623</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>74</v>
@@ -15748,7 +15748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0AED8E-D69E-479B-9112-F5178DB7A33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4483061-210A-4194-9B1E-9D1D1C58C11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="641">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1972,9 +1972,6 @@
     <t>Verbal</t>
   </si>
   <si>
-    <t>3-day</t>
-  </si>
-  <si>
     <t>COMMENTS_RECALL</t>
   </si>
   <si>
@@ -1991,6 +1988,12 @@
   </si>
   <si>
     <t>SCR_ID1</t>
+  </si>
+  <si>
+    <t>CSE_BTN</t>
+  </si>
+  <si>
+    <t>CSE_TAB</t>
   </si>
 </sst>
 </file>
@@ -5928,10 +5931,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" topLeftCell="M8" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5955,7 +5958,7 @@
     <col min="18" max="18" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6010,8 +6013,14 @@
       <c r="R1" s="8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -6036,8 +6045,14 @@
       <c r="J2" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -6062,8 +6077,14 @@
       <c r="J3" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6094,8 +6115,14 @@
       <c r="J4" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6126,8 +6153,14 @@
       <c r="J5" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -6158,8 +6191,14 @@
       <c r="J6" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" t="s">
+        <v>121</v>
+      </c>
+      <c r="T6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -6190,32 +6229,52 @@
       <c r="J7" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="S7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
+      <c r="G8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -6223,10 +6282,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E9" t="s">
         <v>301</v>
@@ -6238,8 +6297,14 @@
       <c r="J9" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" t="s">
+        <v>121</v>
+      </c>
+      <c r="T9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -6247,10 +6312,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E10" t="s">
         <v>301</v>
@@ -6262,8 +6327,14 @@
       <c r="J10" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6271,10 +6342,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
         <v>301</v>
@@ -6286,40 +6357,44 @@
       <c r="J11" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
+      <c r="S11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="29">
-        <v>1</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="D12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" t="s">
         <v>301</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="30" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>4</v>
       </c>
@@ -6327,10 +6402,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>301</v>
@@ -6350,40 +6425,52 @@
       <c r="J13" s="30" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="S13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="G14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="30" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6391,10 +6478,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E15" t="s">
         <v>301</v>
@@ -6414,24 +6501,30 @@
       <c r="J15" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="S15" t="s">
+        <v>121</v>
+      </c>
+      <c r="T15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" t="s">
         <v>301</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" t="s">
         <v>301</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -6446,32 +6539,14 @@
       <c r="J16" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" t="s">
-        <v>124</v>
-      </c>
-      <c r="M16" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" t="s">
-        <v>124</v>
-      </c>
-      <c r="O16" t="s">
-        <v>124</v>
-      </c>
-      <c r="P16" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>124</v>
-      </c>
-      <c r="R16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
@@ -6479,10 +6554,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>301</v>
@@ -6494,7 +6569,7 @@
         <v>123</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>124</v>
@@ -6505,29 +6580,35 @@
       <c r="K17" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>124</v>
+      </c>
+      <c r="R17" t="s">
+        <v>124</v>
+      </c>
+      <c r="S17" t="s">
+        <v>121</v>
+      </c>
+      <c r="T17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
@@ -6535,10 +6616,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>301</v>
@@ -6558,8 +6639,38 @@
       <c r="J18" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="S18" t="s">
+        <v>121</v>
+      </c>
+      <c r="T18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
@@ -6567,10 +6678,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>301</v>
@@ -6590,19 +6701,25 @@
       <c r="J19" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19" t="s">
+        <v>121</v>
+      </c>
+      <c r="T19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>301</v>
@@ -6614,7 +6731,7 @@
         <v>123</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>124</v>
@@ -6622,32 +6739,14 @@
       <c r="J20" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" t="s">
-        <v>124</v>
-      </c>
-      <c r="M20" t="s">
-        <v>124</v>
-      </c>
-      <c r="N20" t="s">
-        <v>124</v>
-      </c>
-      <c r="O20" t="s">
-        <v>124</v>
-      </c>
-      <c r="P20" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>124</v>
-      </c>
-      <c r="R20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S20" t="s">
+        <v>121</v>
+      </c>
+      <c r="T20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
@@ -6655,10 +6754,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>301</v>
@@ -6670,7 +6769,7 @@
         <v>123</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>124</v>
@@ -6681,29 +6780,35 @@
       <c r="K21" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>124</v>
+      </c>
+      <c r="R21" t="s">
+        <v>124</v>
+      </c>
+      <c r="S21" t="s">
+        <v>121</v>
+      </c>
+      <c r="T21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -6711,10 +6816,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>301</v>
@@ -6734,8 +6839,38 @@
       <c r="J22" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="S22" t="s">
+        <v>121</v>
+      </c>
+      <c r="T22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
@@ -6743,10 +6878,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>301</v>
@@ -6766,31 +6901,37 @@
       <c r="J23" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>300</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="S23" t="s">
+        <v>121</v>
+      </c>
+      <c r="T23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="8" t="s">
         <v>301</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>123</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>124</v>
@@ -6798,8 +6939,14 @@
       <c r="J24" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S24" t="s">
+        <v>121</v>
+      </c>
+      <c r="T24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -6807,10 +6954,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E25" t="s">
         <v>301</v>
@@ -6829,6 +6976,50 @@
       </c>
       <c r="J25" s="8" t="s">
         <v>302</v>
+      </c>
+      <c r="S25" t="s">
+        <v>121</v>
+      </c>
+      <c r="T25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="S26" t="s">
+        <v>121</v>
+      </c>
+      <c r="T26" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -8899,7 +9090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -13164,8 +13355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13311,7 +13502,9 @@
       <c r="D4" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="31" t="s">
+        <v>123</v>
+      </c>
       <c r="F4" s="29" t="s">
         <v>507</v>
       </c>
@@ -13320,6 +13513,15 @@
       </c>
       <c r="H4" s="29" t="s">
         <v>121</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -13335,15 +13537,26 @@
       <c r="D5" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="31" t="s">
+        <v>123</v>
+      </c>
       <c r="F5" s="29" t="s">
-        <v>633</v>
+        <v>507</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>121</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>121</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -14465,7 +14678,7 @@
         <v>550</v>
       </c>
       <c r="F1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G1" t="s">
         <v>551</v>
@@ -14480,7 +14693,7 @@
         <v>350</v>
       </c>
       <c r="K1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -15908,10 +16121,10 @@
         <v>157</v>
       </c>
       <c r="AM1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN1" t="s">
         <v>636</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -15991,7 +16204,7 @@
         <v>124</v>
       </c>
       <c r="AN4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16022,7 +16235,7 @@
         <v>124</v>
       </c>
       <c r="AN5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4483061-210A-4194-9B1E-9D1D1C58C11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF8E24F-61A3-47FF-B747-7F20B80A262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="641">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2972,9 +2972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV6" sqref="CV6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4349,7 +4349,9 @@
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>68</v>
       </c>
@@ -5933,7 +5935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M8" workbookViewId="0">
+    <sheetView topLeftCell="M8" workbookViewId="0">
       <selection activeCell="T18" sqref="T18:T26"/>
     </sheetView>
   </sheetViews>
@@ -13628,7 +13630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF8E24F-61A3-47FF-B747-7F20B80A262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD50521-19CA-437A-9E0A-7218F6394EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -1969,9 +1969,6 @@
     <t>Recalled</t>
   </si>
   <si>
-    <t>Verbal</t>
-  </si>
-  <si>
     <t>COMMENTS_RECALL</t>
   </si>
   <si>
@@ -1994,6 +1991,9 @@
   </si>
   <si>
     <t>CSE_TAB</t>
+  </si>
+  <si>
+    <t>Telephone</t>
   </si>
 </sst>
 </file>
@@ -2973,8 +2973,8 @@
   <dimension ref="A1:DG12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD6" sqref="AD6"/>
+      <pane xSplit="1" topLeftCell="CX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DB6" sqref="DB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4203,7 +4203,7 @@
         <v>74</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>279</v>
+        <v>640</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>74</v>
@@ -4245,7 +4245,7 @@
         <v>281</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>282</v>
@@ -4383,7 +4383,7 @@
         <v>74</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>632</v>
+        <v>279</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>74</v>
@@ -4425,7 +4425,7 @@
         <v>281</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="AD6" s="8" t="s">
         <v>282</v>
@@ -6016,10 +6016,10 @@
         <v>298</v>
       </c>
       <c r="S1" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>639</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -14680,7 +14680,7 @@
         <v>550</v>
       </c>
       <c r="F1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G1" t="s">
         <v>551</v>
@@ -14695,7 +14695,7 @@
         <v>350</v>
       </c>
       <c r="K1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -16123,10 +16123,10 @@
         <v>157</v>
       </c>
       <c r="AM1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AN1" t="s">
         <v>635</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16206,7 +16206,7 @@
         <v>124</v>
       </c>
       <c r="AN4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16237,7 +16237,7 @@
         <v>124</v>
       </c>
       <c r="AN5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD50521-19CA-437A-9E0A-7218F6394EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C608ACC8-E694-4EF9-ACD4-6D9DFE911542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="27" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -2972,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="CX1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="DB6" sqref="DB6"/>
     </sheetView>
@@ -13357,7 +13357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -15135,7 +15135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -15301,7 +15301,7 @@
         <v>123</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>123</v>
@@ -15318,7 +15318,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
@@ -15330,7 +15330,7 @@
         <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>123</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C608ACC8-E694-4EF9-ACD4-6D9DFE911542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E181862D-0755-413F-BB56-40B5136A3669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="27" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -2972,9 +2972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DB6" sqref="DB6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4248,7 +4248,7 @@
         <v>282</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="AE5" s="8" t="s">
         <v>121</v>
@@ -4344,10 +4344,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
         <v>2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>123</v>
@@ -4428,7 +4428,7 @@
         <v>282</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="AE6" s="8" t="s">
         <v>121</v>
@@ -15135,7 +15135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E181862D-0755-413F-BB56-40B5136A3669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7F3E31-5027-4460-B6E4-2957D3F81FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="640">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1991,9 +1991,6 @@
   </si>
   <si>
     <t>CSE_TAB</t>
-  </si>
-  <si>
-    <t>Telephone</t>
   </si>
 </sst>
 </file>
@@ -2973,8 +2970,8 @@
   <dimension ref="A1:DG12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD6" sqref="AD6"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4203,7 +4200,7 @@
         <v>74</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>640</v>
+        <v>279</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>74</v>
@@ -4244,8 +4241,8 @@
       <c r="AB5" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AC5" s="8" t="s">
-        <v>282</v>
+      <c r="AC5" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>121</v>
@@ -4424,8 +4421,8 @@
       <c r="AB6" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AC6" s="8" t="s">
-        <v>282</v>
+      <c r="AC6" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="AD6" s="8" t="s">
         <v>121</v>
@@ -4596,10 +4593,12 @@
       <c r="AB7" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AC7" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD7" s="8"/>
+      <c r="AC7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8" t="s">
         <v>274</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7F3E31-5027-4460-B6E4-2957D3F81FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2EEB56-EE4C-4B97-8E91-232222101A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -2970,8 +2970,8 @@
   <dimension ref="A1:DG12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4244,8 +4244,8 @@
       <c r="AC5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AD5" s="8" t="s">
-        <v>121</v>
+      <c r="AD5" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="AE5" s="8" t="s">
         <v>121</v>
@@ -4424,8 +4424,8 @@
       <c r="AC6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AD6" s="8" t="s">
-        <v>121</v>
+      <c r="AD6" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="AE6" s="8" t="s">
         <v>121</v>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2EEB56-EE4C-4B97-8E91-232222101A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109B275-B571-4A63-A3B5-D30D00D2F7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="643">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1846,9 +1846,6 @@
   </si>
   <si>
     <t>SCAR</t>
-  </si>
-  <si>
-    <t>UPLOAD_PATH</t>
   </si>
   <si>
     <t>Success, Document was generated. Please Click on Documents tab to view your document.</t>
@@ -1966,31 +1963,43 @@
     <t>SCR_TRIBAL_ID1</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>SCR_ID1</t>
+  </si>
+  <si>
+    <t>SCR_ID2</t>
+  </si>
+  <si>
     <t>Recalled</t>
   </si>
   <si>
+    <t>CSE_BTN</t>
+  </si>
+  <si>
+    <t>CSE_TAB</t>
+  </si>
+  <si>
+    <t>SCP_ID6</t>
+  </si>
+  <si>
+    <t>SCP_ID7</t>
+  </si>
+  <si>
+    <t>SCP_ID5</t>
+  </si>
+  <si>
     <t>COMMENTS_RECALL</t>
   </si>
   <si>
-    <t>RECALL_BUTTON</t>
-  </si>
-  <si>
-    <t>SEARCH</t>
-  </si>
-  <si>
-    <t>SCR_ID</t>
-  </si>
-  <si>
-    <t>SCR_ID2</t>
-  </si>
-  <si>
-    <t>SCR_ID1</t>
-  </si>
-  <si>
-    <t>CSE_BTN</t>
-  </si>
-  <si>
-    <t>CSE_TAB</t>
+    <t>RECALL_BTN</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2203,6 +2212,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2969,9 +2981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5:CV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3851,310 +3863,310 @@
       <c r="DF3" s="27"/>
       <c r="DG3" s="27"/>
     </row>
-    <row r="4" spans="1:111" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:111" s="29" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF4" s="8" t="s">
+      <c r="I4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF4" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AG4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="CP4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ4" s="8"/>
-      <c r="CR4" s="8"/>
-      <c r="CS4" s="8"/>
-      <c r="CT4" s="8"/>
-      <c r="CU4" s="8" t="s">
+      <c r="AG4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ4" s="30"/>
+      <c r="CR4" s="30"/>
+      <c r="CS4" s="30"/>
+      <c r="CT4" s="30"/>
+      <c r="CU4" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="CV4" s="8" t="s">
+      <c r="CV4" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="CW4" s="1"/>
-      <c r="CX4" s="1"/>
-      <c r="CY4" s="1"/>
-      <c r="CZ4" s="1"/>
-      <c r="DA4" s="1"/>
-      <c r="DB4" s="1"/>
-      <c r="DC4" s="1"/>
-      <c r="DD4" s="1"/>
-      <c r="DE4" s="1"/>
-      <c r="DF4" s="1"/>
-      <c r="DG4" s="1"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
+      <c r="CZ4" s="32"/>
+      <c r="DA4" s="32"/>
+      <c r="DB4" s="32"/>
+      <c r="DC4" s="32"/>
+      <c r="DD4" s="32"/>
+      <c r="DE4" s="32"/>
+      <c r="DF4" s="32"/>
+      <c r="DG4" s="32"/>
     </row>
     <row r="5" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -4241,10 +4253,10 @@
       <c r="AB5" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AC5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD5" s="7" t="s">
         <v>282</v>
       </c>
       <c r="AE5" s="8" t="s">
@@ -4421,10 +4433,10 @@
       <c r="AB6" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AC6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD6" s="7" t="s">
         <v>282</v>
       </c>
       <c r="AE6" s="8" t="s">
@@ -4593,12 +4605,10 @@
       <c r="AB7" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="AC7" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8" t="s">
         <v>274</v>
@@ -5932,10 +5942,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="M8" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18:T26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6015,10 +6025,10 @@
         <v>298</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -6046,12 +6056,6 @@
       <c r="J2" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T2" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -6078,12 +6082,6 @@
       <c r="J3" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S3" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -6116,12 +6114,6 @@
       <c r="J4" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S4" t="s">
-        <v>121</v>
-      </c>
-      <c r="T4" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -6154,12 +6146,6 @@
       <c r="J5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S5" t="s">
-        <v>121</v>
-      </c>
-      <c r="T5" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -6192,12 +6178,6 @@
       <c r="J6" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T6" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -6230,42 +6210,36 @@
       <c r="J7" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T7" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="G8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>302</v>
       </c>
       <c r="S8" t="s">
@@ -6276,66 +6250,70 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
+      <c r="G9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S9" t="s">
-        <v>121</v>
-      </c>
-      <c r="T9" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="G10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S10" t="s">
-        <v>121</v>
-      </c>
-      <c r="T10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6343,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>300</v>
@@ -6354,18 +6332,30 @@
       <c r="F11" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="J11" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -6373,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>304</v>
@@ -6384,292 +6374,250 @@
       <c r="F12" t="s">
         <v>301</v>
       </c>
+      <c r="G12"/>
+      <c r="H12"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S12" t="s">
-        <v>121</v>
-      </c>
-      <c r="T12" t="s">
-        <v>121</v>
-      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
     </row>
     <row r="13" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="29">
-        <v>1</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="D14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E15" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F15" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="30" t="s">
+      <c r="G15" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="S13" t="s">
-        <v>121</v>
-      </c>
-      <c r="T13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="29">
-        <v>1</v>
-      </c>
-      <c r="C14" s="29">
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="29">
         <v>2</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D16" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E16" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F16" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="30" t="s">
+      <c r="G16" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="S14" t="s">
-        <v>121</v>
-      </c>
-      <c r="T14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="C17" s="29">
+        <v>3</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="G17" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="S15" t="s">
-        <v>121</v>
-      </c>
-      <c r="T15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="29">
+        <v>4</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="G18" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="S16" t="s">
-        <v>121</v>
-      </c>
-      <c r="T16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" t="s">
-        <v>124</v>
-      </c>
-      <c r="M17" t="s">
-        <v>124</v>
-      </c>
-      <c r="N17" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" t="s">
-        <v>124</v>
-      </c>
-      <c r="P17" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>124</v>
-      </c>
-      <c r="R17" t="s">
-        <v>124</v>
-      </c>
-      <c r="S17" t="s">
-        <v>121</v>
-      </c>
-      <c r="T17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="S18" t="s">
-        <v>121</v>
-      </c>
-      <c r="T18" t="s">
-        <v>121</v>
-      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -6679,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>300</v>
@@ -6694,7 +6642,7 @@
         <v>123</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>124</v>
@@ -6702,11 +6650,29 @@
       <c r="J19" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S19" t="s">
-        <v>121</v>
-      </c>
-      <c r="T19" t="s">
-        <v>121</v>
+      <c r="K19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
@@ -6717,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>304</v>
@@ -6740,11 +6706,29 @@
       <c r="J20" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S20" t="s">
-        <v>121</v>
-      </c>
-      <c r="T20" t="s">
-        <v>121</v>
+      <c r="K20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
@@ -6752,10 +6736,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>300</v>
@@ -6770,43 +6754,13 @@
         <v>123</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>124</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L21" t="s">
-        <v>124</v>
-      </c>
-      <c r="M21" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" t="s">
-        <v>124</v>
-      </c>
-      <c r="O21" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>124</v>
-      </c>
-      <c r="R21" t="s">
-        <v>124</v>
-      </c>
-      <c r="S21" t="s">
-        <v>121</v>
-      </c>
-      <c r="T21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
@@ -6814,10 +6768,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>304</v>
@@ -6839,36 +6793,6 @@
       </c>
       <c r="J22" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="S22" t="s">
-        <v>121</v>
-      </c>
-      <c r="T22" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
@@ -6879,7 +6803,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>300</v>
@@ -6894,7 +6818,7 @@
         <v>123</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>124</v>
@@ -6902,11 +6826,29 @@
       <c r="J23" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S23" t="s">
-        <v>121</v>
-      </c>
-      <c r="T23" t="s">
-        <v>121</v>
+      <c r="K23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O23" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>124</v>
+      </c>
+      <c r="R23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
@@ -6917,7 +6859,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>304</v>
@@ -6940,37 +6882,55 @@
       <c r="J24" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S24" t="s">
-        <v>121</v>
-      </c>
-      <c r="T24" t="s">
-        <v>121</v>
+      <c r="K24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="A25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="8" t="s">
         <v>301</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>123</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>124</v>
@@ -6978,37 +6938,31 @@
       <c r="J25" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S25" t="s">
-        <v>121</v>
-      </c>
-      <c r="T25" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="A26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="8">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" s="8">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="8" t="s">
         <v>301</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>123</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>124</v>
@@ -7016,11 +6970,69 @@
       <c r="J26" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S26" t="s">
-        <v>121</v>
-      </c>
-      <c r="T26" t="s">
-        <v>121</v>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7119,10 +7131,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7465,16 +7477,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="E10" t="s">
         <v>123</v>
@@ -7493,9 +7502,6 @@
       </c>
       <c r="J10" t="s">
         <v>123</v>
-      </c>
-      <c r="K10" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -7508,9 +7514,6 @@
       <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="E11" t="s">
         <v>123</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -7543,9 +7546,6 @@
       <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="E12" t="s">
         <v>123</v>
       </c>
@@ -7565,12 +7565,12 @@
         <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>586</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7578,9 +7578,6 @@
       <c r="C13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="E13" t="s">
         <v>123</v>
       </c>
@@ -7600,7 +7597,7 @@
         <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>587</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -7630,6 +7627,9 @@
       <c r="J14" t="s">
         <v>123</v>
       </c>
+      <c r="K14" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -7650,7 +7650,7 @@
         <v>321</v>
       </c>
       <c r="H15" t="s">
-        <v>321</v>
+        <v>630</v>
       </c>
       <c r="I15" t="s">
         <v>123</v>
@@ -7854,10 +7854,82 @@
         <v>585</v>
       </c>
     </row>
+    <row r="22" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="31">
+        <v>1</v>
+      </c>
+      <c r="C22" s="31">
+        <v>3</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="31">
+        <v>1</v>
+      </c>
+      <c r="C23" s="31">
+        <v>4</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>585</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7865,7 +7937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -8292,7 +8364,7 @@
         <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G3" t="s">
         <v>279</v>
@@ -9091,8 +9163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:BN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9442,7 +9514,7 @@
         <v>485</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>74</v>
@@ -9549,7 +9621,7 @@
         <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>74</v>
@@ -9759,7 +9831,7 @@
         <v>485</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>74</v>
@@ -9780,7 +9852,7 @@
         <v>123</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>124</v>
@@ -9955,7 +10027,7 @@
         <v>485</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>74</v>
@@ -10367,7 +10439,7 @@
         <v>485</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L10" s="31" t="s">
         <v>74</v>
@@ -10388,7 +10460,7 @@
         <v>123</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S10" s="31" t="s">
         <v>124</v>
@@ -11580,10 +11652,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
-  <dimension ref="A1:AR23"/>
+  <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11629,7 +11701,7 @@
     <col min="40" max="40" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11646,7 +11718,7 @@
         <v>429</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>430</v>
@@ -11670,10 +11742,10 @@
         <v>26</v>
       </c>
       <c r="N1" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>617</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>618</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>437</v>
@@ -11682,13 +11754,13 @@
         <v>107</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>621</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>426</v>
@@ -11759,11 +11831,8 @@
       <c r="AQ1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="AR1" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -11838,7 +11907,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -11852,7 +11921,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>483</v>
@@ -11870,7 +11939,7 @@
         <v>495</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>279</v>
@@ -11895,7 +11964,7 @@
         <v>590</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>123</v>
@@ -11967,7 +12036,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -11981,7 +12050,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>483</v>
@@ -11999,7 +12068,7 @@
         <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>279</v>
@@ -12092,7 +12161,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -12106,7 +12175,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>483</v>
@@ -12124,7 +12193,7 @@
         <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>279</v>
@@ -12217,7 +12286,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -12231,7 +12300,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>483</v>
@@ -12249,7 +12318,7 @@
         <v>495</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>279</v>
@@ -12342,7 +12411,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>104</v>
       </c>
@@ -12463,7 +12532,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -12477,7 +12546,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>483</v>
@@ -12544,7 +12613,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -12555,7 +12624,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>498</v>
@@ -12628,7 +12697,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -12713,7 +12782,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>4</v>
       </c>
@@ -12727,7 +12796,7 @@
         <v>123</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>483</v>
@@ -12745,7 +12814,7 @@
         <v>495</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L11" s="31" t="s">
         <v>279</v>
@@ -12770,7 +12839,7 @@
         <v>590</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U11" s="31" t="s">
         <v>123</v>
@@ -12841,8 +12910,15 @@
       <c r="AQ11" s="30" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -12884,7 +12960,7 @@
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -12926,7 +13002,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -12968,7 +13044,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -13010,7 +13086,7 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -13262,7 +13338,7 @@
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -13304,7 +13380,7 @@
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -13356,8 +13432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13452,55 +13528,55 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31">
         <v>2</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="G3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32">
-        <v>1</v>
-      </c>
-      <c r="C4" s="32">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="31">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="31" t="s">
@@ -13515,27 +13591,27 @@
       <c r="H4" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="I4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="46" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32">
-        <v>1</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="B5" s="31">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31">
         <v>2</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>102</v>
       </c>
       <c r="E5" s="31" t="s">
@@ -13550,13 +13626,13 @@
       <c r="H5" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="46" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13615,13 +13691,9 @@
       <c r="K7" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="L7" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13629,8 +13701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13685,13 +13757,13 @@
         <v>515</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N1" s="42" t="s">
         <v>516</v>
@@ -13703,7 +13775,7 @@
         <v>518</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R1" s="42" t="s">
         <v>519</v>
@@ -13712,10 +13784,10 @@
         <v>520</v>
       </c>
       <c r="T1" s="42" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U1" s="42" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="V1" s="42" t="s">
         <v>25</v>
@@ -13724,7 +13796,7 @@
         <v>553</v>
       </c>
       <c r="X1" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -13762,73 +13834,74 @@
         <v>123</v>
       </c>
       <c r="T2" s="7"/>
+      <c r="U2" s="12"/>
       <c r="X2" s="7"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="F3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="R3" s="12" t="s">
+      <c r="P3" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" s="12" t="s">
+      <c r="S3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>124</v>
       </c>
       <c r="X3" s="7"/>
@@ -13880,10 +13953,10 @@
         <v>593</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>68</v>
@@ -13893,6 +13966,9 @@
       </c>
       <c r="T4" s="29" t="s">
         <v>124</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>632</v>
       </c>
       <c r="V4" s="29" t="s">
         <v>124</v>
@@ -13982,10 +14058,10 @@
         <v>593</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>68</v>
@@ -13996,6 +14072,9 @@
       <c r="T6" s="12" t="s">
         <v>124</v>
       </c>
+      <c r="U6" s="12" t="s">
+        <v>632</v>
+      </c>
       <c r="V6" s="12" t="s">
         <v>124</v>
       </c>
@@ -14003,7 +14082,7 @@
         <v>124</v>
       </c>
       <c r="X6" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -14248,7 +14327,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14323,52 +14402,52 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -14542,7 +14621,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14595,7 +14674,7 @@
         <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14652,7 +14731,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14679,7 +14758,7 @@
         <v>550</v>
       </c>
       <c r="F1" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="G1" t="s">
         <v>551</v>
@@ -14694,11 +14773,11 @@
         <v>350</v>
       </c>
       <c r="K1" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -14947,7 +15026,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15002,27 +15081,27 @@
         <v>592</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>595</v>
+      <c r="F3" s="33" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -15032,8 +15111,8 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>630</v>
       </c>
       <c r="D4" t="s">
         <v>123</v>
@@ -15042,7 +15121,7 @@
         <v>592</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -15062,7 +15141,7 @@
         <v>592</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -15082,7 +15161,7 @@
         <v>592</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -15102,7 +15181,7 @@
         <v>592</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -15122,7 +15201,7 @@
         <v>592</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -15135,7 +15214,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A6" sqref="A6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15178,65 +15257,65 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="E3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -15281,13 +15360,13 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -15296,27 +15375,27 @@
       <c r="E6" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="F6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
@@ -15325,22 +15404,21 @@
       <c r="E7" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15348,8 +15426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15390,55 +15468,55 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>74</v>
       </c>
     </row>
@@ -15963,7 +16041,7 @@
   <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16071,7 +16149,7 @@
         <v>141</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>142</v>
@@ -16121,61 +16199,55 @@
       <c r="AL1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="AM1" t="s">
-        <v>634</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:40" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD2" s="19"/>
-    </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="44"/>
+    </row>
+    <row r="3" spans="1:40" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" t="s">
-        <v>123</v>
-      </c>
-      <c r="W3" s="19"/>
-      <c r="AD3" s="24"/>
+      <c r="D3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="W3" s="44"/>
+      <c r="AD3" s="45"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -16200,12 +16272,12 @@
         <v>123</v>
       </c>
       <c r="W4" s="24"/>
-      <c r="AD4" s="19"/>
+      <c r="AD4" s="6"/>
       <c r="AM4" t="s">
         <v>124</v>
       </c>
       <c r="AN4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16231,12 +16303,12 @@
         <v>121</v>
       </c>
       <c r="W5" s="24"/>
-      <c r="AD5" s="19"/>
+      <c r="AD5" s="6"/>
       <c r="AM5" t="s">
         <v>124</v>
       </c>
       <c r="AN5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16312,40 +16384,40 @@
         <v>66</v>
       </c>
       <c r="W8" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="X8" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="Y8" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="Z8" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="AA8" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AB8" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="AB8" s="6" t="s">
+      <c r="AC8" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AD8" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE8" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="AD8" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AG8" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AH8" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="AI8" s="19" t="s">
         <v>66</v>
@@ -16354,10 +16426,10 @@
         <v>66</v>
       </c>
       <c r="AK8" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="AL8" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16377,7 +16449,7 @@
         <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>630</v>
       </c>
       <c r="G9" t="s">
         <v>123</v>
@@ -16396,8 +16468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16610,8 +16682,8 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="1" t="s">
-        <v>631</v>
+      <c r="G3" s="7" t="s">
+        <v>635</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -16988,15 +17060,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -17213,7 +17276,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -17223,15 +17286,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17250,7 +17314,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17258,4 +17322,12 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\UPLOAD TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109B275-B571-4A63-A3B5-D30D00D2F7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9193CA-3E92-4755-A21D-C7753F248895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="642">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1988,9 +1988,6 @@
   </si>
   <si>
     <t>SCP_ID6</t>
-  </si>
-  <si>
-    <t>SCP_ID7</t>
   </si>
   <si>
     <t>SCP_ID5</t>
@@ -5945,7 +5942,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7046,7 +7043,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7133,8 +7130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7533,7 +7530,7 @@
         <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -7565,7 +7562,7 @@
         <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -7597,7 +7594,7 @@
         <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -7628,7 +7625,7 @@
         <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -12411,7 +12408,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>104</v>
       </c>
@@ -13254,7 +13251,7 @@
       <c r="AM19" s="8"/>
       <c r="AN19" s="8"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -13296,7 +13293,7 @@
       <c r="AM20" s="8"/>
       <c r="AN20" s="8"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -14758,7 +14755,7 @@
         <v>550</v>
       </c>
       <c r="F1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G1" t="s">
         <v>551</v>
@@ -14773,7 +14770,7 @@
         <v>350</v>
       </c>
       <c r="K1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -15426,7 +15423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -16040,8 +16037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16447,9 +16444,6 @@
       </c>
       <c r="E9" t="s">
         <v>123</v>
-      </c>
-      <c r="F9" t="s">
-        <v>630</v>
       </c>
       <c r="G9" t="s">
         <v>123</v>
@@ -17060,6 +17054,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -17276,16 +17280,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17296,6 +17290,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17314,16 +17318,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A1D901-CE19-4228-A14B-6092C19319BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F58AF-0CB6-45D0-80C5-47274462FB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="28" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="642">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1975,12 +1975,6 @@
     <t>Recalled</t>
   </si>
   <si>
-    <t>CSE_BTN</t>
-  </si>
-  <si>
-    <t>CSE_TAB</t>
-  </si>
-  <si>
     <t>COMMENTS_RECALL</t>
   </si>
   <si>
@@ -2000,6 +1994,9 @@
   </si>
   <si>
     <t>personName4</t>
+  </si>
+  <si>
+    <t>This record is locked while pending approval. Please recall your submission if modifications are needed.</t>
   </si>
 </sst>
 </file>
@@ -2998,11 +2995,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
-  <dimension ref="A1:DG13"/>
+  <dimension ref="A1:DH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV1" sqref="CV1"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CU7" sqref="CU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3089,17 +3086,17 @@
     <col min="92" max="92" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="95" max="98" width="21.54296875" customWidth="1"/>
-    <col min="99" max="99" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="99" width="21.54296875" customWidth="1"/>
+    <col min="100" max="100" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:112" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3395,13 +3392,16 @@
         <v>580</v>
       </c>
       <c r="CU1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="CV1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="CW1" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:111" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:112" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>121</v>
       </c>
@@ -3572,12 +3572,13 @@
       <c r="CR2" s="15"/>
       <c r="CS2" s="15"/>
       <c r="CT2" s="15"/>
-      <c r="CU2" s="17" t="s">
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="CV2" s="15"/>
-    </row>
-    <row r="3" spans="1:111" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="CW2" s="15"/>
+    </row>
+    <row r="3" spans="1:112" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
@@ -3864,13 +3865,13 @@
       <c r="CR3" s="25"/>
       <c r="CS3" s="25"/>
       <c r="CT3" s="25"/>
-      <c r="CU3" s="25" t="s">
+      <c r="CU3" s="25"/>
+      <c r="CV3" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="CV3" s="25" t="s">
+      <c r="CW3" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="CW3" s="26"/>
       <c r="CX3" s="26"/>
       <c r="CY3" s="26"/>
       <c r="CZ3" s="26"/>
@@ -3881,8 +3882,9 @@
       <c r="DE3" s="26"/>
       <c r="DF3" s="26"/>
       <c r="DG3" s="26"/>
-    </row>
-    <row r="4" spans="1:111" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="DH3" s="26"/>
+    </row>
+    <row r="4" spans="1:112" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>4</v>
       </c>
@@ -4169,13 +4171,13 @@
       <c r="CR4" s="29"/>
       <c r="CS4" s="29"/>
       <c r="CT4" s="29"/>
-      <c r="CU4" s="29" t="s">
+      <c r="CU4" s="29"/>
+      <c r="CV4" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="CV4" s="29" t="s">
+      <c r="CW4" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="CW4" s="31"/>
       <c r="CX4" s="31"/>
       <c r="CY4" s="31"/>
       <c r="CZ4" s="31"/>
@@ -4186,8 +4188,9 @@
       <c r="DE4" s="31"/>
       <c r="DF4" s="31"/>
       <c r="DG4" s="31"/>
-    </row>
-    <row r="5" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DH4" s="31"/>
+    </row>
+    <row r="5" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -4360,14 +4363,15 @@
       <c r="CR5" s="8"/>
       <c r="CS5" s="8"/>
       <c r="CT5" s="8"/>
-      <c r="CU5" s="8" t="s">
+      <c r="CU5" s="8"/>
+      <c r="CV5" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="CV5" s="8" t="s">
+      <c r="CW5" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>74</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>74</v>
@@ -4540,14 +4544,15 @@
       <c r="CR6" s="8"/>
       <c r="CS6" s="8"/>
       <c r="CT6" s="8"/>
-      <c r="CU6" s="8" t="s">
+      <c r="CU6" s="8"/>
+      <c r="CV6" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="CV6" s="8" t="s">
+      <c r="CW6" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -4591,7 +4596,7 @@
         <v>74</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>74</v>
@@ -4719,13 +4724,16 @@
       <c r="CS7" s="8"/>
       <c r="CT7" s="8"/>
       <c r="CU7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="CV7" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="CV7" s="8" t="s">
+      <c r="CW7" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>283</v>
       </c>
@@ -4878,8 +4886,9 @@
       <c r="CR8" s="8"/>
       <c r="CS8" s="8"/>
       <c r="CT8" s="8"/>
-    </row>
-    <row r="9" spans="1:111" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CU8" s="8"/>
+    </row>
+    <row r="9" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
@@ -5082,13 +5091,13 @@
       <c r="CT9" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="CU9" s="48" t="s">
+      <c r="CU9" s="45"/>
+      <c r="CV9" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="CV9" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="CW9" s="45"/>
+      <c r="CW9" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="CX9" s="45"/>
       <c r="CY9" s="45"/>
       <c r="CZ9" s="45"/>
@@ -5099,8 +5108,9 @@
       <c r="DE9" s="45"/>
       <c r="DF9" s="45"/>
       <c r="DG9" s="45"/>
-    </row>
-    <row r="10" spans="1:111" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DH9" s="45"/>
+    </row>
+    <row r="10" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>7</v>
       </c>
@@ -5395,13 +5405,13 @@
       <c r="CT10" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="CU10" s="48" t="s">
+      <c r="CU10" s="45"/>
+      <c r="CV10" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="CV10" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="CW10" s="45"/>
+      <c r="CW10" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="CX10" s="45"/>
       <c r="CY10" s="45"/>
       <c r="CZ10" s="45"/>
@@ -5412,8 +5422,9 @@
       <c r="DE10" s="45"/>
       <c r="DF10" s="45"/>
       <c r="DG10" s="45"/>
-    </row>
-    <row r="11" spans="1:111" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DH10" s="45"/>
+    </row>
+    <row r="11" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="45" t="s">
         <v>7</v>
       </c>
@@ -5616,13 +5627,13 @@
       <c r="CT11" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="CU11" s="48" t="s">
+      <c r="CU11" s="45"/>
+      <c r="CV11" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="CV11" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="CW11" s="45"/>
+      <c r="CW11" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="CX11" s="45"/>
       <c r="CY11" s="45"/>
       <c r="CZ11" s="45"/>
@@ -5633,8 +5644,9 @@
       <c r="DE11" s="45"/>
       <c r="DF11" s="45"/>
       <c r="DG11" s="45"/>
-    </row>
-    <row r="12" spans="1:111" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DH11" s="45"/>
+    </row>
+    <row r="12" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
         <v>7</v>
       </c>
@@ -5929,13 +5941,13 @@
       <c r="CT12" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="CU12" s="48" t="s">
+      <c r="CU12" s="45"/>
+      <c r="CV12" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="CV12" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="CW12" s="45"/>
+      <c r="CW12" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="CX12" s="45"/>
       <c r="CY12" s="45"/>
       <c r="CZ12" s="45"/>
@@ -5946,8 +5958,9 @@
       <c r="DE12" s="45"/>
       <c r="DF12" s="45"/>
       <c r="DG12" s="45"/>
-    </row>
-    <row r="13" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DH12" s="45"/>
+    </row>
+    <row r="13" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
@@ -6112,13 +6125,13 @@
       <c r="CR13" s="1"/>
       <c r="CS13" s="1"/>
       <c r="CT13" s="1"/>
-      <c r="CU13" s="8" t="s">
+      <c r="CU13" s="1"/>
+      <c r="CV13" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="CV13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="CW13" s="1"/>
+      <c r="CW13" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="CX13" s="1"/>
       <c r="CY13" s="1"/>
       <c r="CZ13" s="1"/>
@@ -6129,6 +6142,7 @@
       <c r="DE13" s="1"/>
       <c r="DF13" s="1"/>
       <c r="DG13" s="1"/>
+      <c r="DH13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6139,10 +6153,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6166,7 +6180,7 @@
     <col min="18" max="18" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6221,17 +6235,9 @@
       <c r="R1" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -6257,7 +6263,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -6283,7 +6289,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6314,11 +6320,9 @@
       <c r="J4" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="U4" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -6382,7 +6386,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -6414,7 +6418,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -6440,19 +6444,14 @@
         <v>123</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="S8" t="s">
-        <v>124</v>
-      </c>
-      <c r="T8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -6491,10 +6490,8 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-    </row>
-    <row r="10" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -6527,10 +6524,8 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6563,10 +6558,8 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -6590,7 +6583,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>4</v>
       </c>
@@ -6629,10 +6622,8 @@
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
       <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>4</v>
       </c>
@@ -6671,10 +6662,8 @@
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>4</v>
       </c>
@@ -6713,10 +6702,8 @@
       <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>4</v>
       </c>
@@ -6755,8 +6742,6 @@
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
     </row>
     <row r="17" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
@@ -9409,7 +9394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BO27"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BO5" sqref="BO5"/>
     </sheetView>
   </sheetViews>
@@ -9869,7 +9854,7 @@
         <v>279</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>622</v>
@@ -9975,7 +9960,7 @@
         <v>121</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>121</v>
@@ -12009,7 +11994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AS9" sqref="AS9"/>
     </sheetView>
   </sheetViews>
@@ -14056,8 +14041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14727,7 +14712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -15132,7 +15117,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15159,7 +15144,7 @@
         <v>550</v>
       </c>
       <c r="F1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G1" t="s">
         <v>551</v>
@@ -15174,7 +15159,7 @@
         <v>350</v>
       </c>
       <c r="K1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -15827,7 +15812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -16601,7 +16586,7 @@
         <v>157</v>
       </c>
       <c r="AM1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16891,8 +16876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17114,6 +17099,12 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
@@ -17519,25 +17510,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -17754,25 +17726,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17789,4 +17762,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\UPLOAD TEST\12dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F58AF-0CB6-45D0-80C5-47274462FB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8F99FD-2A26-4F38-8821-8C1739197AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="642">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1099,9 +1099,6 @@
   </si>
   <si>
     <t>Boardman</t>
-  </si>
-  <si>
-    <t>CALLBACK_DATE</t>
   </si>
   <si>
     <t>STAFF_PERSONS</t>
@@ -1972,28 +1969,31 @@
     <t>testdoc.txt</t>
   </si>
   <si>
+    <t>SCR_ID1</t>
+  </si>
+  <si>
+    <t>SCR_ID2</t>
+  </si>
+  <si>
     <t>Recalled</t>
   </si>
   <si>
+    <t>CSE_BTN</t>
+  </si>
+  <si>
+    <t>CSE_TAB</t>
+  </si>
+  <si>
     <t>COMMENTS_RECALL</t>
   </si>
   <si>
-    <t>RECALL_BTN</t>
-  </si>
-  <si>
-    <t>SEARCH</t>
-  </si>
-  <si>
-    <t>Written</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>personName4</t>
+    <t>CALLBACK_DATE_TIME</t>
+  </si>
+  <si>
+    <t>RECALL_BUTTON</t>
+  </si>
+  <si>
+    <t>CAPTURE_SCRID</t>
   </si>
   <si>
     <t>This record is locked while pending approval. Please recall your submission if modifications are needed.</t>
@@ -2164,7 +2164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2224,13 +2224,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2998,8 +2993,8 @@
   <dimension ref="A1:DH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CU7" sqref="CU7"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3039,54 +3034,55 @@
     <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.453125" customWidth="1"/>
-    <col min="43" max="43" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="26.453125" customWidth="1"/>
-    <col min="52" max="52" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23.54296875" customWidth="1"/>
-    <col min="54" max="54" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="23.54296875" customWidth="1"/>
-    <col min="57" max="57" width="26.453125" customWidth="1"/>
-    <col min="58" max="58" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="61" max="65" width="26.453125" customWidth="1"/>
-    <col min="66" max="66" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="69" max="71" width="28.453125" customWidth="1"/>
-    <col min="72" max="72" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="28.453125" customWidth="1"/>
-    <col min="74" max="74" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="77" width="28.453125" customWidth="1"/>
-    <col min="78" max="78" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="22" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="22.54296875" customWidth="1"/>
-    <col min="89" max="89" width="12" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="17" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="22.54296875" customWidth="1"/>
-    <col min="92" max="92" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="95" max="99" width="21.54296875" customWidth="1"/>
+    <col min="37" max="37" width="19.26953125" customWidth="1"/>
+    <col min="38" max="38" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.453125" customWidth="1"/>
+    <col min="44" max="44" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="26.453125" customWidth="1"/>
+    <col min="53" max="53" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.54296875" customWidth="1"/>
+    <col min="55" max="55" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="23.54296875" customWidth="1"/>
+    <col min="58" max="58" width="26.453125" customWidth="1"/>
+    <col min="59" max="59" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="62" max="66" width="26.453125" customWidth="1"/>
+    <col min="67" max="67" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="28.453125" customWidth="1"/>
+    <col min="73" max="73" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="28.453125" customWidth="1"/>
+    <col min="75" max="75" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="78" width="28.453125" customWidth="1"/>
+    <col min="79" max="79" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="22" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="22.54296875" customWidth="1"/>
+    <col min="90" max="90" width="12" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="17" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="22.54296875" customWidth="1"/>
+    <col min="93" max="93" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="96" max="99" width="21.54296875" customWidth="1"/>
     <col min="100" max="100" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="57.54296875" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="34.54296875" bestFit="1" customWidth="1"/>
@@ -3205,194 +3201,194 @@
       <c r="AJ1" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="38" t="s">
+        <v>640</v>
+      </c>
+      <c r="AL1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BE1" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BG1" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BH1" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BI1" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BK1" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BL1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BM1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BN1" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BO1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BP1" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BS1" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="BT1" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BU1" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BV1" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BW1" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BX1" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="CA1" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CB1" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CC1" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CD1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CE1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CF1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CG1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CH1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CI1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CK1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CL1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CM1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CN1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CO1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CP1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CR1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CS1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="CT1" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="CT1" s="8" t="s">
-        <v>580</v>
-      </c>
       <c r="CU1" s="8" t="s">
-        <v>214</v>
+        <v>579</v>
       </c>
       <c r="CV1" s="8" t="s">
         <v>271</v>
@@ -3510,7 +3506,9 @@
       <c r="AJ2" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="AK2" s="15"/>
+      <c r="AK2" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="AL2" s="15"/>
       <c r="AM2" s="15"/>
       <c r="AN2" s="15"/>
@@ -3687,8 +3685,8 @@
       <c r="AJ3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="AK3" s="25" t="s">
-        <v>124</v>
+      <c r="AK3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AL3" s="25" t="s">
         <v>124</v>
@@ -3700,7 +3698,7 @@
         <v>124</v>
       </c>
       <c r="AO3" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AP3" s="25" t="s">
         <v>121</v>
@@ -3739,19 +3737,19 @@
         <v>121</v>
       </c>
       <c r="BB3" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BC3" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BD3" s="25" t="s">
         <v>121</v>
       </c>
       <c r="BE3" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BF3" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BG3" s="25" t="s">
         <v>121</v>
@@ -3820,10 +3818,10 @@
         <v>121</v>
       </c>
       <c r="CC3" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="CD3" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CE3" s="25" t="s">
         <v>121</v>
@@ -3856,12 +3854,14 @@
         <v>121</v>
       </c>
       <c r="CO3" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="CP3" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="CQ3" s="25"/>
+      <c r="CQ3" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="CR3" s="25"/>
       <c r="CS3" s="25"/>
       <c r="CT3" s="25"/>
@@ -3993,8 +3993,8 @@
       <c r="AJ4" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="AK4" s="29" t="s">
-        <v>124</v>
+      <c r="AK4" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AL4" s="29" t="s">
         <v>124</v>
@@ -4006,7 +4006,7 @@
         <v>124</v>
       </c>
       <c r="AO4" s="29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AP4" s="29" t="s">
         <v>121</v>
@@ -4054,10 +4054,10 @@
         <v>121</v>
       </c>
       <c r="BE4" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BF4" s="29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BG4" s="29" t="s">
         <v>121</v>
@@ -4162,12 +4162,14 @@
         <v>121</v>
       </c>
       <c r="CO4" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="CP4" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="CQ4" s="29"/>
+      <c r="CQ4" s="29" t="s">
+        <v>124</v>
+      </c>
       <c r="CR4" s="29"/>
       <c r="CS4" s="29"/>
       <c r="CT4" s="29"/>
@@ -4269,19 +4271,19 @@
       <c r="Z5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB5" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC5" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD5" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE5" s="45" t="s">
+      <c r="AA5" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE5" s="8" t="s">
         <v>121</v>
       </c>
       <c r="AF5" s="8" t="s">
@@ -4299,7 +4301,9 @@
       <c r="AJ5" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AK5" s="8"/>
+      <c r="AK5" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
@@ -4319,10 +4323,10 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
-      <c r="BE5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
       <c r="BI5" s="8"/>
@@ -4393,14 +4397,14 @@
       <c r="G6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="53" t="s">
-        <v>284</v>
+      <c r="H6" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="53" t="s">
-        <v>124</v>
+      <c r="J6" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>74</v>
@@ -4415,7 +4419,7 @@
         <v>74</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>638</v>
+        <v>279</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>74</v>
@@ -4450,19 +4454,19 @@
       <c r="Z6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA6" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB6" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC6" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD6" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE6" s="45" t="s">
+      <c r="AA6" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE6" s="8" t="s">
         <v>121</v>
       </c>
       <c r="AF6" s="8" t="s">
@@ -4480,7 +4484,9 @@
       <c r="AJ6" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AK6" s="8"/>
+      <c r="AK6" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
@@ -4500,10 +4506,10 @@
       <c r="BB6" s="8"/>
       <c r="BC6" s="8"/>
       <c r="BD6" s="8"/>
-      <c r="BE6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="BG6" s="8"/>
       <c r="BH6" s="8"/>
       <c r="BI6" s="8"/>
@@ -4554,49 +4560,41 @@
     </row>
     <row r="7" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>74</v>
+        <v>124</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>74</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>639</v>
+        <v>279</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>74</v>
@@ -4631,37 +4629,29 @@
       <c r="Z7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA7" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB7" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC7" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD7" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE7" s="45" t="s">
-        <v>74</v>
-      </c>
+      <c r="AA7" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
       <c r="AF7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
       <c r="AJ7" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AK7" s="8"/>
+      <c r="AK7" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
@@ -4723,170 +4713,231 @@
       <c r="CR7" s="8"/>
       <c r="CS7" s="8"/>
       <c r="CT7" s="8"/>
-      <c r="CU7" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="CV7" s="8" t="s">
+      <c r="CU7" s="8"/>
+    </row>
+    <row r="8" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45">
+        <v>1</v>
+      </c>
+      <c r="C8" s="45">
+        <v>1</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF8" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI8" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
+      <c r="AZ8" s="45"/>
+      <c r="BA8" s="45"/>
+      <c r="BB8" s="45"/>
+      <c r="BC8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD8" s="45"/>
+      <c r="BE8" s="45"/>
+      <c r="BF8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG8" s="45"/>
+      <c r="BH8" s="45"/>
+      <c r="BI8" s="45"/>
+      <c r="BJ8" s="45"/>
+      <c r="BK8" s="45"/>
+      <c r="BL8" s="45"/>
+      <c r="BM8" s="45"/>
+      <c r="BN8" s="45"/>
+      <c r="BO8" s="45"/>
+      <c r="BP8" s="45"/>
+      <c r="BQ8" s="45"/>
+      <c r="BR8" s="45"/>
+      <c r="BS8" s="45"/>
+      <c r="BT8" s="45"/>
+      <c r="BU8" s="45"/>
+      <c r="BV8" s="45"/>
+      <c r="BW8" s="45"/>
+      <c r="BX8" s="45"/>
+      <c r="BY8" s="45"/>
+      <c r="BZ8" s="45"/>
+      <c r="CA8" s="45"/>
+      <c r="CB8" s="45"/>
+      <c r="CC8" s="45"/>
+      <c r="CD8" s="45"/>
+      <c r="CE8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="CF8" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CG8" s="45"/>
+      <c r="CH8" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CI8" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CJ8" s="45"/>
+      <c r="CK8" s="45"/>
+      <c r="CL8" s="45"/>
+      <c r="CM8" s="45"/>
+      <c r="CN8" s="45"/>
+      <c r="CO8" s="45"/>
+      <c r="CP8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ8" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CR8" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CS8" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CT8" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CU8" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CV8" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="CW7" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="8"/>
-      <c r="BJ8" s="8"/>
-      <c r="BK8" s="8"/>
-      <c r="BL8" s="8"/>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="8"/>
-      <c r="BO8" s="8"/>
-      <c r="BP8" s="8"/>
-      <c r="BQ8" s="8"/>
-      <c r="BR8" s="8"/>
-      <c r="BS8" s="8"/>
-      <c r="BT8" s="8"/>
-      <c r="BU8" s="8"/>
-      <c r="BV8" s="8"/>
-      <c r="BW8" s="8"/>
-      <c r="BX8" s="8"/>
-      <c r="BY8" s="8"/>
-      <c r="BZ8" s="8"/>
-      <c r="CA8" s="8"/>
-      <c r="CB8" s="8"/>
-      <c r="CC8" s="8"/>
-      <c r="CD8" s="8"/>
-      <c r="CE8" s="8"/>
-      <c r="CF8" s="8"/>
-      <c r="CG8" s="8"/>
-      <c r="CH8" s="8"/>
-      <c r="CI8" s="8"/>
-      <c r="CJ8" s="8"/>
-      <c r="CK8" s="8"/>
-      <c r="CL8" s="8"/>
-      <c r="CM8" s="8"/>
-      <c r="CN8" s="8"/>
-      <c r="CO8" s="8"/>
-      <c r="CP8" s="8"/>
-      <c r="CQ8" s="8"/>
-      <c r="CR8" s="8"/>
-      <c r="CS8" s="8"/>
-      <c r="CT8" s="8"/>
-      <c r="CU8" s="8"/>
+      <c r="CW8" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX8" s="45"/>
+      <c r="CY8" s="45"/>
+      <c r="CZ8" s="45"/>
+      <c r="DA8" s="45"/>
+      <c r="DB8" s="45"/>
+      <c r="DC8" s="45"/>
+      <c r="DD8" s="45"/>
+      <c r="DE8" s="45"/>
+      <c r="DF8" s="45"/>
+      <c r="DG8" s="45"/>
+      <c r="DH8" s="45"/>
     </row>
     <row r="9" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
@@ -4896,28 +4947,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I9" s="45" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>74</v>
@@ -4980,7 +5031,7 @@
         <v>121</v>
       </c>
       <c r="AE9" s="45" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AF9" s="45" t="s">
         <v>274</v>
@@ -4994,90 +5045,182 @@
       <c r="AI9" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45" t="s">
-        <v>124</v>
+      <c r="AJ9" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK9" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AL9" s="45" t="s">
         <v>124</v>
       </c>
       <c r="AM9" s="45" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AN9" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
+      <c r="AO9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP9" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="AQ9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="AR9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA9" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="BB9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="BC9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD9" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="BE9" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF9" s="45"/>
-      <c r="BG9" s="45"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="45"/>
-      <c r="BL9" s="45"/>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="45"/>
-      <c r="BO9" s="45"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BR9" s="45"/>
-      <c r="BS9" s="45"/>
-      <c r="BT9" s="45"/>
-      <c r="BU9" s="45"/>
-      <c r="BV9" s="45"/>
-      <c r="BW9" s="45"/>
-      <c r="BX9" s="45"/>
-      <c r="BY9" s="45"/>
-      <c r="BZ9" s="45"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="45"/>
-      <c r="CC9" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="BF9" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC9" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="CD9" s="45" t="s">
         <v>124</v>
       </c>
       <c r="CE9" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CF9" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="CF9" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="CG9" s="45" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="CH9" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CI9" s="45"/>
-      <c r="CJ9" s="45"/>
-      <c r="CK9" s="45"/>
-      <c r="CL9" s="45"/>
-      <c r="CM9" s="45"/>
-      <c r="CN9" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="CI9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN9" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="CO9" s="45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="CP9" s="45" t="s">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c r="CQ9" s="45" t="s">
         <v>285</v>
@@ -5091,7 +5234,9 @@
       <c r="CT9" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="CU9" s="45"/>
+      <c r="CU9" s="45" t="s">
+        <v>285</v>
+      </c>
       <c r="CV9" s="48" t="s">
         <v>275</v>
       </c>
@@ -5115,31 +5260,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I10" s="45" t="s">
         <v>121</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>74</v>
@@ -5202,7 +5347,7 @@
         <v>121</v>
       </c>
       <c r="AE10" s="45" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AF10" s="45" t="s">
         <v>274</v>
@@ -5216,14 +5361,12 @@
       <c r="AI10" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="AJ10" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK10" s="45" t="s">
-        <v>124</v>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AL10" s="45" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AM10" s="45" t="s">
         <v>124</v>
@@ -5232,166 +5375,76 @@
         <v>124</v>
       </c>
       <c r="AO10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ10" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="45"/>
       <c r="AR10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB10" s="45" t="s">
-        <v>124</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AS10" s="45"/>
+      <c r="AT10" s="45"/>
+      <c r="AU10" s="45"/>
+      <c r="AV10" s="45"/>
+      <c r="AW10" s="45"/>
+      <c r="AX10" s="45"/>
+      <c r="AY10" s="45"/>
+      <c r="AZ10" s="45"/>
+      <c r="BA10" s="45"/>
+      <c r="BB10" s="45"/>
       <c r="BC10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE10" s="45" t="s">
-        <v>74</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="BD10" s="45"/>
+      <c r="BE10" s="45"/>
       <c r="BF10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BQ10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="CD10" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="BG10" s="45"/>
+      <c r="BH10" s="45"/>
+      <c r="BI10" s="45"/>
+      <c r="BJ10" s="45"/>
+      <c r="BK10" s="45"/>
+      <c r="BL10" s="45"/>
+      <c r="BM10" s="45"/>
+      <c r="BN10" s="45"/>
+      <c r="BO10" s="45"/>
+      <c r="BP10" s="45"/>
+      <c r="BQ10" s="45"/>
+      <c r="BR10" s="45"/>
+      <c r="BS10" s="45"/>
+      <c r="BT10" s="45"/>
+      <c r="BU10" s="45"/>
+      <c r="BV10" s="45"/>
+      <c r="BW10" s="45"/>
+      <c r="BX10" s="45"/>
+      <c r="BY10" s="45"/>
+      <c r="BZ10" s="45"/>
+      <c r="CA10" s="45"/>
+      <c r="CB10" s="45"/>
+      <c r="CC10" s="45"/>
+      <c r="CD10" s="45"/>
       <c r="CE10" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CF10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG10" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="CG10" s="45"/>
       <c r="CH10" s="45" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="CI10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO10" s="45" t="s">
-        <v>124</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="CJ10" s="45"/>
+      <c r="CK10" s="45"/>
+      <c r="CL10" s="45"/>
+      <c r="CM10" s="45"/>
+      <c r="CN10" s="45"/>
+      <c r="CO10" s="45"/>
       <c r="CP10" s="45" t="s">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c r="CQ10" s="45" t="s">
         <v>285</v>
@@ -5405,7 +5458,9 @@
       <c r="CT10" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="CU10" s="45"/>
+      <c r="CU10" s="45" t="s">
+        <v>285</v>
+      </c>
       <c r="CV10" s="48" t="s">
         <v>275</v>
       </c>
@@ -5432,28 +5487,28 @@
         <v>2</v>
       </c>
       <c r="C11" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I11" s="45" t="s">
         <v>121</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>74</v>
@@ -5516,7 +5571,7 @@
         <v>121</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AF11" s="45" t="s">
         <v>274</v>
@@ -5530,90 +5585,182 @@
       <c r="AI11" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45" t="s">
-        <v>124</v>
+      <c r="AJ11" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK11" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AL11" s="45" t="s">
         <v>124</v>
       </c>
       <c r="AM11" s="45" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AN11" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
+      <c r="AO11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP11" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="AQ11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="AR11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA11" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="BB11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="BC11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD11" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="BE11" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF11" s="45"/>
-      <c r="BG11" s="45"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="45"/>
-      <c r="BK11" s="45"/>
-      <c r="BL11" s="45"/>
-      <c r="BM11" s="45"/>
-      <c r="BN11" s="45"/>
-      <c r="BO11" s="45"/>
-      <c r="BP11" s="45"/>
-      <c r="BQ11" s="45"/>
-      <c r="BR11" s="45"/>
-      <c r="BS11" s="45"/>
-      <c r="BT11" s="45"/>
-      <c r="BU11" s="45"/>
-      <c r="BV11" s="45"/>
-      <c r="BW11" s="45"/>
-      <c r="BX11" s="45"/>
-      <c r="BY11" s="45"/>
-      <c r="BZ11" s="45"/>
-      <c r="CA11" s="45"/>
-      <c r="CB11" s="45"/>
-      <c r="CC11" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="BF11" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ11" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC11" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="CD11" s="45" t="s">
         <v>124</v>
       </c>
       <c r="CE11" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CF11" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="CF11" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="CG11" s="45" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="CH11" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CI11" s="45"/>
-      <c r="CJ11" s="45"/>
-      <c r="CK11" s="45"/>
-      <c r="CL11" s="45"/>
-      <c r="CM11" s="45"/>
-      <c r="CN11" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="CI11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN11" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="CO11" s="45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="CP11" s="45" t="s">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c r="CQ11" s="45" t="s">
         <v>285</v>
@@ -5627,7 +5774,9 @@
       <c r="CT11" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="CU11" s="45"/>
+      <c r="CU11" s="45" t="s">
+        <v>285</v>
+      </c>
       <c r="CV11" s="48" t="s">
         <v>275</v>
       </c>
@@ -5647,502 +5796,636 @@
       <c r="DH11" s="45"/>
     </row>
     <row r="12" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="45">
-        <v>2</v>
-      </c>
-      <c r="C12" s="45">
-        <v>2</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="45" t="s">
+      <c r="A12" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="53">
+        <v>1</v>
+      </c>
+      <c r="C12" s="53">
+        <v>1</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="P12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="S12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="T12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="W12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="X12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF12" s="45" t="s">
+      <c r="P12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="X12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="AG12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI12" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ12" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK12" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM12" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN12" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB12" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP12" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BQ12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC12" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="CD12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN12" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO12" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="CP12" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CQ12" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CR12" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CS12" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CT12" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CU12" s="45"/>
+      <c r="AG12" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI12" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ12" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK12" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL12" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU12" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="CV12" s="48" t="s">
         <v>275</v>
       </c>
       <c r="CW12" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="CX12" s="45"/>
-      <c r="CY12" s="45"/>
-      <c r="CZ12" s="45"/>
-      <c r="DA12" s="45"/>
-      <c r="DB12" s="45"/>
-      <c r="DC12" s="45"/>
-      <c r="DD12" s="45"/>
-      <c r="DE12" s="45"/>
-      <c r="DF12" s="45"/>
-      <c r="DG12" s="45"/>
-      <c r="DH12" s="45"/>
-    </row>
-    <row r="13" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="CX12" s="53"/>
+      <c r="CY12" s="53"/>
+      <c r="CZ12" s="53"/>
+      <c r="DA12" s="53"/>
+      <c r="DB12" s="53"/>
+      <c r="DC12" s="53"/>
+      <c r="DD12" s="53"/>
+      <c r="DE12" s="53"/>
+      <c r="DF12" s="53"/>
+      <c r="DG12" s="53"/>
+      <c r="DH12" s="53"/>
+    </row>
+    <row r="13" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
-      <c r="BO13" s="1"/>
-      <c r="BP13" s="1"/>
-      <c r="BQ13" s="1"/>
-      <c r="BR13" s="1"/>
-      <c r="BS13" s="1"/>
-      <c r="BT13" s="1"/>
-      <c r="BU13" s="1"/>
-      <c r="BV13" s="1"/>
-      <c r="BW13" s="1"/>
-      <c r="BX13" s="1"/>
-      <c r="BY13" s="1"/>
-      <c r="BZ13" s="1"/>
-      <c r="CA13" s="1"/>
-      <c r="CB13" s="1"/>
-      <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
-      <c r="CI13" s="1"/>
-      <c r="CJ13" s="1"/>
-      <c r="CK13" s="1"/>
-      <c r="CL13" s="1"/>
-      <c r="CM13" s="1"/>
-      <c r="CN13" s="1"/>
-      <c r="CO13" s="1"/>
-      <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
-      <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
-      <c r="CU13" s="1"/>
-      <c r="CV13" s="8" t="s">
+      <c r="B13" s="53">
+        <v>2</v>
+      </c>
+      <c r="C13" s="53">
+        <v>1</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="X13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG13" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI13" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ13" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL13" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CI13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CR13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CU13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV13" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="CW13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="CX13" s="1"/>
-      <c r="CY13" s="1"/>
-      <c r="CZ13" s="1"/>
-      <c r="DA13" s="1"/>
-      <c r="DB13" s="1"/>
-      <c r="DC13" s="1"/>
-      <c r="DD13" s="1"/>
-      <c r="DE13" s="1"/>
-      <c r="DF13" s="1"/>
-      <c r="DG13" s="1"/>
-      <c r="DH13" s="1"/>
+      <c r="CW13" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX13" s="53"/>
+      <c r="CY13" s="53"/>
+      <c r="CZ13" s="53"/>
+      <c r="DA13" s="53"/>
+      <c r="DB13" s="53"/>
+      <c r="DC13" s="53"/>
+      <c r="DD13" s="53"/>
+      <c r="DE13" s="53"/>
+      <c r="DF13" s="53"/>
+      <c r="DG13" s="53"/>
+      <c r="DH13" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6153,10 +6436,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6180,7 +6463,7 @@
     <col min="18" max="18" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6224,7 +6507,7 @@
         <v>295</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>225</v>
@@ -6235,9 +6518,14 @@
       <c r="R1" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="S1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S1" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -6263,7 +6551,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -6289,7 +6577,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6320,9 +6608,8 @@
       <c r="J4" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6354,7 +6641,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -6386,7 +6673,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -6418,7 +6705,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -6449,9 +6736,14 @@
       <c r="J8" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="S8" s="25"/>
-    </row>
-    <row r="9" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S8" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -6490,8 +6782,10 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-    </row>
-    <row r="10" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -6524,8 +6818,10 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-    </row>
-    <row r="11" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6558,8 +6854,10 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -6583,7 +6881,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>4</v>
       </c>
@@ -6622,8 +6920,10 @@
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
       <c r="R13" s="28"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>4</v>
       </c>
@@ -6662,8 +6962,10 @@
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>4</v>
       </c>
@@ -6702,8 +7004,10 @@
       <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>4</v>
       </c>
@@ -6742,6 +7046,8 @@
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
     </row>
     <row r="17" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
@@ -7157,6 +7463,118 @@
       </c>
       <c r="J26" s="8" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="48">
+        <v>1</v>
+      </c>
+      <c r="C27" s="48">
+        <v>1</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="L27" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="O27" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="R27" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="48">
+        <v>1</v>
+      </c>
+      <c r="C28" s="48">
+        <v>2</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="N28" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="O28" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="R28" s="48" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7255,10 +7673,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7310,7 +7728,7 @@
         <v>320</v>
       </c>
       <c r="L1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7345,10 +7763,10 @@
         <v>123</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7383,7 +7801,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7418,7 +7836,7 @@
         <v>123</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7453,7 +7871,7 @@
         <v>123</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7488,10 +7906,10 @@
         <v>123</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7526,7 +7944,7 @@
         <v>123</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7561,7 +7979,7 @@
         <v>123</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7596,7 +8014,7 @@
         <v>123</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -7609,9 +8027,6 @@
       <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>123</v>
-      </c>
       <c r="E10" t="s">
         <v>123</v>
       </c>
@@ -7631,7 +8046,7 @@
         <v>123</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -7644,9 +8059,6 @@
       <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>123</v>
-      </c>
       <c r="E11" t="s">
         <v>123</v>
       </c>
@@ -7666,7 +8078,7 @@
         <v>123</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -7679,9 +8091,6 @@
       <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="56" t="s">
-        <v>123</v>
-      </c>
       <c r="E12" t="s">
         <v>123</v>
       </c>
@@ -7701,7 +8110,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -7714,9 +8123,6 @@
       <c r="C13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>123</v>
-      </c>
       <c r="E13" t="s">
         <v>123</v>
       </c>
@@ -7736,7 +8142,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -7786,7 +8192,7 @@
         <v>321</v>
       </c>
       <c r="H15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I15" t="s">
         <v>123</v>
@@ -7949,10 +8355,10 @@
         <v>123</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -7987,7 +8393,7 @@
         <v>123</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -8022,10 +8428,10 @@
         <v>123</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L22" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -8060,7 +8466,80 @@
         <v>123</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>585</v>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="45">
+        <v>1</v>
+      </c>
+      <c r="C24" s="45">
+        <v>1</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="L24" s="47" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="45">
+        <v>1</v>
+      </c>
+      <c r="C25" s="45">
+        <v>2</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -8359,8 +8838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8372,7 +8851,7 @@
     <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
     <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -8393,79 +8872,79 @@
         <v>105</v>
       </c>
       <c r="E1" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>347</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>348</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>107</v>
       </c>
       <c r="K1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L1" t="s">
         <v>350</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>340</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AD1" s="6" t="s">
         <v>342</v>
@@ -8479,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -8497,16 +8976,16 @@
         <v>123</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>279</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I3" s="47" t="s">
         <v>74</v>
@@ -8589,16 +9068,16 @@
         <v>123</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>279</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I4" s="47" t="s">
         <v>74</v>
@@ -8710,28 +9189,28 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" t="s">
         <v>367</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>368</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>369</v>
-      </c>
-      <c r="H1" t="s">
-        <v>370</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K1" t="s">
         <v>271</v>
       </c>
       <c r="L1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -8748,10 +9227,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" t="s">
         <v>373</v>
-      </c>
-      <c r="F2" t="s">
-        <v>374</v>
       </c>
       <c r="G2" t="s">
         <v>326</v>
@@ -8779,10 +9258,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" t="s">
         <v>373</v>
-      </c>
-      <c r="F3" t="s">
-        <v>374</v>
       </c>
       <c r="G3" t="s">
         <v>121</v>
@@ -8809,10 +9288,10 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" t="s">
         <v>373</v>
-      </c>
-      <c r="F4" t="s">
-        <v>374</v>
       </c>
       <c r="G4" t="s">
         <v>326</v>
@@ -8880,40 +9359,40 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
         <v>107</v>
       </c>
       <c r="G1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>340</v>
@@ -8934,7 +9413,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S2" t="s">
         <v>302</v>
@@ -8965,7 +9444,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8999,7 +9478,7 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F5" t="s">
         <v>123</v>
@@ -9026,7 +9505,7 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F6" t="s">
         <v>123</v>
@@ -9103,175 +9582,175 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1" t="s">
         <v>107</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH1" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="BH1" s="5" t="s">
         <v>340</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BJ1" s="6" t="s">
         <v>342</v>
@@ -9392,10 +9871,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BO27"/>
+  <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BO5" sqref="BO5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9410,7 +9889,7 @@
     <col min="57" max="57" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9421,130 +9900,130 @@
         <v>10</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>426</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>433</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>434</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>435</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="P1" s="40" t="s">
         <v>436</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>437</v>
       </c>
       <c r="Q1" s="40" t="s">
         <v>107</v>
       </c>
       <c r="R1" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="AT1" s="5" t="s">
         <v>340</v>
@@ -9556,64 +10035,61 @@
         <v>271</v>
       </c>
       <c r="AW1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AX1" t="s">
         <v>465</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>466</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>467</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>468</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>469</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>470</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>471</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>472</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>473</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>474</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>475</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>476</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>477</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>478</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>479</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>480</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>481</v>
       </c>
-      <c r="BN1" t="s">
-        <v>482</v>
-      </c>
-      <c r="BO1" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -9631,16 +10107,16 @@
         <v>121</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>102</v>
@@ -9649,13 +10125,13 @@
         <v>74</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>121</v>
@@ -9716,7 +10192,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -9736,41 +10212,39 @@
         <v>78</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="P3" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="57" t="s">
-        <v>624</v>
-      </c>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -9825,7 +10299,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -9845,41 +10319,39 @@
         <v>78</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>640</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="P4" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="R4" s="57" t="s">
-        <v>624</v>
-      </c>
+      <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -9934,18 +10406,16 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>121</v>
@@ -9954,48 +10424,44 @@
         <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>121</v>
+        <v>483</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>637</v>
+        <v>279</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>121</v>
+        <v>484</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>121</v>
+        <v>485</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>121</v>
+        <v>486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>487</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="R5" s="57" t="s">
-        <v>624</v>
-      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="T5" s="6"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="6"/>
+      <c r="Y5" s="5"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
@@ -10019,130 +10485,232 @@
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW5" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
+      <c r="AY5" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
+      <c r="BA5" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BO5" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="BC5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="45">
+        <v>1</v>
+      </c>
+      <c r="C6" s="45">
+        <v>1</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="H6" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="45" t="s">
+        <v>621</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="45" t="s">
         <v>485</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7" t="s">
+      <c r="P6" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV6" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="AW6" s="7" t="s">
+      <c r="AW6" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7" t="s">
+      <c r="AX6" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7" t="s">
+      <c r="AY6" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7" t="s">
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="BD6" s="7" t="s">
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="BE6" s="7" t="s">
+      <c r="BD6" s="45" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:67" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BE6" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="BF6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG6" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH6" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI6" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ6" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK6" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL6" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM6" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN6" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="45">
         <v>1</v>
@@ -10157,32 +10725,32 @@
         <v>78</v>
       </c>
       <c r="G7" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>483</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>484</v>
       </c>
       <c r="I7" s="45" t="s">
         <v>279</v>
       </c>
       <c r="J7" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>621</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="45" t="s">
         <v>485</v>
       </c>
-      <c r="K7" s="45" t="s">
-        <v>622</v>
-      </c>
-      <c r="L7" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="45" t="s">
+      <c r="N7" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="N7" s="45" t="s">
+      <c r="O7" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="O7" s="45" t="s">
-        <v>488</v>
-      </c>
       <c r="P7" s="45" t="s">
         <v>121</v>
       </c>
@@ -10190,7 +10758,7 @@
         <v>123</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S7" s="45" t="s">
         <v>124</v>
@@ -10333,205 +10901,118 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="45">
-        <v>2</v>
-      </c>
-      <c r="C8" s="45">
-        <v>1</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="45" t="s">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="I8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I8" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="J8" s="45" t="s">
+      <c r="K8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K8" s="45" t="s">
-        <v>622</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="45" t="s">
+      <c r="N8" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="O8" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O8" s="45" t="s">
-        <v>488</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="49" t="s">
-        <v>624</v>
-      </c>
-      <c r="S8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="T8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="U8" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="V8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="W8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="X8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z8" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV8" s="45" t="s">
+      <c r="P8" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW8" s="45" t="s">
+      <c r="AW8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX8" s="45" t="s">
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AY8" s="45" t="s">
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45" t="s">
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45" t="s">
+      <c r="BD8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD8" s="45" t="s">
+      <c r="BE8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE8" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG8" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH8" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI8" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ8" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK8" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL8" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM8" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN8" s="47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -10549,54 +11030,54 @@
         <v>78</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>485</v>
+        <v>326</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M9" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="P9" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>123</v>
       </c>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="6"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
-      <c r="AE9" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
@@ -10638,312 +11119,262 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
+    <row r="10" spans="1:66" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="30">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="K10" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="N10" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7" t="s">
+      <c r="P10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV10" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="AW10" s="7" t="s">
+      <c r="AW10" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7" t="s">
+      <c r="AX10" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7" t="s">
+      <c r="AY10" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7" t="s">
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BD10" s="7" t="s">
+      <c r="BB10" s="30"/>
+      <c r="BC10" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="BE10" s="7" t="s">
+      <c r="BD10" s="30" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="11" spans="1:67" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="30">
-        <v>1</v>
-      </c>
-      <c r="C11" s="30">
-        <v>1</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>484</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>622</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="R11" s="34" t="s">
-        <v>624</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="T11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="U11" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="V11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="X11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z11" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV11" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW11" s="30" t="s">
+      <c r="BE10" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AX11" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY11" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ11" s="30"/>
-      <c r="BA11" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="BB11" s="30"/>
-      <c r="BC11" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD11" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE11" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF11" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG11" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH11" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI11" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ11" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK11" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL11" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM11" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN11" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="BF10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN10" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -10968,7 +11399,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="11"/>
+      <c r="Y12" s="10"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -10992,7 +11423,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
-      <c r="AW12" s="11"/>
+      <c r="AW12" s="10"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
@@ -11002,7 +11433,7 @@
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -11027,7 +11458,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -11051,7 +11482,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
-      <c r="AW13" s="10"/>
+      <c r="AW13" s="11"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
@@ -11061,7 +11492,7 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11110,7 +11541,7 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
-      <c r="AW14" s="11"/>
+      <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
@@ -11120,7 +11551,7 @@
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -11145,7 +11576,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="11"/>
+      <c r="Y15" s="10"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -11179,7 +11610,7 @@
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -11204,7 +11635,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -11322,7 +11753,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="11"/>
+      <c r="Y18" s="10"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -11381,7 +11812,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="11"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -11499,7 +11930,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="11"/>
+      <c r="Y21" s="10"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -11558,7 +11989,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="10"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -11828,65 +12259,6 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11994,8 +12366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS9" sqref="AS9"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12055,109 +12427,109 @@
         <v>105</v>
       </c>
       <c r="E1" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>615</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>430</v>
-      </c>
       <c r="H1" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="J1" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>491</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>433</v>
-      </c>
       <c r="L1" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>26</v>
       </c>
       <c r="N1" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="O1" s="38" t="s">
         <v>616</v>
       </c>
-      <c r="O1" s="38" t="s">
-        <v>617</v>
-      </c>
       <c r="P1" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q1" s="38" t="s">
         <v>107</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>620</v>
-      </c>
       <c r="U1" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V1" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="AH1" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>181</v>
       </c>
       <c r="AK1" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="AM1" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>340</v>
@@ -12166,7 +12538,7 @@
         <v>342</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AQ1" s="8" t="s">
         <v>271</v>
@@ -12182,22 +12554,22 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>484</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>78</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>102</v>
@@ -12206,16 +12578,16 @@
         <v>279</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>123</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -12261,50 +12633,50 @@
         <v>123</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F3" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="G3" s="45" t="s">
         <v>483</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>484</v>
       </c>
       <c r="H3" s="45" t="s">
         <v>78</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>279</v>
       </c>
       <c r="M3" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N3" s="48" t="s">
         <v>123</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P3" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q3" s="45" t="s">
         <v>123</v>
       </c>
       <c r="R3" s="45"/>
       <c r="S3" s="45" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U3" s="45" t="s">
         <v>123</v>
@@ -12390,40 +12762,40 @@
         <v>123</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F4" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>483</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>484</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>78</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L4" s="45" t="s">
         <v>279</v>
       </c>
       <c r="M4" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N4" s="48" t="s">
         <v>123</v>
       </c>
       <c r="O4" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P4" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q4" s="45" t="s">
         <v>123</v>
@@ -12498,7 +12870,7 @@
         <v>124</v>
       </c>
       <c r="AQ4" s="48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="47" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -12515,40 +12887,40 @@
         <v>123</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F5" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>483</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>484</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>78</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>279</v>
       </c>
       <c r="M5" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N5" s="48" t="s">
         <v>123</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P5" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="45" t="s">
         <v>123</v>
@@ -12640,40 +13012,40 @@
         <v>123</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F6" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="G6" s="45" t="s">
         <v>483</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>484</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>78</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L6" s="45" t="s">
         <v>279</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N6" s="48" t="s">
         <v>123</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P6" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q6" s="45" t="s">
         <v>123</v>
@@ -12748,7 +13120,7 @@
         <v>124</v>
       </c>
       <c r="AQ6" s="48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="14.5" x14ac:dyDescent="0.35">
@@ -12765,22 +13137,22 @@
         <v>123</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>102</v>
@@ -12789,83 +13161,83 @@
         <v>279</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>123</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AH7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AJ7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AK7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AL7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AM7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="8" t="s">
@@ -12886,40 +13258,40 @@
         <v>123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="K8" s="53" t="s">
-        <v>622</v>
+        <v>494</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>279</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>123</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>123</v>
@@ -12967,40 +13339,40 @@
         <v>123</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>622</v>
+        <v>494</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>279</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>123</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>123</v>
@@ -13051,13 +13423,13 @@
         <v>123</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>78</v>
@@ -13075,16 +13447,16 @@
         <v>279</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>123</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>123</v>
@@ -13136,50 +13508,50 @@
         <v>123</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F11" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>483</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>484</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>78</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L11" s="30" t="s">
         <v>279</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N11" s="29" t="s">
         <v>123</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="30" t="s">
         <v>123</v>
       </c>
       <c r="R11" s="30"/>
       <c r="S11" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T11" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U11" s="30" t="s">
         <v>123</v>
@@ -13258,47 +13630,134 @@
       <c r="AW11" s="28"/>
       <c r="AX11" s="28"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
+    <row r="12" spans="1:50" s="47" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="45">
+        <v>1</v>
+      </c>
+      <c r="C12" s="45">
+        <v>1</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>620</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>621</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45" t="s">
+        <v>589</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="U12" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="V12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ12" s="48" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -13772,7 +14231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -13803,31 +14262,31 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" t="s">
         <v>500</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>501</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>502</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>503</v>
-      </c>
-      <c r="H1" t="s">
-        <v>504</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>271</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -13847,7 +14306,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>121</v>
@@ -13885,7 +14344,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>121</v>
@@ -13923,7 +14382,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>121</v>
@@ -13958,7 +14417,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>121</v>
@@ -13988,10 +14447,10 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
+        <v>506</v>
+      </c>
+      <c r="G6" t="s">
         <v>507</v>
-      </c>
-      <c r="G6" t="s">
-        <v>508</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>103</v>
@@ -14014,10 +14473,10 @@
         <v>123</v>
       </c>
       <c r="F7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G7" t="s">
         <v>507</v>
-      </c>
-      <c r="G7" t="s">
-        <v>508</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>103</v>
@@ -14041,8 +14500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA373DF-D86A-4FB6-8E63-42A6265AFD78}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14076,67 +14535,67 @@
         <v>10</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="K1" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>595</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>627</v>
-      </c>
-      <c r="N1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="R1" s="40" t="s">
         <v>518</v>
       </c>
-      <c r="Q1" s="40" t="s">
-        <v>598</v>
-      </c>
-      <c r="R1" s="40" t="s">
+      <c r="S1" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="S1" s="40" t="s">
-        <v>520</v>
-      </c>
       <c r="T1" s="40" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="V1" s="40" t="s">
         <v>25</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -14191,7 +14650,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>123</v>
@@ -14218,16 +14677,16 @@
         <v>123</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>68</v>
@@ -14239,7 +14698,7 @@
         <v>124</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>124</v>
@@ -14263,7 +14722,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>123</v>
@@ -14290,16 +14749,16 @@
         <v>123</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R4" s="28" t="s">
         <v>68</v>
@@ -14311,7 +14770,7 @@
         <v>124</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="V4" s="28" t="s">
         <v>124</v>
@@ -14335,7 +14794,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>123</v>
@@ -14368,7 +14827,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>123</v>
@@ -14395,16 +14854,16 @@
         <v>123</v>
       </c>
       <c r="N6" s="45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O6" s="45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P6" s="45" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R6" s="45" t="s">
         <v>68</v>
@@ -14422,7 +14881,7 @@
         <v>124</v>
       </c>
       <c r="X6" s="49" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -14439,7 +14898,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>123</v>
@@ -14466,16 +14925,16 @@
         <v>123</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O7" s="45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P7" s="45" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q7" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R7" s="45" t="s">
         <v>68</v>
@@ -14493,36 +14952,150 @@
         <v>124</v>
       </c>
       <c r="X7" s="49" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="7"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="X9" s="7"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="45">
+        <v>1</v>
+      </c>
+      <c r="C8" s="45">
+        <v>1</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q8" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="V8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="X8" s="49" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="45">
+        <v>2</v>
+      </c>
+      <c r="C9" s="45">
+        <v>1</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="V9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="X9" s="49" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="X10" s="34"/>
@@ -14611,58 +15184,58 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G1" t="s">
         <v>523</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>524</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" t="s">
         <v>525</v>
       </c>
-      <c r="I1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>526</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>527</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>528</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>529</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>530</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q1" t="s">
         <v>531</v>
       </c>
-      <c r="P1" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>532</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>533</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>534</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>535</v>
-      </c>
-      <c r="U1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -14710,10 +15283,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0055F16-CC4A-47BD-AB15-8879FF617B76}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14745,46 +15318,46 @@
         <v>10</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" t="s">
         <v>539</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I1" t="s">
         <v>540</v>
       </c>
-      <c r="H1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>541</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>542</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>543</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>544</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>545</v>
-      </c>
-      <c r="N1" t="s">
-        <v>546</v>
       </c>
       <c r="O1" t="s">
         <v>147</v>
       </c>
       <c r="P1" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>547</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14803,11 +15376,11 @@
       <c r="E2" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>549</v>
+      <c r="F2" t="s">
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>124</v>
@@ -14854,7 +15427,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G3" t="s">
         <v>74</v>
@@ -14904,7 +15477,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
@@ -14974,7 +15547,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>74</v>
@@ -15007,7 +15580,7 @@
         <v>121</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -15027,7 +15600,7 @@
         <v>123</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>74</v>
@@ -15060,7 +15633,7 @@
         <v>121</v>
       </c>
       <c r="Q7" s="45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -15105,6 +15678,59 @@
       </c>
       <c r="P8" s="1" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="47">
+        <v>1</v>
+      </c>
+      <c r="C9" s="47">
+        <v>1</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -15117,7 +15743,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15125,6 +15751,7 @@
     <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
     <col min="4" max="4" width="28.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -15138,28 +15765,28 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1" t="s">
         <v>550</v>
       </c>
-      <c r="F1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>551</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>552</v>
       </c>
-      <c r="I1" t="s">
-        <v>553</v>
-      </c>
       <c r="J1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -15194,7 +15821,7 @@
         <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -15207,7 +15834,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15227,55 +15854,55 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" t="s">
         <v>555</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>556</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>557</v>
-      </c>
-      <c r="G1" t="s">
-        <v>558</v>
       </c>
       <c r="H1" t="s">
         <v>189</v>
       </c>
       <c r="I1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J1" t="s">
         <v>559</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>560</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>561</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>562</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P1" t="s">
         <v>563</v>
       </c>
-      <c r="N1" t="s">
-        <v>367</v>
-      </c>
-      <c r="O1" t="s">
-        <v>368</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>564</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>565</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>566</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>567</v>
-      </c>
-      <c r="T1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -15292,7 +15919,7 @@
         <v>124</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>121</v>
@@ -15354,7 +15981,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>121</v>
@@ -15411,8 +16038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15435,10 +16062,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>271</v>
@@ -15464,10 +16091,10 @@
         <v>123</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -15484,10 +16111,10 @@
         <v>123</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -15504,10 +16131,10 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -15524,10 +16151,10 @@
         <v>123</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -15544,30 +16171,30 @@
         <v>123</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>592</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>594</v>
+      <c r="B7" s="53">
+        <v>1</v>
+      </c>
+      <c r="C7" s="53">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -15584,10 +16211,10 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -15625,22 +16252,22 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -15810,10 +16437,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15839,19 +16466,19 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1" t="s">
         <v>576</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>577</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>578</v>
-      </c>
-      <c r="H1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -15976,6 +16603,58 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="53">
+        <v>1</v>
+      </c>
+      <c r="C7" s="53">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="53">
+        <v>1</v>
+      </c>
+      <c r="C8" s="53">
+        <v>2</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="47" t="s">
         <v>74</v>
       </c>
     </row>
@@ -16424,10 +17103,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16470,7 +17149,7 @@
     <col min="38" max="38" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16535,7 +17214,7 @@
         <v>141</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>142</v>
@@ -16585,11 +17264,8 @@
       <c r="AL1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="AM1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
@@ -16613,7 +17289,7 @@
       </c>
       <c r="AD2" s="42"/>
     </row>
-    <row r="3" spans="1:39" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
@@ -16638,7 +17314,7 @@
       <c r="W3" s="42"/>
       <c r="AD3" s="43"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -16665,8 +17341,11 @@
       <c r="AM4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AN4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -16683,7 +17362,7 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
         <v>121</v>
@@ -16693,8 +17372,11 @@
       <c r="AM5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AN5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -16719,7 +17401,7 @@
       <c r="W6" s="6"/>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -16744,128 +17426,178 @@
       <c r="W7" s="6"/>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" t="s">
+        <v>66</v>
+      </c>
+      <c r="U8" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>629</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+      <c r="W9" s="20"/>
+    </row>
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W8" s="20"/>
-      <c r="AD8" s="19"/>
-    </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W10" s="20"/>
+      <c r="AD10" s="19"/>
+    </row>
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W11" s="20"/>
+      <c r="AD11" s="19"/>
+    </row>
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="S9" t="s">
-        <v>66</v>
-      </c>
-      <c r="T9" t="s">
-        <v>66</v>
-      </c>
-      <c r="U9" t="s">
-        <v>66</v>
-      </c>
-      <c r="V9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="AA9" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="AF9" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="AH9" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="AI9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="AL9" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" t="s">
-        <v>630</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
-      </c>
-      <c r="W10" s="20"/>
-    </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="W11" s="19"/>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W12" s="20"/>
+      <c r="AD12" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16874,10 +17606,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF9" sqref="H9:AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17091,7 +17823,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -17099,12 +17831,6 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
@@ -17498,6 +18224,107 @@
       <c r="AE8" s="45"/>
       <c r="AF8" s="45"/>
     </row>
+    <row r="9" spans="1:33" s="47" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45">
+        <v>1</v>
+      </c>
+      <c r="C9" s="45">
+        <v>1</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG9" s="47" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" xr:uid="{84331055-B52F-425C-AF94-EDBFC2BEB7B9}"/>
@@ -17510,6 +18337,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -17726,26 +18572,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17762,22 +18607,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\UPLOAD TEST\12dec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata10dec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8F99FD-2A26-4F38-8821-8C1739197AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ED7FEB-E7A4-4553-92EA-AA513DAC076C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="33" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="641">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1099,6 +1099,9 @@
   </si>
   <si>
     <t>Boardman</t>
+  </si>
+  <si>
+    <t>CALLBACK_DATE</t>
   </si>
   <si>
     <t>STAFF_PERSONS</t>
@@ -1969,31 +1972,25 @@
     <t>testdoc.txt</t>
   </si>
   <si>
-    <t>SCR_ID1</t>
-  </si>
-  <si>
-    <t>SCR_ID2</t>
-  </si>
-  <si>
     <t>Recalled</t>
   </si>
   <si>
-    <t>CSE_BTN</t>
-  </si>
-  <si>
-    <t>CSE_TAB</t>
-  </si>
-  <si>
     <t>COMMENTS_RECALL</t>
   </si>
   <si>
-    <t>CALLBACK_DATE_TIME</t>
-  </si>
-  <si>
-    <t>RECALL_BUTTON</t>
-  </si>
-  <si>
-    <t>CAPTURE_SCRID</t>
+    <t>RECALL_BTN</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>Written</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Telephone</t>
   </si>
   <si>
     <t>This record is locked while pending approval. Please recall your submission if modifications are needed.</t>
@@ -2164,7 +2161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2224,8 +2221,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2993,8 +2995,8 @@
   <dimension ref="A1:DH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL19" sqref="AL19"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3034,55 +3036,54 @@
     <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.26953125" customWidth="1"/>
-    <col min="38" max="38" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.453125" customWidth="1"/>
-    <col min="44" max="44" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="26.453125" customWidth="1"/>
-    <col min="53" max="53" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="23.54296875" customWidth="1"/>
-    <col min="55" max="55" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="23.54296875" customWidth="1"/>
-    <col min="58" max="58" width="26.453125" customWidth="1"/>
-    <col min="59" max="59" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="62" max="66" width="26.453125" customWidth="1"/>
-    <col min="67" max="67" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="28.453125" customWidth="1"/>
-    <col min="73" max="73" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="28.453125" customWidth="1"/>
-    <col min="75" max="75" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="78" width="28.453125" customWidth="1"/>
-    <col min="79" max="79" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="22" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="22.54296875" customWidth="1"/>
-    <col min="90" max="90" width="12" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="17" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="22.54296875" customWidth="1"/>
-    <col min="93" max="93" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="96" max="99" width="21.54296875" customWidth="1"/>
+    <col min="37" max="37" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.453125" customWidth="1"/>
+    <col min="43" max="43" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="26.453125" customWidth="1"/>
+    <col min="52" max="52" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.54296875" customWidth="1"/>
+    <col min="54" max="54" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="23.54296875" customWidth="1"/>
+    <col min="57" max="57" width="26.453125" customWidth="1"/>
+    <col min="58" max="58" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="61" max="65" width="26.453125" customWidth="1"/>
+    <col min="66" max="66" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="71" width="28.453125" customWidth="1"/>
+    <col min="72" max="72" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="28.453125" customWidth="1"/>
+    <col min="74" max="74" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="28.453125" customWidth="1"/>
+    <col min="78" max="78" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="22" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="22.54296875" customWidth="1"/>
+    <col min="89" max="89" width="12" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="17" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="22.54296875" customWidth="1"/>
+    <col min="92" max="92" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="95" max="99" width="21.54296875" customWidth="1"/>
     <col min="100" max="100" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="57.54296875" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="34.54296875" bestFit="1" customWidth="1"/>
@@ -3201,194 +3202,194 @@
       <c r="AJ1" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="AK1" s="38" t="s">
-        <v>640</v>
+      <c r="AK1" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AZ1" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BA1" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BD1" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BF1" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BG1" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BH1" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BI1" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BJ1" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BK1" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BL1" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BM1" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BN1" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BO1" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BP1" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BQ1" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BR1" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BS1" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BT1" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BU1" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BV1" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BW1" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BX1" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BY1" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BZ1" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CA1" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="CB1" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CC1" s="8" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="CD1" s="8" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="CE1" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CF1" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CG1" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CH1" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="CI1" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="CJ1" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="CK1" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CL1" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="CM1" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CN1" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="CO1" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CP1" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CQ1" s="8" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="CR1" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="CS1" s="8" t="s">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="CT1" s="8" t="s">
-        <v>338</v>
+        <v>580</v>
       </c>
       <c r="CU1" s="8" t="s">
-        <v>579</v>
+        <v>214</v>
       </c>
       <c r="CV1" s="8" t="s">
         <v>271</v>
@@ -3506,9 +3507,7 @@
       <c r="AJ2" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="AK2" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK2" s="15"/>
       <c r="AL2" s="15"/>
       <c r="AM2" s="15"/>
       <c r="AN2" s="15"/>
@@ -3685,8 +3684,8 @@
       <c r="AJ3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="AK3" s="15" t="s">
-        <v>74</v>
+      <c r="AK3" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="AL3" s="25" t="s">
         <v>124</v>
@@ -3698,7 +3697,7 @@
         <v>124</v>
       </c>
       <c r="AO3" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AP3" s="25" t="s">
         <v>121</v>
@@ -3737,19 +3736,19 @@
         <v>121</v>
       </c>
       <c r="BB3" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BC3" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BD3" s="25" t="s">
         <v>121</v>
       </c>
       <c r="BE3" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BF3" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BG3" s="25" t="s">
         <v>121</v>
@@ -3818,10 +3817,10 @@
         <v>121</v>
       </c>
       <c r="CC3" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CD3" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="CE3" s="25" t="s">
         <v>121</v>
@@ -3854,14 +3853,12 @@
         <v>121</v>
       </c>
       <c r="CO3" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CP3" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="CQ3" s="25" t="s">
-        <v>124</v>
-      </c>
+      <c r="CQ3" s="25"/>
       <c r="CR3" s="25"/>
       <c r="CS3" s="25"/>
       <c r="CT3" s="25"/>
@@ -3993,8 +3990,8 @@
       <c r="AJ4" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="AK4" s="15" t="s">
-        <v>74</v>
+      <c r="AK4" s="29" t="s">
+        <v>124</v>
       </c>
       <c r="AL4" s="29" t="s">
         <v>124</v>
@@ -4006,7 +4003,7 @@
         <v>124</v>
       </c>
       <c r="AO4" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AP4" s="29" t="s">
         <v>121</v>
@@ -4054,10 +4051,10 @@
         <v>121</v>
       </c>
       <c r="BE4" s="29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BF4" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BG4" s="29" t="s">
         <v>121</v>
@@ -4162,14 +4159,12 @@
         <v>121</v>
       </c>
       <c r="CO4" s="29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CP4" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="CQ4" s="29" t="s">
-        <v>124</v>
-      </c>
+      <c r="CQ4" s="29"/>
       <c r="CR4" s="29"/>
       <c r="CS4" s="29"/>
       <c r="CT4" s="29"/>
@@ -4271,19 +4266,19 @@
       <c r="Z5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE5" s="8" t="s">
+      <c r="AA5" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB5" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC5" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD5" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE5" s="45" t="s">
         <v>121</v>
       </c>
       <c r="AF5" s="8" t="s">
@@ -4301,9 +4296,7 @@
       <c r="AJ5" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AK5" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
@@ -4323,10 +4316,10 @@
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="BE5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
       <c r="BI5" s="8"/>
@@ -4397,14 +4390,14 @@
       <c r="G6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>278</v>
+      <c r="H6" s="53" t="s">
+        <v>284</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>121</v>
+      <c r="J6" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>74</v>
@@ -4419,7 +4412,7 @@
         <v>74</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>279</v>
+        <v>638</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>74</v>
@@ -4454,19 +4447,19 @@
       <c r="Z6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA6" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE6" s="8" t="s">
+      <c r="AA6" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB6" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC6" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD6" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE6" s="45" t="s">
         <v>121</v>
       </c>
       <c r="AF6" s="8" t="s">
@@ -4484,9 +4477,7 @@
       <c r="AJ6" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AK6" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
@@ -4506,10 +4497,10 @@
       <c r="BB6" s="8"/>
       <c r="BC6" s="8"/>
       <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="BE6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF6" s="8"/>
       <c r="BG6" s="8"/>
       <c r="BH6" s="8"/>
       <c r="BI6" s="8"/>
@@ -4560,13 +4551,17 @@
     </row>
     <row r="7" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>283</v>
+        <v>6</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>68</v>
       </c>
@@ -4576,25 +4571,29 @@
       <c r="G7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>273</v>
+      <c r="H7" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>121</v>
+        <v>74</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>74</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="O7" s="8" t="s">
-        <v>279</v>
+        <v>639</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>74</v>
@@ -4629,29 +4628,37 @@
       <c r="Z7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA7" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
+      <c r="AA7" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB7" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC7" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE7" s="45" t="s">
+        <v>74</v>
+      </c>
       <c r="AF7" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="AJ7" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AK7" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
@@ -4713,231 +4720,170 @@
       <c r="CR7" s="8"/>
       <c r="CS7" s="8"/>
       <c r="CT7" s="8"/>
-      <c r="CU7" s="8"/>
-    </row>
-    <row r="8" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="45">
-        <v>1</v>
-      </c>
-      <c r="C8" s="45">
-        <v>1</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="45" t="s">
+      <c r="CU7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="CV7" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="CW7" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="45" t="s">
+      <c r="H8" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="45" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="P8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="S8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="U8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="V8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="X8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA8" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB8" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC8" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD8" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE8" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF8" s="45" t="s">
+      <c r="P8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AG8" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI8" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG8" s="45"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="45"/>
-      <c r="BJ8" s="45"/>
-      <c r="BK8" s="45"/>
-      <c r="BL8" s="45"/>
-      <c r="BM8" s="45"/>
-      <c r="BN8" s="45"/>
-      <c r="BO8" s="45"/>
-      <c r="BP8" s="45"/>
-      <c r="BQ8" s="45"/>
-      <c r="BR8" s="45"/>
-      <c r="BS8" s="45"/>
-      <c r="BT8" s="45"/>
-      <c r="BU8" s="45"/>
-      <c r="BV8" s="45"/>
-      <c r="BW8" s="45"/>
-      <c r="BX8" s="45"/>
-      <c r="BY8" s="45"/>
-      <c r="BZ8" s="45"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="45"/>
-      <c r="CC8" s="45"/>
-      <c r="CD8" s="45"/>
-      <c r="CE8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="CF8" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CG8" s="45"/>
-      <c r="CH8" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CI8" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CJ8" s="45"/>
-      <c r="CK8" s="45"/>
-      <c r="CL8" s="45"/>
-      <c r="CM8" s="45"/>
-      <c r="CN8" s="45"/>
-      <c r="CO8" s="45"/>
-      <c r="CP8" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ8" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CR8" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CS8" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CT8" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CU8" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CV8" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="CW8" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="CX8" s="45"/>
-      <c r="CY8" s="45"/>
-      <c r="CZ8" s="45"/>
-      <c r="DA8" s="45"/>
-      <c r="DB8" s="45"/>
-      <c r="DC8" s="45"/>
-      <c r="DD8" s="45"/>
-      <c r="DE8" s="45"/>
-      <c r="DF8" s="45"/>
-      <c r="DG8" s="45"/>
-      <c r="DH8" s="45"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="8"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="8"/>
+      <c r="BO8" s="8"/>
+      <c r="BP8" s="8"/>
+      <c r="BQ8" s="8"/>
+      <c r="BR8" s="8"/>
+      <c r="BS8" s="8"/>
+      <c r="BT8" s="8"/>
+      <c r="BU8" s="8"/>
+      <c r="BV8" s="8"/>
+      <c r="BW8" s="8"/>
+      <c r="BX8" s="8"/>
+      <c r="BY8" s="8"/>
+      <c r="BZ8" s="8"/>
+      <c r="CA8" s="8"/>
+      <c r="CB8" s="8"/>
+      <c r="CC8" s="8"/>
+      <c r="CD8" s="8"/>
+      <c r="CE8" s="8"/>
+      <c r="CF8" s="8"/>
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="8"/>
+      <c r="CI8" s="8"/>
+      <c r="CJ8" s="8"/>
+      <c r="CK8" s="8"/>
+      <c r="CL8" s="8"/>
+      <c r="CM8" s="8"/>
+      <c r="CN8" s="8"/>
+      <c r="CO8" s="8"/>
+      <c r="CP8" s="8"/>
+      <c r="CQ8" s="8"/>
+      <c r="CR8" s="8"/>
+      <c r="CS8" s="8"/>
+      <c r="CT8" s="8"/>
+      <c r="CU8" s="8"/>
     </row>
     <row r="9" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
@@ -4947,28 +4893,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I9" s="45" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>74</v>
@@ -5031,7 +4977,7 @@
         <v>121</v>
       </c>
       <c r="AE9" s="45" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AF9" s="45" t="s">
         <v>274</v>
@@ -5045,182 +4991,90 @@
       <c r="AI9" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="AJ9" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK9" s="15" t="s">
-        <v>74</v>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45" t="s">
+        <v>124</v>
       </c>
       <c r="AL9" s="45" t="s">
         <v>124</v>
       </c>
       <c r="AM9" s="45" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AN9" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="AO9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP9" s="45" t="s">
-        <v>121</v>
-      </c>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
       <c r="AQ9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA9" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
       <c r="BB9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD9" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
       <c r="BE9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF9" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ9" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC9" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="BF9" s="45"/>
+      <c r="BG9" s="45"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="45"/>
+      <c r="BJ9" s="45"/>
+      <c r="BK9" s="45"/>
+      <c r="BL9" s="45"/>
+      <c r="BM9" s="45"/>
+      <c r="BN9" s="45"/>
+      <c r="BO9" s="45"/>
+      <c r="BP9" s="45"/>
+      <c r="BQ9" s="45"/>
+      <c r="BR9" s="45"/>
+      <c r="BS9" s="45"/>
+      <c r="BT9" s="45"/>
+      <c r="BU9" s="45"/>
+      <c r="BV9" s="45"/>
+      <c r="BW9" s="45"/>
+      <c r="BX9" s="45"/>
+      <c r="BY9" s="45"/>
+      <c r="BZ9" s="45"/>
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="45"/>
+      <c r="CC9" s="45"/>
       <c r="CD9" s="45" t="s">
         <v>124</v>
       </c>
       <c r="CE9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF9" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="CF9" s="45"/>
       <c r="CG9" s="45" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="CH9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM9" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN9" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="CI9" s="45"/>
+      <c r="CJ9" s="45"/>
+      <c r="CK9" s="45"/>
+      <c r="CL9" s="45"/>
+      <c r="CM9" s="45"/>
+      <c r="CN9" s="45"/>
       <c r="CO9" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CP9" s="45" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="CQ9" s="45" t="s">
         <v>285</v>
@@ -5234,9 +5088,7 @@
       <c r="CT9" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="CU9" s="45" t="s">
-        <v>285</v>
-      </c>
+      <c r="CU9" s="45"/>
       <c r="CV9" s="48" t="s">
         <v>275</v>
       </c>
@@ -5260,31 +5112,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="45">
+        <v>1</v>
+      </c>
+      <c r="C10" s="45">
         <v>2</v>
       </c>
-      <c r="C10" s="45">
-        <v>1</v>
-      </c>
       <c r="D10" s="45" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I10" s="45" t="s">
         <v>121</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K10" s="45" t="s">
         <v>74</v>
@@ -5347,7 +5199,7 @@
         <v>121</v>
       </c>
       <c r="AE10" s="45" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AF10" s="45" t="s">
         <v>274</v>
@@ -5361,12 +5213,14 @@
       <c r="AI10" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="15" t="s">
-        <v>74</v>
+      <c r="AJ10" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK10" s="45" t="s">
+        <v>124</v>
       </c>
       <c r="AL10" s="45" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AM10" s="45" t="s">
         <v>124</v>
@@ -5375,76 +5229,166 @@
         <v>124</v>
       </c>
       <c r="AO10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP10" s="45"/>
-      <c r="AQ10" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="AP10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ10" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="AR10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS10" s="45"/>
-      <c r="AT10" s="45"/>
-      <c r="AU10" s="45"/>
-      <c r="AV10" s="45"/>
-      <c r="AW10" s="45"/>
-      <c r="AX10" s="45"/>
-      <c r="AY10" s="45"/>
-      <c r="AZ10" s="45"/>
-      <c r="BA10" s="45"/>
-      <c r="BB10" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="AS10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB10" s="45" t="s">
+        <v>124</v>
+      </c>
       <c r="BC10" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD10" s="45"/>
-      <c r="BE10" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="BD10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE10" s="45" t="s">
+        <v>74</v>
+      </c>
       <c r="BF10" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG10" s="45"/>
-      <c r="BH10" s="45"/>
-      <c r="BI10" s="45"/>
-      <c r="BJ10" s="45"/>
-      <c r="BK10" s="45"/>
-      <c r="BL10" s="45"/>
-      <c r="BM10" s="45"/>
-      <c r="BN10" s="45"/>
-      <c r="BO10" s="45"/>
-      <c r="BP10" s="45"/>
-      <c r="BQ10" s="45"/>
-      <c r="BR10" s="45"/>
-      <c r="BS10" s="45"/>
-      <c r="BT10" s="45"/>
-      <c r="BU10" s="45"/>
-      <c r="BV10" s="45"/>
-      <c r="BW10" s="45"/>
-      <c r="BX10" s="45"/>
-      <c r="BY10" s="45"/>
-      <c r="BZ10" s="45"/>
-      <c r="CA10" s="45"/>
-      <c r="CB10" s="45"/>
-      <c r="CC10" s="45"/>
-      <c r="CD10" s="45"/>
+        <v>121</v>
+      </c>
+      <c r="BG10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP10" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC10" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD10" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="CE10" s="45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="CF10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN10" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO10" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP10" s="45" t="s">
         <v>285</v>
-      </c>
-      <c r="CG10" s="45"/>
-      <c r="CH10" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CI10" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="CJ10" s="45"/>
-      <c r="CK10" s="45"/>
-      <c r="CL10" s="45"/>
-      <c r="CM10" s="45"/>
-      <c r="CN10" s="45"/>
-      <c r="CO10" s="45"/>
-      <c r="CP10" s="45" t="s">
-        <v>124</v>
       </c>
       <c r="CQ10" s="45" t="s">
         <v>285</v>
@@ -5458,9 +5402,7 @@
       <c r="CT10" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="CU10" s="45" t="s">
-        <v>285</v>
-      </c>
+      <c r="CU10" s="45"/>
       <c r="CV10" s="48" t="s">
         <v>275</v>
       </c>
@@ -5487,28 +5429,28 @@
         <v>2</v>
       </c>
       <c r="C11" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I11" s="45" t="s">
         <v>121</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>74</v>
@@ -5571,7 +5513,7 @@
         <v>121</v>
       </c>
       <c r="AE11" s="45" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="AF11" s="45" t="s">
         <v>274</v>
@@ -5585,182 +5527,90 @@
       <c r="AI11" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="AJ11" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK11" s="15" t="s">
-        <v>74</v>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45" t="s">
+        <v>124</v>
       </c>
       <c r="AL11" s="45" t="s">
         <v>124</v>
       </c>
       <c r="AM11" s="45" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AN11" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="AO11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP11" s="45" t="s">
-        <v>121</v>
-      </c>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
       <c r="AQ11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA11" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="45"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="45"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="45"/>
       <c r="BB11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD11" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="BC11" s="45"/>
+      <c r="BD11" s="45"/>
       <c r="BE11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF11" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ11" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC11" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="BF11" s="45"/>
+      <c r="BG11" s="45"/>
+      <c r="BH11" s="45"/>
+      <c r="BI11" s="45"/>
+      <c r="BJ11" s="45"/>
+      <c r="BK11" s="45"/>
+      <c r="BL11" s="45"/>
+      <c r="BM11" s="45"/>
+      <c r="BN11" s="45"/>
+      <c r="BO11" s="45"/>
+      <c r="BP11" s="45"/>
+      <c r="BQ11" s="45"/>
+      <c r="BR11" s="45"/>
+      <c r="BS11" s="45"/>
+      <c r="BT11" s="45"/>
+      <c r="BU11" s="45"/>
+      <c r="BV11" s="45"/>
+      <c r="BW11" s="45"/>
+      <c r="BX11" s="45"/>
+      <c r="BY11" s="45"/>
+      <c r="BZ11" s="45"/>
+      <c r="CA11" s="45"/>
+      <c r="CB11" s="45"/>
+      <c r="CC11" s="45"/>
       <c r="CD11" s="45" t="s">
         <v>124</v>
       </c>
       <c r="CE11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF11" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="CF11" s="45"/>
       <c r="CG11" s="45" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="CH11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CL11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CM11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="CN11" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="CI11" s="45"/>
+      <c r="CJ11" s="45"/>
+      <c r="CK11" s="45"/>
+      <c r="CL11" s="45"/>
+      <c r="CM11" s="45"/>
+      <c r="CN11" s="45"/>
       <c r="CO11" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CP11" s="45" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="CQ11" s="45" t="s">
         <v>285</v>
@@ -5774,9 +5624,7 @@
       <c r="CT11" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="CU11" s="45" t="s">
-        <v>285</v>
-      </c>
+      <c r="CU11" s="45"/>
       <c r="CV11" s="48" t="s">
         <v>275</v>
       </c>
@@ -5796,636 +5644,502 @@
       <c r="DH11" s="45"/>
     </row>
     <row r="12" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="53">
-        <v>1</v>
-      </c>
-      <c r="C12" s="53">
-        <v>1</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="53" t="s">
+      <c r="A12" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="45">
+        <v>2</v>
+      </c>
+      <c r="C12" s="45">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="P12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="S12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="T12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="W12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="X12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF12" s="53" t="s">
+      <c r="P12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="X12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="AG12" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI12" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ12" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL12" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BQ12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CE12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CH12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CJ12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CL12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CM12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CT12" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU12" s="53" t="s">
-        <v>74</v>
-      </c>
+      <c r="AG12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI12" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ12" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CE12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO12" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP12" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CQ12" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CR12" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CS12" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CT12" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="CU12" s="45"/>
       <c r="CV12" s="48" t="s">
         <v>275</v>
       </c>
       <c r="CW12" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="CX12" s="53"/>
-      <c r="CY12" s="53"/>
-      <c r="CZ12" s="53"/>
-      <c r="DA12" s="53"/>
-      <c r="DB12" s="53"/>
-      <c r="DC12" s="53"/>
-      <c r="DD12" s="53"/>
-      <c r="DE12" s="53"/>
-      <c r="DF12" s="53"/>
-      <c r="DG12" s="53"/>
-      <c r="DH12" s="53"/>
-    </row>
-    <row r="13" spans="1:112" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="53" t="s">
+      <c r="CX12" s="45"/>
+      <c r="CY12" s="45"/>
+      <c r="CZ12" s="45"/>
+      <c r="DA12" s="45"/>
+      <c r="DB12" s="45"/>
+      <c r="DC12" s="45"/>
+      <c r="DD12" s="45"/>
+      <c r="DE12" s="45"/>
+      <c r="DF12" s="45"/>
+      <c r="DG12" s="45"/>
+      <c r="DH12" s="45"/>
+    </row>
+    <row r="13" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="53">
-        <v>2</v>
-      </c>
-      <c r="C13" s="53">
-        <v>1</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="S13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="U13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="X13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF13" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG13" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI13" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ13" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK13" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL13" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BQ13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CE13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CH13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CJ13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CK13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CL13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CM13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CO13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CT13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CU13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="CV13" s="48" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="1"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
+      <c r="CO13" s="1"/>
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="1"/>
+      <c r="CV13" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="CW13" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="CX13" s="53"/>
-      <c r="CY13" s="53"/>
-      <c r="CZ13" s="53"/>
-      <c r="DA13" s="53"/>
-      <c r="DB13" s="53"/>
-      <c r="DC13" s="53"/>
-      <c r="DD13" s="53"/>
-      <c r="DE13" s="53"/>
-      <c r="DF13" s="53"/>
-      <c r="DG13" s="53"/>
-      <c r="DH13" s="53"/>
+      <c r="CW13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="1"/>
+      <c r="CZ13" s="1"/>
+      <c r="DA13" s="1"/>
+      <c r="DB13" s="1"/>
+      <c r="DC13" s="1"/>
+      <c r="DD13" s="1"/>
+      <c r="DE13" s="1"/>
+      <c r="DF13" s="1"/>
+      <c r="DG13" s="1"/>
+      <c r="DH13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6436,10 +6150,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A9:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6463,7 +6177,7 @@
     <col min="18" max="18" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6507,7 +6221,7 @@
         <v>295</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>225</v>
@@ -6518,14 +6232,9 @@
       <c r="R1" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -6551,7 +6260,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -6577,7 +6286,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6608,8 +6317,9 @@
       <c r="J4" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6641,7 +6351,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -6673,7 +6383,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -6705,7 +6415,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -6722,7 +6432,7 @@
         <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>123</v>
@@ -6734,16 +6444,11 @@
         <v>74</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="S8" t="s">
-        <v>124</v>
-      </c>
-      <c r="T8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -6782,10 +6487,8 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-    </row>
-    <row r="10" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -6818,10 +6521,8 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6854,10 +6555,8 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -6881,7 +6580,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>4</v>
       </c>
@@ -6920,10 +6619,8 @@
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
       <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>4</v>
       </c>
@@ -6962,10 +6659,8 @@
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>4</v>
       </c>
@@ -7004,10 +6699,8 @@
       <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>4</v>
       </c>
@@ -7046,8 +6739,6 @@
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
     </row>
     <row r="17" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
@@ -7463,118 +7154,6 @@
       </c>
       <c r="J26" s="8" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="48">
-        <v>1</v>
-      </c>
-      <c r="C27" s="48">
-        <v>1</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="K27" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="L27" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="M27" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N27" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="O27" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="P27" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q27" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="R27" s="47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="48">
-        <v>1</v>
-      </c>
-      <c r="C28" s="48">
-        <v>2</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="K28" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="L28" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="M28" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="N28" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="O28" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="P28" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q28" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="R28" s="48" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7673,10 +7252,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7728,7 +7307,7 @@
         <v>320</v>
       </c>
       <c r="L1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7763,10 +7342,10 @@
         <v>123</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7801,7 +7380,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7836,7 +7415,7 @@
         <v>123</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7871,7 +7450,7 @@
         <v>123</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7906,10 +7485,10 @@
         <v>123</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7944,7 +7523,7 @@
         <v>123</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -7979,7 +7558,7 @@
         <v>123</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -8014,7 +7593,7 @@
         <v>123</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -8027,6 +7606,9 @@
       <c r="C10" s="7">
         <v>1</v>
       </c>
+      <c r="D10" s="55" t="s">
+        <v>123</v>
+      </c>
       <c r="E10" t="s">
         <v>123</v>
       </c>
@@ -8046,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -8059,6 +7641,9 @@
       <c r="C11" s="7">
         <v>2</v>
       </c>
+      <c r="D11" s="55" t="s">
+        <v>123</v>
+      </c>
       <c r="E11" t="s">
         <v>123</v>
       </c>
@@ -8078,7 +7663,7 @@
         <v>123</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -8091,6 +7676,9 @@
       <c r="C12" s="7">
         <v>3</v>
       </c>
+      <c r="D12" s="56" t="s">
+        <v>123</v>
+      </c>
       <c r="E12" t="s">
         <v>123</v>
       </c>
@@ -8110,7 +7698,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -8123,6 +7711,9 @@
       <c r="C13" s="7">
         <v>4</v>
       </c>
+      <c r="D13" s="56" t="s">
+        <v>123</v>
+      </c>
       <c r="E13" t="s">
         <v>123</v>
       </c>
@@ -8142,7 +7733,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -8192,7 +7783,7 @@
         <v>321</v>
       </c>
       <c r="H15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I15" t="s">
         <v>123</v>
@@ -8355,10 +7946,10 @@
         <v>123</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -8393,7 +7984,7 @@
         <v>123</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -8428,10 +8019,10 @@
         <v>123</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L22" s="28" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -8466,80 +8057,7 @@
         <v>123</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="45">
-        <v>1</v>
-      </c>
-      <c r="C24" s="45">
-        <v>1</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="K24" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="L24" s="47" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="45">
-        <v>1</v>
-      </c>
-      <c r="C25" s="45">
-        <v>2</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="47" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -8838,8 +8356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8851,7 +8369,7 @@
     <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -8872,79 +8390,79 @@
         <v>105</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>638</v>
+        <v>345</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>348</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>347</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>107</v>
       </c>
       <c r="K1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>340</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD1" s="6" t="s">
         <v>342</v>
@@ -8958,7 +8476,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -8976,16 +8494,16 @@
         <v>123</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>279</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I3" s="47" t="s">
         <v>74</v>
@@ -9068,16 +8586,16 @@
         <v>123</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>279</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I4" s="47" t="s">
         <v>74</v>
@@ -9189,28 +8707,28 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I1" t="s">
         <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K1" t="s">
         <v>271</v>
       </c>
       <c r="L1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -9227,10 +8745,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
         <v>326</v>
@@ -9258,10 +8776,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
         <v>121</v>
@@ -9288,10 +8806,10 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G4" t="s">
         <v>326</v>
@@ -9359,40 +8877,40 @@
         <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F1" t="s">
         <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>340</v>
@@ -9413,7 +8931,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S2" t="s">
         <v>302</v>
@@ -9444,7 +8962,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -9478,7 +8996,7 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F5" t="s">
         <v>123</v>
@@ -9505,7 +9023,7 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F6" t="s">
         <v>123</v>
@@ -9582,175 +9100,175 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E1" t="s">
         <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1" t="s">
         <v>107</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>147</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>145</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF1" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="AG1" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="AH1" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>181</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="BH1" s="5" t="s">
         <v>340</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BJ1" s="6" t="s">
         <v>342</v>
@@ -9871,10 +9389,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:BN26"/>
+  <dimension ref="A1:BO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9889,7 +9407,7 @@
     <col min="57" max="57" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9900,130 +9418,130 @@
         <v>10</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q1" s="40" t="s">
         <v>107</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AT1" s="5" t="s">
         <v>340</v>
@@ -10035,61 +9553,64 @@
         <v>271</v>
       </c>
       <c r="AW1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AX1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AY1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AZ1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BA1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BB1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BC1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="BD1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="BE1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="BF1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="BG1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="BH1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="BI1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="BJ1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="BK1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="BL1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="BM1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="BN1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+      <c r="BO1" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -10107,16 +9628,16 @@
         <v>121</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>102</v>
@@ -10125,13 +9646,13 @@
         <v>74</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>121</v>
@@ -10192,7 +9713,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -10212,31 +9733,31 @@
         <v>78</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>121</v>
@@ -10244,7 +9765,9 @@
       <c r="Q3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="R3" s="57" t="s">
+        <v>624</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -10299,7 +9822,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -10319,31 +9842,31 @@
         <v>78</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>279</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>121</v>
@@ -10351,7 +9874,9 @@
       <c r="Q4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="R4" s="7"/>
+      <c r="R4" s="57" t="s">
+        <v>624</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -10406,16 +9931,18 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
       <c r="D5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>121</v>
@@ -10424,44 +9951,48 @@
         <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>121</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>483</v>
+        <v>121</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>279</v>
+        <v>637</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>484</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>485</v>
+        <v>121</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>486</v>
+        <v>121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>487</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="57" t="s">
+        <v>624</v>
+      </c>
       <c r="S5" s="7"/>
-      <c r="T5" s="6"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="5"/>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
@@ -10485,232 +10016,130 @@
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BO5" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AW5" s="7" t="s">
+      <c r="AW6" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7" t="s">
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7" t="s">
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7" t="s">
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD5" s="7" t="s">
+      <c r="BD6" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BE5" s="7" t="s">
+      <c r="BE6" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:66" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="45">
-        <v>1</v>
-      </c>
-      <c r="C6" s="45">
-        <v>1</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>483</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="J6" s="45" t="s">
-        <v>484</v>
-      </c>
-      <c r="K6" s="45" t="s">
-        <v>621</v>
-      </c>
-      <c r="L6" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="45" t="s">
-        <v>485</v>
-      </c>
-      <c r="N6" s="45" t="s">
-        <v>486</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>487</v>
-      </c>
-      <c r="P6" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q6" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="R6" s="49" t="s">
-        <v>623</v>
-      </c>
-      <c r="S6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="U6" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="V6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="W6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z6" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF6" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH6" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI6" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ6" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK6" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL6" s="45" 